--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormR1R2.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormR1R2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="195">
   <si>
     <t>Other</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>PART D: Feedback (If any)</t>
-  </si>
-  <si>
-    <t>Structure in good condition. Vegetation overgrowth on structure</t>
   </si>
   <si>
     <t>PART C: General Comment (if any)</t>
@@ -1597,7 +1594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1891,66 +1888,66 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2071,9 +2068,66 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2095,45 +2149,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2179,6 +2194,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2188,105 +2299,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2331,6 +2343,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3181,8 +3205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A108" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO116" sqref="AO116"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK81" sqref="AK81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3274,7 +3298,7 @@
       <c r="F3" s="64"/>
       <c r="G3" s="65"/>
       <c r="H3" s="72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I3" s="73"/>
       <c r="J3" s="73"/>
@@ -3305,7 +3329,7 @@
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B4" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -3321,7 +3345,7 @@
       <c r="N4" s="55"/>
       <c r="O4" s="55"/>
       <c r="P4" s="75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="76"/>
       <c r="R4" s="76"/>
@@ -3396,7 +3420,7 @@
       <c r="K6" s="103"/>
       <c r="L6" s="103"/>
       <c r="M6" s="104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N6" s="105"/>
       <c r="O6" s="105"/>
@@ -3408,7 +3432,7 @@
       <c r="U6" s="103"/>
       <c r="V6" s="103"/>
       <c r="W6" s="106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X6" s="103"/>
       <c r="Y6" s="103"/>
@@ -3425,7 +3449,7 @@
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B7" s="108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="109"/>
       <c r="D7" s="109"/>
@@ -3438,7 +3462,7 @@
       <c r="K7" s="110"/>
       <c r="L7" s="110"/>
       <c r="M7" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N7" s="112"/>
       <c r="O7" s="112"/>
@@ -3450,7 +3474,7 @@
       <c r="U7" s="110"/>
       <c r="V7" s="110"/>
       <c r="W7" s="113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X7" s="114"/>
       <c r="Y7" s="114"/>
@@ -3466,7 +3490,7 @@
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B8" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
@@ -3540,10 +3564,10 @@
     <row r="10" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B10" s="48"/>
       <c r="C10" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -3551,10 +3575,10 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -3562,10 +3586,10 @@
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
@@ -3573,10 +3597,10 @@
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
       <c r="X10" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
@@ -3591,10 +3615,10 @@
     <row r="11" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B11" s="48"/>
       <c r="C11" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -3602,10 +3626,10 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -3613,10 +3637,10 @@
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
@@ -3624,10 +3648,10 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
       <c r="X11" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
@@ -3676,7 +3700,7 @@
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B13" s="79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -3749,10 +3773,10 @@
     <row r="15" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B15" s="48"/>
       <c r="C15" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -3763,10 +3787,10 @@
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
@@ -3778,10 +3802,10 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
       <c r="X15" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y15" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
@@ -3796,10 +3820,10 @@
     <row r="16" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B16" s="48"/>
       <c r="C16" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -3810,10 +3834,10 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
@@ -3825,10 +3849,10 @@
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
       <c r="X16" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y16" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
@@ -3843,10 +3867,10 @@
     <row r="17" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B17" s="48"/>
       <c r="C17" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -3857,10 +3881,10 @@
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
@@ -3872,10 +3896,10 @@
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
       <c r="X17" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y17" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
@@ -3890,10 +3914,10 @@
     <row r="18" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B18" s="48"/>
       <c r="C18" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -3904,10 +3928,10 @@
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
@@ -3919,10 +3943,10 @@
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
       <c r="X18" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y18" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
@@ -3937,10 +3961,10 @@
     <row r="19" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B19" s="48"/>
       <c r="C19" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -3951,10 +3975,10 @@
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
@@ -3966,10 +3990,10 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
       <c r="X19" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y19" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
@@ -3985,10 +4009,10 @@
     <row r="20" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B20" s="48"/>
       <c r="C20" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -3999,10 +4023,10 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
@@ -4014,10 +4038,10 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
       <c r="X20" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y20" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
@@ -4032,10 +4056,10 @@
     <row r="21" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B21" s="48"/>
       <c r="C21" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -4046,10 +4070,10 @@
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O21" s="20"/>
       <c r="P21" s="20"/>
@@ -4061,10 +4085,10 @@
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
       <c r="X21" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y21" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
@@ -4079,10 +4103,10 @@
     <row r="22" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B22" s="48"/>
       <c r="C22" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -4093,10 +4117,10 @@
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
@@ -4108,10 +4132,10 @@
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
       <c r="X22" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y22" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
@@ -4160,7 +4184,7 @@
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B24" s="79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="80"/>
@@ -4233,10 +4257,10 @@
     <row r="26" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B26" s="48"/>
       <c r="C26" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -4247,10 +4271,10 @@
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
@@ -4262,10 +4286,10 @@
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
       <c r="X26" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y26" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
@@ -4280,10 +4304,10 @@
     <row r="27" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B27" s="48"/>
       <c r="C27" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -4294,10 +4318,10 @@
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
@@ -4309,10 +4333,10 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
       <c r="X27" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y27" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
@@ -4327,10 +4351,10 @@
     <row r="28" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B28" s="48"/>
       <c r="C28" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -4341,10 +4365,10 @@
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
       <c r="M28" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
@@ -4356,10 +4380,10 @@
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
       <c r="X28" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y28" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
@@ -4374,10 +4398,10 @@
     <row r="29" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B29" s="48"/>
       <c r="C29" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -4388,10 +4412,10 @@
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
@@ -4403,10 +4427,10 @@
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
       <c r="X29" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y29" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
@@ -4421,10 +4445,10 @@
     <row r="30" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B30" s="48"/>
       <c r="C30" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -4435,10 +4459,10 @@
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="20"/>
       <c r="P30" s="20"/>
@@ -4450,10 +4474,10 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y30" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
@@ -4500,12 +4524,12 @@
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B32" s="82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="83"/>
       <c r="D32" s="84"/>
       <c r="E32" s="88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="89"/>
       <c r="G32" s="89"/>
@@ -4617,226 +4641,226 @@
       <c r="AH33" s="116"/>
     </row>
     <row r="34" spans="2:41" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="122"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="117"/>
-      <c r="AF34" s="117"/>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="118"/>
+      <c r="B34" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="121"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="118"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="118"/>
+      <c r="W34" s="118"/>
+      <c r="X34" s="118"/>
+      <c r="Y34" s="118"/>
+      <c r="Z34" s="118"/>
+      <c r="AA34" s="118"/>
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="118"/>
+      <c r="AD34" s="118"/>
+      <c r="AE34" s="118"/>
+      <c r="AF34" s="118"/>
+      <c r="AG34" s="118"/>
+      <c r="AH34" s="119"/>
     </row>
     <row r="35" spans="2:41" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="131"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="119"/>
-      <c r="S35" s="119"/>
-      <c r="T35" s="119"/>
-      <c r="U35" s="119"/>
-      <c r="V35" s="119"/>
-      <c r="W35" s="119"/>
-      <c r="X35" s="119"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="119"/>
-      <c r="AA35" s="119"/>
-      <c r="AB35" s="119"/>
-      <c r="AC35" s="119"/>
-      <c r="AD35" s="119"/>
-      <c r="AE35" s="119"/>
-      <c r="AF35" s="119"/>
-      <c r="AG35" s="119"/>
-      <c r="AH35" s="120"/>
+      <c r="B35" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="129"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="132"/>
+      <c r="P35" s="132"/>
+      <c r="Q35" s="132"/>
+      <c r="R35" s="132"/>
+      <c r="S35" s="132"/>
+      <c r="T35" s="132"/>
+      <c r="U35" s="132"/>
+      <c r="V35" s="132"/>
+      <c r="W35" s="132"/>
+      <c r="X35" s="132"/>
+      <c r="Y35" s="132"/>
+      <c r="Z35" s="132"/>
+      <c r="AA35" s="132"/>
+      <c r="AB35" s="132"/>
+      <c r="AC35" s="132"/>
+      <c r="AD35" s="132"/>
+      <c r="AE35" s="132"/>
+      <c r="AF35" s="132"/>
+      <c r="AG35" s="132"/>
+      <c r="AH35" s="136"/>
     </row>
     <row r="36" spans="2:41" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="126"/>
-      <c r="U36" s="126"/>
-      <c r="V36" s="126"/>
-      <c r="W36" s="126"/>
-      <c r="X36" s="126"/>
-      <c r="Y36" s="126"/>
-      <c r="Z36" s="126"/>
-      <c r="AA36" s="126"/>
-      <c r="AB36" s="126"/>
-      <c r="AC36" s="126"/>
-      <c r="AD36" s="126"/>
-      <c r="AE36" s="126"/>
-      <c r="AF36" s="126"/>
-      <c r="AG36" s="126"/>
-      <c r="AH36" s="136"/>
+      <c r="B36" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="126"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="117"/>
+      <c r="Q36" s="117"/>
+      <c r="R36" s="117"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="117"/>
+      <c r="U36" s="117"/>
+      <c r="V36" s="117"/>
+      <c r="W36" s="117"/>
+      <c r="X36" s="117"/>
+      <c r="Y36" s="117"/>
+      <c r="Z36" s="117"/>
+      <c r="AA36" s="117"/>
+      <c r="AB36" s="117"/>
+      <c r="AC36" s="117"/>
+      <c r="AD36" s="117"/>
+      <c r="AE36" s="117"/>
+      <c r="AF36" s="117"/>
+      <c r="AG36" s="117"/>
+      <c r="AH36" s="135"/>
     </row>
     <row r="37" spans="2:41" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="137" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="138"/>
       <c r="D37" s="139"/>
       <c r="E37" s="146"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="117"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="117"/>
-      <c r="X37" s="117"/>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="117"/>
-      <c r="AC37" s="117"/>
-      <c r="AD37" s="117"/>
-      <c r="AE37" s="117"/>
-      <c r="AF37" s="117"/>
-      <c r="AG37" s="117"/>
-      <c r="AH37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="118"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="118"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
+      <c r="R37" s="118"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="118"/>
+      <c r="U37" s="118"/>
+      <c r="V37" s="118"/>
+      <c r="W37" s="118"/>
+      <c r="X37" s="118"/>
+      <c r="Y37" s="118"/>
+      <c r="Z37" s="118"/>
+      <c r="AA37" s="118"/>
+      <c r="AB37" s="118"/>
+      <c r="AC37" s="118"/>
+      <c r="AD37" s="118"/>
+      <c r="AE37" s="118"/>
+      <c r="AF37" s="118"/>
+      <c r="AG37" s="118"/>
+      <c r="AH37" s="119"/>
     </row>
     <row r="38" spans="2:41" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="140"/>
       <c r="C38" s="141"/>
       <c r="D38" s="142"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="119"/>
-      <c r="T38" s="119"/>
-      <c r="U38" s="119"/>
-      <c r="V38" s="119"/>
-      <c r="W38" s="119"/>
-      <c r="X38" s="119"/>
-      <c r="Y38" s="119"/>
-      <c r="Z38" s="119"/>
-      <c r="AA38" s="119"/>
-      <c r="AB38" s="119"/>
-      <c r="AC38" s="119"/>
-      <c r="AD38" s="119"/>
-      <c r="AE38" s="119"/>
-      <c r="AF38" s="119"/>
-      <c r="AG38" s="119"/>
-      <c r="AH38" s="120"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="132"/>
+      <c r="X38" s="132"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="132"/>
+      <c r="AA38" s="132"/>
+      <c r="AB38" s="132"/>
+      <c r="AC38" s="132"/>
+      <c r="AD38" s="132"/>
+      <c r="AE38" s="132"/>
+      <c r="AF38" s="132"/>
+      <c r="AG38" s="132"/>
+      <c r="AH38" s="136"/>
     </row>
     <row r="39" spans="2:41" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="143"/>
       <c r="C39" s="144"/>
       <c r="D39" s="145"/>
       <c r="E39" s="157"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="126"/>
-      <c r="P39" s="126"/>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="126"/>
-      <c r="T39" s="126"/>
-      <c r="U39" s="126"/>
-      <c r="V39" s="126"/>
-      <c r="W39" s="126"/>
-      <c r="X39" s="126"/>
-      <c r="Y39" s="126"/>
-      <c r="Z39" s="126"/>
-      <c r="AA39" s="126"/>
-      <c r="AB39" s="126"/>
-      <c r="AC39" s="126"/>
-      <c r="AD39" s="126"/>
-      <c r="AE39" s="126"/>
-      <c r="AF39" s="126"/>
-      <c r="AG39" s="126"/>
-      <c r="AH39" s="136"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="117"/>
+      <c r="T39" s="117"/>
+      <c r="U39" s="117"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="117"/>
+      <c r="X39" s="117"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="117"/>
+      <c r="AA39" s="117"/>
+      <c r="AB39" s="117"/>
+      <c r="AC39" s="117"/>
+      <c r="AD39" s="117"/>
+      <c r="AE39" s="117"/>
+      <c r="AF39" s="117"/>
+      <c r="AG39" s="117"/>
+      <c r="AH39" s="135"/>
     </row>
     <row r="40" spans="2:41" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="148" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="149"/>
       <c r="D40" s="150"/>
@@ -4873,7 +4897,7 @@
     </row>
     <row r="41" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B41" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -4910,7 +4934,7 @@
     </row>
     <row r="42" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B42" s="153" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="153"/>
       <c r="D42" s="153"/>
@@ -4947,12 +4971,12 @@
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B43" s="154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="155"/>
       <c r="D43" s="155"/>
       <c r="E43" s="155" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" s="155"/>
       <c r="G43" s="155"/>
@@ -4991,7 +5015,7 @@
       <c r="C44" s="174"/>
       <c r="D44" s="174"/>
       <c r="E44" s="175" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" s="175"/>
       <c r="G44" s="175"/>
@@ -5030,7 +5054,7 @@
       <c r="C45" s="159"/>
       <c r="D45" s="159"/>
       <c r="E45" s="160" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="160"/>
       <c r="G45" s="160"/>
@@ -5069,7 +5093,7 @@
       <c r="C46" s="159"/>
       <c r="D46" s="159"/>
       <c r="E46" s="160" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" s="160"/>
       <c r="G46" s="160"/>
@@ -5111,7 +5135,7 @@
       <c r="C47" s="159"/>
       <c r="D47" s="159"/>
       <c r="E47" s="160" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" s="160"/>
       <c r="G47" s="160"/>
@@ -5153,7 +5177,7 @@
       <c r="C48" s="170"/>
       <c r="D48" s="170"/>
       <c r="E48" s="171" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F48" s="171"/>
       <c r="G48" s="171"/>
@@ -5228,12 +5252,12 @@
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B50" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -5309,10 +5333,10 @@
     <row r="52" spans="2:54" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="32"/>
       <c r="C52" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
@@ -5322,10 +5346,10 @@
       <c r="J52" s="29"/>
       <c r="K52" s="30"/>
       <c r="L52" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M52" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N52" s="29"/>
       <c r="O52" s="29"/>
@@ -5339,10 +5363,10 @@
       <c r="W52" s="29"/>
       <c r="X52" s="30"/>
       <c r="Y52" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z52" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA52" s="29"/>
       <c r="AB52" s="29"/>
@@ -5359,10 +5383,10 @@
     <row r="53" spans="2:54" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="32"/>
       <c r="C53" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
@@ -5372,10 +5396,10 @@
       <c r="J53" s="29"/>
       <c r="K53" s="30"/>
       <c r="L53" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M53" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N53" s="29"/>
       <c r="O53" s="29"/>
@@ -5389,10 +5413,10 @@
       <c r="W53" s="29"/>
       <c r="X53" s="30"/>
       <c r="Y53" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z53" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA53" s="29"/>
       <c r="AB53" s="29"/>
@@ -5409,10 +5433,10 @@
     <row r="54" spans="2:54" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="32"/>
       <c r="C54" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
@@ -5422,10 +5446,10 @@
       <c r="J54" s="29"/>
       <c r="K54" s="30"/>
       <c r="L54" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M54" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
@@ -5439,10 +5463,10 @@
       <c r="W54" s="29"/>
       <c r="X54" s="30"/>
       <c r="Y54" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z54" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA54" s="29"/>
       <c r="AB54" s="29"/>
@@ -5459,10 +5483,10 @@
     <row r="55" spans="2:54" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="32"/>
       <c r="C55" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
@@ -5472,10 +5496,10 @@
       <c r="J55" s="29"/>
       <c r="K55" s="30"/>
       <c r="L55" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M55" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N55" s="29"/>
       <c r="O55" s="29"/>
@@ -5489,10 +5513,10 @@
       <c r="W55" s="29"/>
       <c r="X55" s="30"/>
       <c r="Y55" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z55" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA55" s="29"/>
       <c r="AB55" s="29"/>
@@ -5509,10 +5533,10 @@
     <row r="56" spans="2:54" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="32"/>
       <c r="C56" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
@@ -5522,10 +5546,10 @@
       <c r="J56" s="29"/>
       <c r="K56" s="30"/>
       <c r="L56" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M56" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N56" s="29"/>
       <c r="O56" s="29"/>
@@ -5539,10 +5563,10 @@
       <c r="W56" s="29"/>
       <c r="X56" s="30"/>
       <c r="Y56" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z56" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA56" s="29"/>
       <c r="AB56" s="29"/>
@@ -5560,10 +5584,10 @@
     <row r="57" spans="2:54" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="32"/>
       <c r="C57" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -5573,10 +5597,10 @@
       <c r="J57" s="29"/>
       <c r="K57" s="30"/>
       <c r="L57" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M57" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N57" s="29"/>
       <c r="O57" s="29"/>
@@ -5590,10 +5614,10 @@
       <c r="W57" s="29"/>
       <c r="X57" s="30"/>
       <c r="Y57" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z57" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA57" s="29"/>
       <c r="AB57" s="29"/>
@@ -5611,10 +5635,10 @@
     <row r="58" spans="2:54" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="32"/>
       <c r="C58" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
@@ -5624,10 +5648,10 @@
       <c r="J58" s="29"/>
       <c r="K58" s="30"/>
       <c r="L58" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M58" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N58" s="29"/>
       <c r="O58" s="29"/>
@@ -5641,10 +5665,10 @@
       <c r="W58" s="29"/>
       <c r="X58" s="30"/>
       <c r="Y58" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z58" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA58" s="29"/>
       <c r="AB58" s="29"/>
@@ -5662,10 +5686,10 @@
     <row r="59" spans="2:54" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="32"/>
       <c r="C59" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E59" s="29"/>
       <c r="F59" s="29"/>
@@ -5675,10 +5699,10 @@
       <c r="J59" s="29"/>
       <c r="K59" s="30"/>
       <c r="L59" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M59" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N59" s="29"/>
       <c r="O59" s="29"/>
@@ -5835,7 +5859,7 @@
       <c r="F63" s="64"/>
       <c r="G63" s="65"/>
       <c r="H63" s="72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I63" s="73"/>
       <c r="J63" s="73"/>
@@ -5908,86 +5932,86 @@
       <c r="BB64" s="1"/>
     </row>
     <row r="65" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="185" t="s">
+      <c r="B65" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="186"/>
-      <c r="D65" s="186"/>
-      <c r="E65" s="186"/>
-      <c r="F65" s="186"/>
-      <c r="G65" s="186"/>
-      <c r="H65" s="187"/>
-      <c r="I65" s="187"/>
-      <c r="J65" s="187"/>
-      <c r="K65" s="187"/>
-      <c r="L65" s="187"/>
-      <c r="M65" s="187"/>
-      <c r="N65" s="187"/>
-      <c r="O65" s="188" t="s">
+      <c r="C65" s="178"/>
+      <c r="D65" s="178"/>
+      <c r="E65" s="178"/>
+      <c r="F65" s="178"/>
+      <c r="G65" s="178"/>
+      <c r="H65" s="179"/>
+      <c r="I65" s="179"/>
+      <c r="J65" s="179"/>
+      <c r="K65" s="179"/>
+      <c r="L65" s="179"/>
+      <c r="M65" s="179"/>
+      <c r="N65" s="179"/>
+      <c r="O65" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="P65" s="186"/>
-      <c r="Q65" s="186"/>
-      <c r="R65" s="186"/>
-      <c r="S65" s="186"/>
-      <c r="T65" s="186"/>
-      <c r="U65" s="189"/>
-      <c r="V65" s="189"/>
-      <c r="W65" s="189"/>
-      <c r="X65" s="189"/>
-      <c r="Y65" s="189"/>
-      <c r="Z65" s="189"/>
-      <c r="AA65" s="189"/>
-      <c r="AB65" s="189"/>
-      <c r="AC65" s="189"/>
-      <c r="AD65" s="189"/>
-      <c r="AE65" s="189"/>
-      <c r="AF65" s="189"/>
-      <c r="AG65" s="189"/>
-      <c r="AH65" s="190"/>
+      <c r="P65" s="178"/>
+      <c r="Q65" s="178"/>
+      <c r="R65" s="178"/>
+      <c r="S65" s="178"/>
+      <c r="T65" s="178"/>
+      <c r="U65" s="181"/>
+      <c r="V65" s="181"/>
+      <c r="W65" s="181"/>
+      <c r="X65" s="181"/>
+      <c r="Y65" s="181"/>
+      <c r="Z65" s="181"/>
+      <c r="AA65" s="181"/>
+      <c r="AB65" s="181"/>
+      <c r="AC65" s="181"/>
+      <c r="AD65" s="181"/>
+      <c r="AE65" s="181"/>
+      <c r="AF65" s="181"/>
+      <c r="AG65" s="181"/>
+      <c r="AH65" s="182"/>
       <c r="AM65" s="18"/>
       <c r="AN65" s="19"/>
       <c r="AO65" s="19"/>
       <c r="BB65" s="4"/>
     </row>
     <row r="66" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="191" t="s">
+      <c r="B66" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="192"/>
-      <c r="D66" s="192"/>
-      <c r="E66" s="192"/>
-      <c r="F66" s="192"/>
-      <c r="G66" s="193"/>
-      <c r="H66" s="193"/>
-      <c r="I66" s="193"/>
-      <c r="J66" s="193"/>
-      <c r="K66" s="193"/>
-      <c r="L66" s="193"/>
-      <c r="M66" s="193"/>
-      <c r="N66" s="193"/>
-      <c r="O66" s="194" t="s">
+      <c r="C66" s="184"/>
+      <c r="D66" s="184"/>
+      <c r="E66" s="184"/>
+      <c r="F66" s="184"/>
+      <c r="G66" s="185"/>
+      <c r="H66" s="185"/>
+      <c r="I66" s="185"/>
+      <c r="J66" s="185"/>
+      <c r="K66" s="185"/>
+      <c r="L66" s="185"/>
+      <c r="M66" s="185"/>
+      <c r="N66" s="185"/>
+      <c r="O66" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="P66" s="195"/>
-      <c r="Q66" s="195"/>
-      <c r="R66" s="195"/>
-      <c r="S66" s="195"/>
-      <c r="T66" s="195"/>
-      <c r="U66" s="196"/>
-      <c r="V66" s="196"/>
-      <c r="W66" s="196"/>
-      <c r="X66" s="196"/>
-      <c r="Y66" s="196"/>
-      <c r="Z66" s="196"/>
-      <c r="AA66" s="196"/>
-      <c r="AB66" s="196"/>
-      <c r="AC66" s="196"/>
-      <c r="AD66" s="196"/>
-      <c r="AE66" s="196"/>
-      <c r="AF66" s="196"/>
-      <c r="AG66" s="196"/>
-      <c r="AH66" s="197"/>
+      <c r="P66" s="187"/>
+      <c r="Q66" s="187"/>
+      <c r="R66" s="187"/>
+      <c r="S66" s="187"/>
+      <c r="T66" s="187"/>
+      <c r="U66" s="188"/>
+      <c r="V66" s="188"/>
+      <c r="W66" s="188"/>
+      <c r="X66" s="188"/>
+      <c r="Y66" s="188"/>
+      <c r="Z66" s="188"/>
+      <c r="AA66" s="188"/>
+      <c r="AB66" s="188"/>
+      <c r="AC66" s="188"/>
+      <c r="AD66" s="188"/>
+      <c r="AE66" s="188"/>
+      <c r="AF66" s="188"/>
+      <c r="AG66" s="188"/>
+      <c r="AH66" s="189"/>
       <c r="AM66" s="18"/>
       <c r="AN66" s="19"/>
       <c r="AO66" s="19"/>
@@ -6059,59 +6083,59 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
-      <c r="X68" s="181" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y68" s="181"/>
-      <c r="Z68" s="181"/>
-      <c r="AA68" s="181"/>
-      <c r="AB68" s="181"/>
-      <c r="AC68" s="181"/>
-      <c r="AD68" s="181"/>
-      <c r="AE68" s="181"/>
-      <c r="AF68" s="181"/>
-      <c r="AG68" s="181"/>
-      <c r="AH68" s="181"/>
+      <c r="X68" s="200" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y68" s="200"/>
+      <c r="Z68" s="200"/>
+      <c r="AA68" s="200"/>
+      <c r="AB68" s="200"/>
+      <c r="AC68" s="200"/>
+      <c r="AD68" s="200"/>
+      <c r="AE68" s="200"/>
+      <c r="AF68" s="200"/>
+      <c r="AG68" s="200"/>
+      <c r="AH68" s="200"/>
       <c r="AM68" s="18"/>
       <c r="AN68" s="16"/>
       <c r="BB68" s="4"/>
     </row>
     <row r="69" spans="2:54" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="182" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="183"/>
-      <c r="D69" s="183"/>
-      <c r="E69" s="183"/>
-      <c r="F69" s="183"/>
-      <c r="G69" s="183"/>
-      <c r="H69" s="183"/>
-      <c r="I69" s="183"/>
-      <c r="J69" s="183"/>
-      <c r="K69" s="183"/>
-      <c r="L69" s="183"/>
-      <c r="M69" s="183"/>
-      <c r="N69" s="183"/>
-      <c r="O69" s="183"/>
-      <c r="P69" s="183"/>
-      <c r="Q69" s="183"/>
-      <c r="R69" s="183"/>
-      <c r="S69" s="183"/>
-      <c r="T69" s="183"/>
-      <c r="U69" s="183"/>
-      <c r="V69" s="183"/>
-      <c r="W69" s="183"/>
-      <c r="X69" s="183"/>
-      <c r="Y69" s="183"/>
-      <c r="Z69" s="183"/>
-      <c r="AA69" s="183"/>
-      <c r="AB69" s="183"/>
-      <c r="AC69" s="183"/>
-      <c r="AD69" s="183"/>
-      <c r="AE69" s="183"/>
-      <c r="AF69" s="183"/>
-      <c r="AG69" s="183"/>
-      <c r="AH69" s="184"/>
+      <c r="B69" s="201" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="202"/>
+      <c r="D69" s="202"/>
+      <c r="E69" s="202"/>
+      <c r="F69" s="202"/>
+      <c r="G69" s="202"/>
+      <c r="H69" s="202"/>
+      <c r="I69" s="202"/>
+      <c r="J69" s="202"/>
+      <c r="K69" s="202"/>
+      <c r="L69" s="202"/>
+      <c r="M69" s="202"/>
+      <c r="N69" s="202"/>
+      <c r="O69" s="202"/>
+      <c r="P69" s="202"/>
+      <c r="Q69" s="202"/>
+      <c r="R69" s="202"/>
+      <c r="S69" s="202"/>
+      <c r="T69" s="202"/>
+      <c r="U69" s="202"/>
+      <c r="V69" s="202"/>
+      <c r="W69" s="202"/>
+      <c r="X69" s="202"/>
+      <c r="Y69" s="202"/>
+      <c r="Z69" s="202"/>
+      <c r="AA69" s="202"/>
+      <c r="AB69" s="202"/>
+      <c r="AC69" s="202"/>
+      <c r="AD69" s="202"/>
+      <c r="AE69" s="202"/>
+      <c r="AF69" s="202"/>
+      <c r="AG69" s="202"/>
+      <c r="AH69" s="203"/>
       <c r="AM69" s="18"/>
       <c r="BB69" s="4"/>
     </row>
@@ -6154,1032 +6178,1030 @@
       <c r="BB70" s="4"/>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B71" s="177" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" s="177"/>
-      <c r="D71" s="177"/>
-      <c r="E71" s="177"/>
-      <c r="F71" s="177"/>
-      <c r="G71" s="177"/>
-      <c r="H71" s="177"/>
-      <c r="I71" s="177"/>
-      <c r="J71" s="177"/>
-      <c r="K71" s="177"/>
-      <c r="L71" s="177"/>
-      <c r="M71" s="177"/>
-      <c r="N71" s="177"/>
-      <c r="O71" s="177"/>
-      <c r="P71" s="177"/>
-      <c r="Q71" s="177"/>
-      <c r="R71" s="177"/>
-      <c r="S71" s="177"/>
-      <c r="T71" s="177"/>
-      <c r="U71" s="177"/>
-      <c r="V71" s="177"/>
-      <c r="W71" s="177"/>
-      <c r="X71" s="177"/>
-      <c r="Y71" s="177"/>
-      <c r="Z71" s="177"/>
-      <c r="AA71" s="177"/>
-      <c r="AB71" s="177"/>
-      <c r="AC71" s="177"/>
-      <c r="AD71" s="177"/>
-      <c r="AE71" s="177"/>
-      <c r="AF71" s="177"/>
-      <c r="AG71" s="177"/>
-      <c r="AH71" s="177"/>
+      <c r="B71" s="190" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="190"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="190"/>
+      <c r="F71" s="190"/>
+      <c r="G71" s="190"/>
+      <c r="H71" s="190"/>
+      <c r="I71" s="190"/>
+      <c r="J71" s="190"/>
+      <c r="K71" s="190"/>
+      <c r="L71" s="190"/>
+      <c r="M71" s="190"/>
+      <c r="N71" s="190"/>
+      <c r="O71" s="190"/>
+      <c r="P71" s="190"/>
+      <c r="Q71" s="190"/>
+      <c r="R71" s="190"/>
+      <c r="S71" s="190"/>
+      <c r="T71" s="190"/>
+      <c r="U71" s="190"/>
+      <c r="V71" s="190"/>
+      <c r="W71" s="190"/>
+      <c r="X71" s="190"/>
+      <c r="Y71" s="190"/>
+      <c r="Z71" s="190"/>
+      <c r="AA71" s="190"/>
+      <c r="AB71" s="190"/>
+      <c r="AC71" s="190"/>
+      <c r="AD71" s="190"/>
+      <c r="AE71" s="190"/>
+      <c r="AF71" s="190"/>
+      <c r="AG71" s="190"/>
+      <c r="AH71" s="190"/>
       <c r="BB71" s="4"/>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B72" s="178" t="s">
+      <c r="B72" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="179"/>
-      <c r="D72" s="179"/>
-      <c r="E72" s="179"/>
-      <c r="F72" s="179"/>
-      <c r="G72" s="179"/>
-      <c r="H72" s="179"/>
-      <c r="I72" s="179"/>
-      <c r="J72" s="179"/>
-      <c r="K72" s="179"/>
-      <c r="L72" s="179"/>
-      <c r="M72" s="179"/>
-      <c r="N72" s="179"/>
-      <c r="O72" s="179"/>
-      <c r="P72" s="179"/>
-      <c r="Q72" s="179"/>
-      <c r="R72" s="180"/>
-      <c r="S72" s="178" t="s">
+      <c r="C72" s="198"/>
+      <c r="D72" s="198"/>
+      <c r="E72" s="198"/>
+      <c r="F72" s="198"/>
+      <c r="G72" s="198"/>
+      <c r="H72" s="198"/>
+      <c r="I72" s="198"/>
+      <c r="J72" s="198"/>
+      <c r="K72" s="198"/>
+      <c r="L72" s="198"/>
+      <c r="M72" s="198"/>
+      <c r="N72" s="198"/>
+      <c r="O72" s="198"/>
+      <c r="P72" s="198"/>
+      <c r="Q72" s="198"/>
+      <c r="R72" s="199"/>
+      <c r="S72" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="T72" s="179"/>
-      <c r="U72" s="179"/>
-      <c r="V72" s="179"/>
-      <c r="W72" s="179"/>
-      <c r="X72" s="179"/>
-      <c r="Y72" s="179"/>
-      <c r="Z72" s="179"/>
-      <c r="AA72" s="179"/>
-      <c r="AB72" s="179"/>
-      <c r="AC72" s="179"/>
-      <c r="AD72" s="179"/>
-      <c r="AE72" s="179"/>
-      <c r="AF72" s="179"/>
-      <c r="AG72" s="179"/>
-      <c r="AH72" s="180"/>
+      <c r="T72" s="198"/>
+      <c r="U72" s="198"/>
+      <c r="V72" s="198"/>
+      <c r="W72" s="198"/>
+      <c r="X72" s="198"/>
+      <c r="Y72" s="198"/>
+      <c r="Z72" s="198"/>
+      <c r="AA72" s="198"/>
+      <c r="AB72" s="198"/>
+      <c r="AC72" s="198"/>
+      <c r="AD72" s="198"/>
+      <c r="AE72" s="198"/>
+      <c r="AF72" s="198"/>
+      <c r="AG72" s="198"/>
+      <c r="AH72" s="199"/>
       <c r="BB72" s="4"/>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B73" s="198"/>
-      <c r="C73" s="199"/>
-      <c r="D73" s="199"/>
-      <c r="E73" s="199"/>
-      <c r="F73" s="199"/>
-      <c r="G73" s="199"/>
-      <c r="H73" s="199"/>
-      <c r="I73" s="199"/>
-      <c r="J73" s="199"/>
-      <c r="K73" s="199"/>
-      <c r="L73" s="199"/>
-      <c r="M73" s="199"/>
-      <c r="N73" s="199"/>
-      <c r="O73" s="199"/>
-      <c r="P73" s="199"/>
-      <c r="Q73" s="199"/>
-      <c r="R73" s="200"/>
-      <c r="S73" s="198"/>
-      <c r="T73" s="199"/>
-      <c r="U73" s="199"/>
-      <c r="V73" s="199"/>
-      <c r="W73" s="199"/>
-      <c r="X73" s="199"/>
-      <c r="Y73" s="199"/>
-      <c r="Z73" s="199"/>
-      <c r="AA73" s="199"/>
-      <c r="AB73" s="199"/>
-      <c r="AC73" s="199"/>
-      <c r="AD73" s="199"/>
-      <c r="AE73" s="199"/>
-      <c r="AF73" s="199"/>
-      <c r="AG73" s="199"/>
-      <c r="AH73" s="200"/>
+      <c r="B73" s="204"/>
+      <c r="C73" s="205"/>
+      <c r="D73" s="205"/>
+      <c r="E73" s="205"/>
+      <c r="F73" s="205"/>
+      <c r="G73" s="205"/>
+      <c r="H73" s="205"/>
+      <c r="I73" s="205"/>
+      <c r="J73" s="205"/>
+      <c r="K73" s="205"/>
+      <c r="L73" s="205"/>
+      <c r="M73" s="205"/>
+      <c r="N73" s="205"/>
+      <c r="O73" s="205"/>
+      <c r="P73" s="205"/>
+      <c r="Q73" s="205"/>
+      <c r="R73" s="206"/>
+      <c r="S73" s="204"/>
+      <c r="T73" s="205"/>
+      <c r="U73" s="205"/>
+      <c r="V73" s="205"/>
+      <c r="W73" s="205"/>
+      <c r="X73" s="205"/>
+      <c r="Y73" s="205"/>
+      <c r="Z73" s="205"/>
+      <c r="AA73" s="205"/>
+      <c r="AB73" s="205"/>
+      <c r="AC73" s="205"/>
+      <c r="AD73" s="205"/>
+      <c r="AE73" s="205"/>
+      <c r="AF73" s="205"/>
+      <c r="AG73" s="205"/>
+      <c r="AH73" s="206"/>
       <c r="AN73" s="16"/>
       <c r="BB73" s="4"/>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B74" s="201"/>
-      <c r="C74" s="202"/>
-      <c r="D74" s="202"/>
-      <c r="E74" s="202"/>
-      <c r="F74" s="202"/>
-      <c r="G74" s="202"/>
-      <c r="H74" s="202"/>
-      <c r="I74" s="202"/>
-      <c r="J74" s="202"/>
-      <c r="K74" s="202"/>
-      <c r="L74" s="202"/>
-      <c r="M74" s="202"/>
-      <c r="N74" s="202"/>
-      <c r="O74" s="202"/>
-      <c r="P74" s="202"/>
-      <c r="Q74" s="202"/>
-      <c r="R74" s="203"/>
-      <c r="S74" s="201"/>
-      <c r="T74" s="202"/>
-      <c r="U74" s="202"/>
-      <c r="V74" s="202"/>
-      <c r="W74" s="202"/>
-      <c r="X74" s="202"/>
-      <c r="Y74" s="202"/>
-      <c r="Z74" s="202"/>
-      <c r="AA74" s="202"/>
-      <c r="AB74" s="202"/>
-      <c r="AC74" s="202"/>
-      <c r="AD74" s="202"/>
-      <c r="AE74" s="202"/>
-      <c r="AF74" s="202"/>
-      <c r="AG74" s="202"/>
-      <c r="AH74" s="203"/>
+      <c r="B74" s="207"/>
+      <c r="C74" s="208"/>
+      <c r="D74" s="208"/>
+      <c r="E74" s="208"/>
+      <c r="F74" s="208"/>
+      <c r="G74" s="208"/>
+      <c r="H74" s="208"/>
+      <c r="I74" s="208"/>
+      <c r="J74" s="208"/>
+      <c r="K74" s="208"/>
+      <c r="L74" s="208"/>
+      <c r="M74" s="208"/>
+      <c r="N74" s="208"/>
+      <c r="O74" s="208"/>
+      <c r="P74" s="208"/>
+      <c r="Q74" s="208"/>
+      <c r="R74" s="209"/>
+      <c r="S74" s="207"/>
+      <c r="T74" s="208"/>
+      <c r="U74" s="208"/>
+      <c r="V74" s="208"/>
+      <c r="W74" s="208"/>
+      <c r="X74" s="208"/>
+      <c r="Y74" s="208"/>
+      <c r="Z74" s="208"/>
+      <c r="AA74" s="208"/>
+      <c r="AB74" s="208"/>
+      <c r="AC74" s="208"/>
+      <c r="AD74" s="208"/>
+      <c r="AE74" s="208"/>
+      <c r="AF74" s="208"/>
+      <c r="AG74" s="208"/>
+      <c r="AH74" s="209"/>
       <c r="BB74" s="4"/>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B75" s="201"/>
-      <c r="C75" s="202"/>
-      <c r="D75" s="202"/>
-      <c r="E75" s="202"/>
-      <c r="F75" s="202"/>
-      <c r="G75" s="202"/>
-      <c r="H75" s="202"/>
-      <c r="I75" s="202"/>
-      <c r="J75" s="202"/>
-      <c r="K75" s="202"/>
-      <c r="L75" s="202"/>
-      <c r="M75" s="202"/>
-      <c r="N75" s="202"/>
-      <c r="O75" s="202"/>
-      <c r="P75" s="202"/>
-      <c r="Q75" s="202"/>
-      <c r="R75" s="203"/>
-      <c r="S75" s="201"/>
-      <c r="T75" s="202"/>
-      <c r="U75" s="202"/>
-      <c r="V75" s="202"/>
-      <c r="W75" s="202"/>
-      <c r="X75" s="202"/>
-      <c r="Y75" s="202"/>
-      <c r="Z75" s="202"/>
-      <c r="AA75" s="202"/>
-      <c r="AB75" s="202"/>
-      <c r="AC75" s="202"/>
-      <c r="AD75" s="202"/>
-      <c r="AE75" s="202"/>
-      <c r="AF75" s="202"/>
-      <c r="AG75" s="202"/>
-      <c r="AH75" s="203"/>
+      <c r="B75" s="207"/>
+      <c r="C75" s="208"/>
+      <c r="D75" s="208"/>
+      <c r="E75" s="208"/>
+      <c r="F75" s="208"/>
+      <c r="G75" s="208"/>
+      <c r="H75" s="208"/>
+      <c r="I75" s="208"/>
+      <c r="J75" s="208"/>
+      <c r="K75" s="208"/>
+      <c r="L75" s="208"/>
+      <c r="M75" s="208"/>
+      <c r="N75" s="208"/>
+      <c r="O75" s="208"/>
+      <c r="P75" s="208"/>
+      <c r="Q75" s="208"/>
+      <c r="R75" s="209"/>
+      <c r="S75" s="207"/>
+      <c r="T75" s="208"/>
+      <c r="U75" s="208"/>
+      <c r="V75" s="208"/>
+      <c r="W75" s="208"/>
+      <c r="X75" s="208"/>
+      <c r="Y75" s="208"/>
+      <c r="Z75" s="208"/>
+      <c r="AA75" s="208"/>
+      <c r="AB75" s="208"/>
+      <c r="AC75" s="208"/>
+      <c r="AD75" s="208"/>
+      <c r="AE75" s="208"/>
+      <c r="AF75" s="208"/>
+      <c r="AG75" s="208"/>
+      <c r="AH75" s="209"/>
       <c r="BB75" s="4"/>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B76" s="201"/>
-      <c r="C76" s="202"/>
-      <c r="D76" s="202"/>
-      <c r="E76" s="202"/>
-      <c r="F76" s="202"/>
-      <c r="G76" s="202"/>
-      <c r="H76" s="202"/>
-      <c r="I76" s="202"/>
-      <c r="J76" s="202"/>
-      <c r="K76" s="202"/>
-      <c r="L76" s="202"/>
-      <c r="M76" s="202"/>
-      <c r="N76" s="202"/>
-      <c r="O76" s="202"/>
-      <c r="P76" s="202"/>
-      <c r="Q76" s="202"/>
-      <c r="R76" s="203"/>
-      <c r="S76" s="201"/>
-      <c r="T76" s="202"/>
-      <c r="U76" s="202"/>
-      <c r="V76" s="202"/>
-      <c r="W76" s="202"/>
-      <c r="X76" s="202"/>
-      <c r="Y76" s="202"/>
-      <c r="Z76" s="202"/>
-      <c r="AA76" s="202"/>
-      <c r="AB76" s="202"/>
-      <c r="AC76" s="202"/>
-      <c r="AD76" s="202"/>
-      <c r="AE76" s="202"/>
-      <c r="AF76" s="202"/>
-      <c r="AG76" s="202"/>
-      <c r="AH76" s="203"/>
+      <c r="B76" s="207"/>
+      <c r="C76" s="208"/>
+      <c r="D76" s="208"/>
+      <c r="E76" s="208"/>
+      <c r="F76" s="208"/>
+      <c r="G76" s="208"/>
+      <c r="H76" s="208"/>
+      <c r="I76" s="208"/>
+      <c r="J76" s="208"/>
+      <c r="K76" s="208"/>
+      <c r="L76" s="208"/>
+      <c r="M76" s="208"/>
+      <c r="N76" s="208"/>
+      <c r="O76" s="208"/>
+      <c r="P76" s="208"/>
+      <c r="Q76" s="208"/>
+      <c r="R76" s="209"/>
+      <c r="S76" s="207"/>
+      <c r="T76" s="208"/>
+      <c r="U76" s="208"/>
+      <c r="V76" s="208"/>
+      <c r="W76" s="208"/>
+      <c r="X76" s="208"/>
+      <c r="Y76" s="208"/>
+      <c r="Z76" s="208"/>
+      <c r="AA76" s="208"/>
+      <c r="AB76" s="208"/>
+      <c r="AC76" s="208"/>
+      <c r="AD76" s="208"/>
+      <c r="AE76" s="208"/>
+      <c r="AF76" s="208"/>
+      <c r="AG76" s="208"/>
+      <c r="AH76" s="209"/>
       <c r="BB76" s="4"/>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B77" s="201"/>
-      <c r="C77" s="202"/>
-      <c r="D77" s="202"/>
-      <c r="E77" s="202"/>
-      <c r="F77" s="202"/>
-      <c r="G77" s="202"/>
-      <c r="H77" s="202"/>
-      <c r="I77" s="202"/>
-      <c r="J77" s="202"/>
-      <c r="K77" s="202"/>
-      <c r="L77" s="202"/>
-      <c r="M77" s="202"/>
-      <c r="N77" s="202"/>
-      <c r="O77" s="202"/>
-      <c r="P77" s="202"/>
-      <c r="Q77" s="202"/>
-      <c r="R77" s="203"/>
-      <c r="S77" s="201"/>
-      <c r="T77" s="202"/>
-      <c r="U77" s="202"/>
-      <c r="V77" s="202"/>
-      <c r="W77" s="202"/>
-      <c r="X77" s="202"/>
-      <c r="Y77" s="202"/>
-      <c r="Z77" s="202"/>
-      <c r="AA77" s="202"/>
-      <c r="AB77" s="202"/>
-      <c r="AC77" s="202"/>
-      <c r="AD77" s="202"/>
-      <c r="AE77" s="202"/>
-      <c r="AF77" s="202"/>
-      <c r="AG77" s="202"/>
-      <c r="AH77" s="203"/>
+      <c r="B77" s="207"/>
+      <c r="C77" s="208"/>
+      <c r="D77" s="208"/>
+      <c r="E77" s="208"/>
+      <c r="F77" s="208"/>
+      <c r="G77" s="208"/>
+      <c r="H77" s="208"/>
+      <c r="I77" s="208"/>
+      <c r="J77" s="208"/>
+      <c r="K77" s="208"/>
+      <c r="L77" s="208"/>
+      <c r="M77" s="208"/>
+      <c r="N77" s="208"/>
+      <c r="O77" s="208"/>
+      <c r="P77" s="208"/>
+      <c r="Q77" s="208"/>
+      <c r="R77" s="209"/>
+      <c r="S77" s="207"/>
+      <c r="T77" s="208"/>
+      <c r="U77" s="208"/>
+      <c r="V77" s="208"/>
+      <c r="W77" s="208"/>
+      <c r="X77" s="208"/>
+      <c r="Y77" s="208"/>
+      <c r="Z77" s="208"/>
+      <c r="AA77" s="208"/>
+      <c r="AB77" s="208"/>
+      <c r="AC77" s="208"/>
+      <c r="AD77" s="208"/>
+      <c r="AE77" s="208"/>
+      <c r="AF77" s="208"/>
+      <c r="AG77" s="208"/>
+      <c r="AH77" s="209"/>
       <c r="BB77" s="4"/>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B78" s="201"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="202"/>
-      <c r="E78" s="202"/>
-      <c r="F78" s="202"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="202"/>
-      <c r="I78" s="202"/>
-      <c r="J78" s="202"/>
-      <c r="K78" s="202"/>
-      <c r="L78" s="202"/>
-      <c r="M78" s="202"/>
-      <c r="N78" s="202"/>
-      <c r="O78" s="202"/>
-      <c r="P78" s="202"/>
-      <c r="Q78" s="202"/>
-      <c r="R78" s="203"/>
-      <c r="S78" s="201"/>
-      <c r="T78" s="202"/>
-      <c r="U78" s="202"/>
-      <c r="V78" s="202"/>
-      <c r="W78" s="202"/>
-      <c r="X78" s="202"/>
-      <c r="Y78" s="202"/>
-      <c r="Z78" s="202"/>
-      <c r="AA78" s="202"/>
-      <c r="AB78" s="202"/>
-      <c r="AC78" s="202"/>
-      <c r="AD78" s="202"/>
-      <c r="AE78" s="202"/>
-      <c r="AF78" s="202"/>
-      <c r="AG78" s="202"/>
-      <c r="AH78" s="203"/>
+      <c r="B78" s="207"/>
+      <c r="C78" s="208"/>
+      <c r="D78" s="208"/>
+      <c r="E78" s="208"/>
+      <c r="F78" s="208"/>
+      <c r="G78" s="208"/>
+      <c r="H78" s="208"/>
+      <c r="I78" s="208"/>
+      <c r="J78" s="208"/>
+      <c r="K78" s="208"/>
+      <c r="L78" s="208"/>
+      <c r="M78" s="208"/>
+      <c r="N78" s="208"/>
+      <c r="O78" s="208"/>
+      <c r="P78" s="208"/>
+      <c r="Q78" s="208"/>
+      <c r="R78" s="209"/>
+      <c r="S78" s="207"/>
+      <c r="T78" s="208"/>
+      <c r="U78" s="208"/>
+      <c r="V78" s="208"/>
+      <c r="W78" s="208"/>
+      <c r="X78" s="208"/>
+      <c r="Y78" s="208"/>
+      <c r="Z78" s="208"/>
+      <c r="AA78" s="208"/>
+      <c r="AB78" s="208"/>
+      <c r="AC78" s="208"/>
+      <c r="AD78" s="208"/>
+      <c r="AE78" s="208"/>
+      <c r="AF78" s="208"/>
+      <c r="AG78" s="208"/>
+      <c r="AH78" s="209"/>
       <c r="BB78" s="4"/>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B79" s="201"/>
-      <c r="C79" s="202"/>
-      <c r="D79" s="202"/>
-      <c r="E79" s="202"/>
-      <c r="F79" s="202"/>
-      <c r="G79" s="202"/>
-      <c r="H79" s="202"/>
-      <c r="I79" s="202"/>
-      <c r="J79" s="202"/>
-      <c r="K79" s="202"/>
-      <c r="L79" s="202"/>
-      <c r="M79" s="202"/>
-      <c r="N79" s="202"/>
-      <c r="O79" s="202"/>
-      <c r="P79" s="202"/>
-      <c r="Q79" s="202"/>
-      <c r="R79" s="203"/>
-      <c r="S79" s="201"/>
-      <c r="T79" s="202"/>
-      <c r="U79" s="202"/>
-      <c r="V79" s="202"/>
-      <c r="W79" s="202"/>
-      <c r="X79" s="202"/>
-      <c r="Y79" s="202"/>
-      <c r="Z79" s="202"/>
-      <c r="AA79" s="202"/>
-      <c r="AB79" s="202"/>
-      <c r="AC79" s="202"/>
-      <c r="AD79" s="202"/>
-      <c r="AE79" s="202"/>
-      <c r="AF79" s="202"/>
-      <c r="AG79" s="202"/>
-      <c r="AH79" s="203"/>
+      <c r="B79" s="207"/>
+      <c r="C79" s="208"/>
+      <c r="D79" s="208"/>
+      <c r="E79" s="208"/>
+      <c r="F79" s="208"/>
+      <c r="G79" s="208"/>
+      <c r="H79" s="208"/>
+      <c r="I79" s="208"/>
+      <c r="J79" s="208"/>
+      <c r="K79" s="208"/>
+      <c r="L79" s="208"/>
+      <c r="M79" s="208"/>
+      <c r="N79" s="208"/>
+      <c r="O79" s="208"/>
+      <c r="P79" s="208"/>
+      <c r="Q79" s="208"/>
+      <c r="R79" s="209"/>
+      <c r="S79" s="207"/>
+      <c r="T79" s="208"/>
+      <c r="U79" s="208"/>
+      <c r="V79" s="208"/>
+      <c r="W79" s="208"/>
+      <c r="X79" s="208"/>
+      <c r="Y79" s="208"/>
+      <c r="Z79" s="208"/>
+      <c r="AA79" s="208"/>
+      <c r="AB79" s="208"/>
+      <c r="AC79" s="208"/>
+      <c r="AD79" s="208"/>
+      <c r="AE79" s="208"/>
+      <c r="AF79" s="208"/>
+      <c r="AG79" s="208"/>
+      <c r="AH79" s="209"/>
       <c r="BB79" s="4"/>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B80" s="204"/>
-      <c r="C80" s="205"/>
-      <c r="D80" s="205"/>
-      <c r="E80" s="205"/>
-      <c r="F80" s="205"/>
-      <c r="G80" s="205"/>
-      <c r="H80" s="205"/>
-      <c r="I80" s="205"/>
-      <c r="J80" s="205"/>
-      <c r="K80" s="205"/>
-      <c r="L80" s="205"/>
-      <c r="M80" s="205"/>
-      <c r="N80" s="205"/>
-      <c r="O80" s="205"/>
-      <c r="P80" s="205"/>
-      <c r="Q80" s="205"/>
-      <c r="R80" s="206"/>
-      <c r="S80" s="204"/>
-      <c r="T80" s="205"/>
-      <c r="U80" s="205"/>
-      <c r="V80" s="205"/>
-      <c r="W80" s="205"/>
-      <c r="X80" s="205"/>
-      <c r="Y80" s="205"/>
-      <c r="Z80" s="205"/>
-      <c r="AA80" s="205"/>
-      <c r="AB80" s="205"/>
-      <c r="AC80" s="205"/>
-      <c r="AD80" s="205"/>
-      <c r="AE80" s="205"/>
-      <c r="AF80" s="205"/>
-      <c r="AG80" s="205"/>
-      <c r="AH80" s="206"/>
+      <c r="B80" s="210"/>
+      <c r="C80" s="211"/>
+      <c r="D80" s="211"/>
+      <c r="E80" s="211"/>
+      <c r="F80" s="211"/>
+      <c r="G80" s="211"/>
+      <c r="H80" s="211"/>
+      <c r="I80" s="211"/>
+      <c r="J80" s="211"/>
+      <c r="K80" s="211"/>
+      <c r="L80" s="211"/>
+      <c r="M80" s="211"/>
+      <c r="N80" s="211"/>
+      <c r="O80" s="211"/>
+      <c r="P80" s="211"/>
+      <c r="Q80" s="211"/>
+      <c r="R80" s="212"/>
+      <c r="S80" s="210"/>
+      <c r="T80" s="211"/>
+      <c r="U80" s="211"/>
+      <c r="V80" s="211"/>
+      <c r="W80" s="211"/>
+      <c r="X80" s="211"/>
+      <c r="Y80" s="211"/>
+      <c r="Z80" s="211"/>
+      <c r="AA80" s="211"/>
+      <c r="AB80" s="211"/>
+      <c r="AC80" s="211"/>
+      <c r="AD80" s="211"/>
+      <c r="AE80" s="211"/>
+      <c r="AF80" s="211"/>
+      <c r="AG80" s="211"/>
+      <c r="AH80" s="212"/>
       <c r="BB80" s="4"/>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B81" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81" s="177"/>
-      <c r="D81" s="177"/>
-      <c r="E81" s="177"/>
-      <c r="F81" s="177"/>
-      <c r="G81" s="177"/>
-      <c r="H81" s="177"/>
-      <c r="I81" s="177"/>
-      <c r="J81" s="177"/>
-      <c r="K81" s="177"/>
-      <c r="L81" s="177"/>
-      <c r="M81" s="177"/>
-      <c r="N81" s="177"/>
-      <c r="O81" s="177"/>
-      <c r="P81" s="177"/>
-      <c r="Q81" s="177"/>
-      <c r="R81" s="177"/>
-      <c r="S81" s="177"/>
-      <c r="T81" s="177"/>
-      <c r="U81" s="177"/>
-      <c r="V81" s="177"/>
-      <c r="W81" s="177"/>
-      <c r="X81" s="177"/>
-      <c r="Y81" s="177"/>
-      <c r="Z81" s="177"/>
-      <c r="AA81" s="177"/>
-      <c r="AB81" s="177"/>
-      <c r="AC81" s="177"/>
-      <c r="AD81" s="177"/>
-      <c r="AE81" s="177"/>
-      <c r="AF81" s="177"/>
-      <c r="AG81" s="177"/>
-      <c r="AH81" s="177"/>
+      <c r="B81" s="190" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="190"/>
+      <c r="D81" s="190"/>
+      <c r="E81" s="190"/>
+      <c r="F81" s="190"/>
+      <c r="G81" s="190"/>
+      <c r="H81" s="190"/>
+      <c r="I81" s="190"/>
+      <c r="J81" s="190"/>
+      <c r="K81" s="190"/>
+      <c r="L81" s="190"/>
+      <c r="M81" s="190"/>
+      <c r="N81" s="190"/>
+      <c r="O81" s="190"/>
+      <c r="P81" s="190"/>
+      <c r="Q81" s="190"/>
+      <c r="R81" s="190"/>
+      <c r="S81" s="190"/>
+      <c r="T81" s="190"/>
+      <c r="U81" s="190"/>
+      <c r="V81" s="190"/>
+      <c r="W81" s="190"/>
+      <c r="X81" s="190"/>
+      <c r="Y81" s="190"/>
+      <c r="Z81" s="190"/>
+      <c r="AA81" s="190"/>
+      <c r="AB81" s="190"/>
+      <c r="AC81" s="190"/>
+      <c r="AD81" s="190"/>
+      <c r="AE81" s="190"/>
+      <c r="AF81" s="190"/>
+      <c r="AG81" s="190"/>
+      <c r="AH81" s="190"/>
       <c r="BB81" s="4"/>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B82" s="178" t="s">
+      <c r="B82" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="179"/>
-      <c r="D82" s="179"/>
-      <c r="E82" s="179"/>
-      <c r="F82" s="179"/>
-      <c r="G82" s="179"/>
-      <c r="H82" s="179"/>
-      <c r="I82" s="179"/>
-      <c r="J82" s="179"/>
-      <c r="K82" s="179"/>
-      <c r="L82" s="179"/>
-      <c r="M82" s="179"/>
-      <c r="N82" s="179"/>
-      <c r="O82" s="179"/>
-      <c r="P82" s="179"/>
-      <c r="Q82" s="179"/>
-      <c r="R82" s="180"/>
-      <c r="S82" s="178" t="s">
+      <c r="C82" s="198"/>
+      <c r="D82" s="198"/>
+      <c r="E82" s="198"/>
+      <c r="F82" s="198"/>
+      <c r="G82" s="198"/>
+      <c r="H82" s="198"/>
+      <c r="I82" s="198"/>
+      <c r="J82" s="198"/>
+      <c r="K82" s="198"/>
+      <c r="L82" s="198"/>
+      <c r="M82" s="198"/>
+      <c r="N82" s="198"/>
+      <c r="O82" s="198"/>
+      <c r="P82" s="198"/>
+      <c r="Q82" s="198"/>
+      <c r="R82" s="199"/>
+      <c r="S82" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="T82" s="179"/>
-      <c r="U82" s="179"/>
-      <c r="V82" s="179"/>
-      <c r="W82" s="179"/>
-      <c r="X82" s="179"/>
-      <c r="Y82" s="179"/>
-      <c r="Z82" s="179"/>
-      <c r="AA82" s="179"/>
-      <c r="AB82" s="179"/>
-      <c r="AC82" s="179"/>
-      <c r="AD82" s="179"/>
-      <c r="AE82" s="179"/>
-      <c r="AF82" s="179"/>
-      <c r="AG82" s="179"/>
-      <c r="AH82" s="180"/>
+      <c r="T82" s="198"/>
+      <c r="U82" s="198"/>
+      <c r="V82" s="198"/>
+      <c r="W82" s="198"/>
+      <c r="X82" s="198"/>
+      <c r="Y82" s="198"/>
+      <c r="Z82" s="198"/>
+      <c r="AA82" s="198"/>
+      <c r="AB82" s="198"/>
+      <c r="AC82" s="198"/>
+      <c r="AD82" s="198"/>
+      <c r="AE82" s="198"/>
+      <c r="AF82" s="198"/>
+      <c r="AG82" s="198"/>
+      <c r="AH82" s="199"/>
       <c r="BB82" s="4"/>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B83" s="207" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="208"/>
-      <c r="D83" s="208"/>
-      <c r="E83" s="208"/>
-      <c r="F83" s="208"/>
-      <c r="G83" s="208"/>
-      <c r="H83" s="208"/>
-      <c r="I83" s="208"/>
-      <c r="J83" s="208"/>
-      <c r="K83" s="208"/>
-      <c r="L83" s="208"/>
-      <c r="M83" s="208"/>
-      <c r="N83" s="208"/>
-      <c r="O83" s="208"/>
-      <c r="P83" s="208"/>
-      <c r="Q83" s="208"/>
-      <c r="R83" s="209"/>
-      <c r="S83" s="198"/>
-      <c r="T83" s="199"/>
-      <c r="U83" s="199"/>
-      <c r="V83" s="199"/>
-      <c r="W83" s="199"/>
-      <c r="X83" s="199"/>
-      <c r="Y83" s="199"/>
-      <c r="Z83" s="199"/>
-      <c r="AA83" s="199"/>
-      <c r="AB83" s="199"/>
-      <c r="AC83" s="199"/>
-      <c r="AD83" s="199"/>
-      <c r="AE83" s="199"/>
-      <c r="AF83" s="199"/>
-      <c r="AG83" s="199"/>
-      <c r="AH83" s="200"/>
+      <c r="B83" s="213"/>
+      <c r="C83" s="214"/>
+      <c r="D83" s="214"/>
+      <c r="E83" s="214"/>
+      <c r="F83" s="214"/>
+      <c r="G83" s="214"/>
+      <c r="H83" s="214"/>
+      <c r="I83" s="214"/>
+      <c r="J83" s="214"/>
+      <c r="K83" s="214"/>
+      <c r="L83" s="214"/>
+      <c r="M83" s="214"/>
+      <c r="N83" s="214"/>
+      <c r="O83" s="214"/>
+      <c r="P83" s="214"/>
+      <c r="Q83" s="214"/>
+      <c r="R83" s="215"/>
+      <c r="S83" s="219"/>
+      <c r="T83" s="220"/>
+      <c r="U83" s="220"/>
+      <c r="V83" s="220"/>
+      <c r="W83" s="220"/>
+      <c r="X83" s="220"/>
+      <c r="Y83" s="220"/>
+      <c r="Z83" s="220"/>
+      <c r="AA83" s="220"/>
+      <c r="AB83" s="220"/>
+      <c r="AC83" s="220"/>
+      <c r="AD83" s="220"/>
+      <c r="AE83" s="220"/>
+      <c r="AF83" s="220"/>
+      <c r="AG83" s="220"/>
+      <c r="AH83" s="269"/>
       <c r="BB83" s="4"/>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B84" s="210"/>
-      <c r="C84" s="211"/>
-      <c r="D84" s="211"/>
-      <c r="E84" s="211"/>
-      <c r="F84" s="211"/>
-      <c r="G84" s="211"/>
-      <c r="H84" s="211"/>
-      <c r="I84" s="211"/>
-      <c r="J84" s="211"/>
-      <c r="K84" s="211"/>
-      <c r="L84" s="211"/>
-      <c r="M84" s="211"/>
-      <c r="N84" s="211"/>
-      <c r="O84" s="211"/>
-      <c r="P84" s="211"/>
-      <c r="Q84" s="211"/>
-      <c r="R84" s="212"/>
-      <c r="S84" s="201"/>
-      <c r="T84" s="202"/>
-      <c r="U84" s="202"/>
-      <c r="V84" s="202"/>
-      <c r="W84" s="202"/>
-      <c r="X84" s="202"/>
-      <c r="Y84" s="202"/>
-      <c r="Z84" s="202"/>
-      <c r="AA84" s="202"/>
-      <c r="AB84" s="202"/>
-      <c r="AC84" s="202"/>
-      <c r="AD84" s="202"/>
-      <c r="AE84" s="202"/>
-      <c r="AF84" s="202"/>
-      <c r="AG84" s="202"/>
-      <c r="AH84" s="203"/>
+      <c r="B84" s="216"/>
+      <c r="C84" s="217"/>
+      <c r="D84" s="217"/>
+      <c r="E84" s="217"/>
+      <c r="F84" s="217"/>
+      <c r="G84" s="217"/>
+      <c r="H84" s="217"/>
+      <c r="I84" s="217"/>
+      <c r="J84" s="217"/>
+      <c r="K84" s="217"/>
+      <c r="L84" s="217"/>
+      <c r="M84" s="217"/>
+      <c r="N84" s="217"/>
+      <c r="O84" s="217"/>
+      <c r="P84" s="217"/>
+      <c r="Q84" s="217"/>
+      <c r="R84" s="218"/>
+      <c r="S84" s="221"/>
+      <c r="T84" s="270"/>
+      <c r="U84" s="270"/>
+      <c r="V84" s="270"/>
+      <c r="W84" s="270"/>
+      <c r="X84" s="270"/>
+      <c r="Y84" s="270"/>
+      <c r="Z84" s="270"/>
+      <c r="AA84" s="270"/>
+      <c r="AB84" s="270"/>
+      <c r="AC84" s="270"/>
+      <c r="AD84" s="270"/>
+      <c r="AE84" s="270"/>
+      <c r="AF84" s="270"/>
+      <c r="AG84" s="270"/>
+      <c r="AH84" s="271"/>
       <c r="BB84" s="4"/>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B85" s="210"/>
-      <c r="C85" s="211"/>
-      <c r="D85" s="211"/>
-      <c r="E85" s="211"/>
-      <c r="F85" s="211"/>
-      <c r="G85" s="211"/>
-      <c r="H85" s="211"/>
-      <c r="I85" s="211"/>
-      <c r="J85" s="211"/>
-      <c r="K85" s="211"/>
-      <c r="L85" s="211"/>
-      <c r="M85" s="211"/>
-      <c r="N85" s="211"/>
-      <c r="O85" s="211"/>
-      <c r="P85" s="211"/>
-      <c r="Q85" s="211"/>
-      <c r="R85" s="212"/>
-      <c r="S85" s="201"/>
-      <c r="T85" s="202"/>
-      <c r="U85" s="202"/>
-      <c r="V85" s="202"/>
-      <c r="W85" s="202"/>
-      <c r="X85" s="202"/>
-      <c r="Y85" s="202"/>
-      <c r="Z85" s="202"/>
-      <c r="AA85" s="202"/>
-      <c r="AB85" s="202"/>
-      <c r="AC85" s="202"/>
-      <c r="AD85" s="202"/>
-      <c r="AE85" s="202"/>
-      <c r="AF85" s="202"/>
-      <c r="AG85" s="202"/>
-      <c r="AH85" s="203"/>
+      <c r="B85" s="216"/>
+      <c r="C85" s="217"/>
+      <c r="D85" s="217"/>
+      <c r="E85" s="217"/>
+      <c r="F85" s="217"/>
+      <c r="G85" s="217"/>
+      <c r="H85" s="217"/>
+      <c r="I85" s="217"/>
+      <c r="J85" s="217"/>
+      <c r="K85" s="217"/>
+      <c r="L85" s="217"/>
+      <c r="M85" s="217"/>
+      <c r="N85" s="217"/>
+      <c r="O85" s="217"/>
+      <c r="P85" s="217"/>
+      <c r="Q85" s="217"/>
+      <c r="R85" s="218"/>
+      <c r="S85" s="221"/>
+      <c r="T85" s="270"/>
+      <c r="U85" s="270"/>
+      <c r="V85" s="270"/>
+      <c r="W85" s="270"/>
+      <c r="X85" s="270"/>
+      <c r="Y85" s="270"/>
+      <c r="Z85" s="270"/>
+      <c r="AA85" s="270"/>
+      <c r="AB85" s="270"/>
+      <c r="AC85" s="270"/>
+      <c r="AD85" s="270"/>
+      <c r="AE85" s="270"/>
+      <c r="AF85" s="270"/>
+      <c r="AG85" s="270"/>
+      <c r="AH85" s="271"/>
       <c r="BB85" s="4"/>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B86" s="210"/>
-      <c r="C86" s="211"/>
-      <c r="D86" s="211"/>
-      <c r="E86" s="211"/>
-      <c r="F86" s="211"/>
-      <c r="G86" s="211"/>
-      <c r="H86" s="211"/>
-      <c r="I86" s="211"/>
-      <c r="J86" s="211"/>
-      <c r="K86" s="211"/>
-      <c r="L86" s="211"/>
-      <c r="M86" s="211"/>
-      <c r="N86" s="211"/>
-      <c r="O86" s="211"/>
-      <c r="P86" s="211"/>
-      <c r="Q86" s="211"/>
-      <c r="R86" s="212"/>
-      <c r="S86" s="201"/>
-      <c r="T86" s="202"/>
-      <c r="U86" s="202"/>
-      <c r="V86" s="202"/>
-      <c r="W86" s="202"/>
-      <c r="X86" s="202"/>
-      <c r="Y86" s="202"/>
-      <c r="Z86" s="202"/>
-      <c r="AA86" s="202"/>
-      <c r="AB86" s="202"/>
-      <c r="AC86" s="202"/>
-      <c r="AD86" s="202"/>
-      <c r="AE86" s="202"/>
-      <c r="AF86" s="202"/>
-      <c r="AG86" s="202"/>
-      <c r="AH86" s="203"/>
+      <c r="B86" s="216"/>
+      <c r="C86" s="217"/>
+      <c r="D86" s="217"/>
+      <c r="E86" s="217"/>
+      <c r="F86" s="217"/>
+      <c r="G86" s="217"/>
+      <c r="H86" s="217"/>
+      <c r="I86" s="217"/>
+      <c r="J86" s="217"/>
+      <c r="K86" s="217"/>
+      <c r="L86" s="217"/>
+      <c r="M86" s="217"/>
+      <c r="N86" s="217"/>
+      <c r="O86" s="217"/>
+      <c r="P86" s="217"/>
+      <c r="Q86" s="217"/>
+      <c r="R86" s="218"/>
+      <c r="S86" s="221"/>
+      <c r="T86" s="270"/>
+      <c r="U86" s="270"/>
+      <c r="V86" s="270"/>
+      <c r="W86" s="270"/>
+      <c r="X86" s="270"/>
+      <c r="Y86" s="270"/>
+      <c r="Z86" s="270"/>
+      <c r="AA86" s="270"/>
+      <c r="AB86" s="270"/>
+      <c r="AC86" s="270"/>
+      <c r="AD86" s="270"/>
+      <c r="AE86" s="270"/>
+      <c r="AF86" s="270"/>
+      <c r="AG86" s="270"/>
+      <c r="AH86" s="271"/>
       <c r="BB86" s="4"/>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B87" s="210"/>
-      <c r="C87" s="211"/>
-      <c r="D87" s="211"/>
-      <c r="E87" s="211"/>
-      <c r="F87" s="211"/>
-      <c r="G87" s="211"/>
-      <c r="H87" s="211"/>
-      <c r="I87" s="211"/>
-      <c r="J87" s="211"/>
-      <c r="K87" s="211"/>
-      <c r="L87" s="211"/>
-      <c r="M87" s="211"/>
-      <c r="N87" s="211"/>
-      <c r="O87" s="211"/>
-      <c r="P87" s="211"/>
-      <c r="Q87" s="211"/>
-      <c r="R87" s="212"/>
-      <c r="S87" s="201"/>
-      <c r="T87" s="202"/>
-      <c r="U87" s="202"/>
-      <c r="V87" s="202"/>
-      <c r="W87" s="202"/>
-      <c r="X87" s="202"/>
-      <c r="Y87" s="202"/>
-      <c r="Z87" s="202"/>
-      <c r="AA87" s="202"/>
-      <c r="AB87" s="202"/>
-      <c r="AC87" s="202"/>
-      <c r="AD87" s="202"/>
-      <c r="AE87" s="202"/>
-      <c r="AF87" s="202"/>
-      <c r="AG87" s="202"/>
-      <c r="AH87" s="203"/>
+      <c r="B87" s="216"/>
+      <c r="C87" s="217"/>
+      <c r="D87" s="217"/>
+      <c r="E87" s="217"/>
+      <c r="F87" s="217"/>
+      <c r="G87" s="217"/>
+      <c r="H87" s="217"/>
+      <c r="I87" s="217"/>
+      <c r="J87" s="217"/>
+      <c r="K87" s="217"/>
+      <c r="L87" s="217"/>
+      <c r="M87" s="217"/>
+      <c r="N87" s="217"/>
+      <c r="O87" s="217"/>
+      <c r="P87" s="217"/>
+      <c r="Q87" s="217"/>
+      <c r="R87" s="218"/>
+      <c r="S87" s="221"/>
+      <c r="T87" s="270"/>
+      <c r="U87" s="270"/>
+      <c r="V87" s="270"/>
+      <c r="W87" s="270"/>
+      <c r="X87" s="270"/>
+      <c r="Y87" s="270"/>
+      <c r="Z87" s="270"/>
+      <c r="AA87" s="270"/>
+      <c r="AB87" s="270"/>
+      <c r="AC87" s="270"/>
+      <c r="AD87" s="270"/>
+      <c r="AE87" s="270"/>
+      <c r="AF87" s="270"/>
+      <c r="AG87" s="270"/>
+      <c r="AH87" s="271"/>
       <c r="BB87" s="4"/>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B88" s="210"/>
-      <c r="C88" s="211"/>
-      <c r="D88" s="211"/>
-      <c r="E88" s="211"/>
-      <c r="F88" s="211"/>
-      <c r="G88" s="211"/>
-      <c r="H88" s="211"/>
-      <c r="I88" s="211"/>
-      <c r="J88" s="211"/>
-      <c r="K88" s="211"/>
-      <c r="L88" s="211"/>
-      <c r="M88" s="211"/>
-      <c r="N88" s="211"/>
-      <c r="O88" s="211"/>
-      <c r="P88" s="211"/>
-      <c r="Q88" s="211"/>
-      <c r="R88" s="212"/>
-      <c r="S88" s="201"/>
-      <c r="T88" s="202"/>
-      <c r="U88" s="202"/>
-      <c r="V88" s="202"/>
-      <c r="W88" s="202"/>
-      <c r="X88" s="202"/>
-      <c r="Y88" s="202"/>
-      <c r="Z88" s="202"/>
-      <c r="AA88" s="202"/>
-      <c r="AB88" s="202"/>
-      <c r="AC88" s="202"/>
-      <c r="AD88" s="202"/>
-      <c r="AE88" s="202"/>
-      <c r="AF88" s="202"/>
-      <c r="AG88" s="202"/>
-      <c r="AH88" s="203"/>
+      <c r="B88" s="216"/>
+      <c r="C88" s="217"/>
+      <c r="D88" s="217"/>
+      <c r="E88" s="217"/>
+      <c r="F88" s="217"/>
+      <c r="G88" s="217"/>
+      <c r="H88" s="217"/>
+      <c r="I88" s="217"/>
+      <c r="J88" s="217"/>
+      <c r="K88" s="217"/>
+      <c r="L88" s="217"/>
+      <c r="M88" s="217"/>
+      <c r="N88" s="217"/>
+      <c r="O88" s="217"/>
+      <c r="P88" s="217"/>
+      <c r="Q88" s="217"/>
+      <c r="R88" s="218"/>
+      <c r="S88" s="221"/>
+      <c r="T88" s="270"/>
+      <c r="U88" s="270"/>
+      <c r="V88" s="270"/>
+      <c r="W88" s="270"/>
+      <c r="X88" s="270"/>
+      <c r="Y88" s="270"/>
+      <c r="Z88" s="270"/>
+      <c r="AA88" s="270"/>
+      <c r="AB88" s="270"/>
+      <c r="AC88" s="270"/>
+      <c r="AD88" s="270"/>
+      <c r="AE88" s="270"/>
+      <c r="AF88" s="270"/>
+      <c r="AG88" s="270"/>
+      <c r="AH88" s="271"/>
       <c r="BB88" s="4"/>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B89" s="210"/>
-      <c r="C89" s="211"/>
-      <c r="D89" s="211"/>
-      <c r="E89" s="211"/>
-      <c r="F89" s="211"/>
-      <c r="G89" s="211"/>
-      <c r="H89" s="211"/>
-      <c r="I89" s="211"/>
-      <c r="J89" s="211"/>
-      <c r="K89" s="211"/>
-      <c r="L89" s="211"/>
-      <c r="M89" s="211"/>
-      <c r="N89" s="211"/>
-      <c r="O89" s="211"/>
-      <c r="P89" s="211"/>
-      <c r="Q89" s="211"/>
-      <c r="R89" s="212"/>
-      <c r="S89" s="201"/>
-      <c r="T89" s="202"/>
-      <c r="U89" s="202"/>
-      <c r="V89" s="202"/>
-      <c r="W89" s="202"/>
-      <c r="X89" s="202"/>
-      <c r="Y89" s="202"/>
-      <c r="Z89" s="202"/>
-      <c r="AA89" s="202"/>
-      <c r="AB89" s="202"/>
-      <c r="AC89" s="202"/>
-      <c r="AD89" s="202"/>
-      <c r="AE89" s="202"/>
-      <c r="AF89" s="202"/>
-      <c r="AG89" s="202"/>
-      <c r="AH89" s="203"/>
+      <c r="B89" s="216"/>
+      <c r="C89" s="217"/>
+      <c r="D89" s="217"/>
+      <c r="E89" s="217"/>
+      <c r="F89" s="217"/>
+      <c r="G89" s="217"/>
+      <c r="H89" s="217"/>
+      <c r="I89" s="217"/>
+      <c r="J89" s="217"/>
+      <c r="K89" s="217"/>
+      <c r="L89" s="217"/>
+      <c r="M89" s="217"/>
+      <c r="N89" s="217"/>
+      <c r="O89" s="217"/>
+      <c r="P89" s="217"/>
+      <c r="Q89" s="217"/>
+      <c r="R89" s="218"/>
+      <c r="S89" s="221"/>
+      <c r="T89" s="270"/>
+      <c r="U89" s="270"/>
+      <c r="V89" s="270"/>
+      <c r="W89" s="270"/>
+      <c r="X89" s="270"/>
+      <c r="Y89" s="270"/>
+      <c r="Z89" s="270"/>
+      <c r="AA89" s="270"/>
+      <c r="AB89" s="270"/>
+      <c r="AC89" s="270"/>
+      <c r="AD89" s="270"/>
+      <c r="AE89" s="270"/>
+      <c r="AF89" s="270"/>
+      <c r="AG89" s="270"/>
+      <c r="AH89" s="271"/>
       <c r="BB89" s="4"/>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B90" s="210"/>
-      <c r="C90" s="211"/>
-      <c r="D90" s="211"/>
-      <c r="E90" s="211"/>
-      <c r="F90" s="211"/>
-      <c r="G90" s="211"/>
-      <c r="H90" s="211"/>
-      <c r="I90" s="211"/>
-      <c r="J90" s="211"/>
-      <c r="K90" s="211"/>
-      <c r="L90" s="211"/>
-      <c r="M90" s="211"/>
-      <c r="N90" s="211"/>
-      <c r="O90" s="211"/>
-      <c r="P90" s="211"/>
-      <c r="Q90" s="211"/>
-      <c r="R90" s="212"/>
-      <c r="S90" s="201"/>
-      <c r="T90" s="202"/>
-      <c r="U90" s="202"/>
-      <c r="V90" s="202"/>
-      <c r="W90" s="202"/>
-      <c r="X90" s="202"/>
-      <c r="Y90" s="202"/>
-      <c r="Z90" s="202"/>
-      <c r="AA90" s="202"/>
-      <c r="AB90" s="202"/>
-      <c r="AC90" s="202"/>
-      <c r="AD90" s="202"/>
-      <c r="AE90" s="202"/>
-      <c r="AF90" s="202"/>
-      <c r="AG90" s="202"/>
-      <c r="AH90" s="203"/>
+      <c r="B90" s="216"/>
+      <c r="C90" s="217"/>
+      <c r="D90" s="217"/>
+      <c r="E90" s="217"/>
+      <c r="F90" s="217"/>
+      <c r="G90" s="217"/>
+      <c r="H90" s="217"/>
+      <c r="I90" s="217"/>
+      <c r="J90" s="217"/>
+      <c r="K90" s="217"/>
+      <c r="L90" s="217"/>
+      <c r="M90" s="217"/>
+      <c r="N90" s="217"/>
+      <c r="O90" s="217"/>
+      <c r="P90" s="217"/>
+      <c r="Q90" s="217"/>
+      <c r="R90" s="218"/>
+      <c r="S90" s="222"/>
+      <c r="T90" s="223"/>
+      <c r="U90" s="223"/>
+      <c r="V90" s="223"/>
+      <c r="W90" s="223"/>
+      <c r="X90" s="223"/>
+      <c r="Y90" s="223"/>
+      <c r="Z90" s="223"/>
+      <c r="AA90" s="223"/>
+      <c r="AB90" s="223"/>
+      <c r="AC90" s="223"/>
+      <c r="AD90" s="223"/>
+      <c r="AE90" s="223"/>
+      <c r="AF90" s="223"/>
+      <c r="AG90" s="223"/>
+      <c r="AH90" s="272"/>
       <c r="BB90" s="4"/>
     </row>
     <row r="91" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B91" s="177" t="s">
+      <c r="B91" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="177"/>
-      <c r="D91" s="177"/>
-      <c r="E91" s="177"/>
-      <c r="F91" s="177"/>
-      <c r="G91" s="177"/>
-      <c r="H91" s="177"/>
-      <c r="I91" s="177"/>
-      <c r="J91" s="177"/>
-      <c r="K91" s="177"/>
-      <c r="L91" s="177"/>
-      <c r="M91" s="177"/>
-      <c r="N91" s="177"/>
-      <c r="O91" s="177"/>
-      <c r="P91" s="177"/>
-      <c r="Q91" s="177"/>
-      <c r="R91" s="177"/>
-      <c r="S91" s="177"/>
-      <c r="T91" s="177"/>
-      <c r="U91" s="177"/>
-      <c r="V91" s="177"/>
-      <c r="W91" s="177"/>
-      <c r="X91" s="177"/>
-      <c r="Y91" s="177"/>
-      <c r="Z91" s="177"/>
-      <c r="AA91" s="177"/>
-      <c r="AB91" s="177"/>
-      <c r="AC91" s="177"/>
-      <c r="AD91" s="177"/>
-      <c r="AE91" s="177"/>
-      <c r="AF91" s="177"/>
-      <c r="AG91" s="177"/>
-      <c r="AH91" s="177"/>
+      <c r="C91" s="190"/>
+      <c r="D91" s="190"/>
+      <c r="E91" s="190"/>
+      <c r="F91" s="190"/>
+      <c r="G91" s="190"/>
+      <c r="H91" s="190"/>
+      <c r="I91" s="190"/>
+      <c r="J91" s="190"/>
+      <c r="K91" s="190"/>
+      <c r="L91" s="190"/>
+      <c r="M91" s="190"/>
+      <c r="N91" s="190"/>
+      <c r="O91" s="190"/>
+      <c r="P91" s="190"/>
+      <c r="Q91" s="190"/>
+      <c r="R91" s="190"/>
+      <c r="S91" s="190"/>
+      <c r="T91" s="190"/>
+      <c r="U91" s="190"/>
+      <c r="V91" s="190"/>
+      <c r="W91" s="190"/>
+      <c r="X91" s="190"/>
+      <c r="Y91" s="190"/>
+      <c r="Z91" s="190"/>
+      <c r="AA91" s="190"/>
+      <c r="AB91" s="190"/>
+      <c r="AC91" s="190"/>
+      <c r="AD91" s="190"/>
+      <c r="AE91" s="190"/>
+      <c r="AF91" s="190"/>
+      <c r="AG91" s="190"/>
+      <c r="AH91" s="190"/>
       <c r="BB91" s="2"/>
     </row>
     <row r="92" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B92" s="178" t="s">
+      <c r="B92" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="179"/>
-      <c r="D92" s="179"/>
-      <c r="E92" s="179"/>
-      <c r="F92" s="179"/>
-      <c r="G92" s="179"/>
-      <c r="H92" s="179"/>
-      <c r="I92" s="179"/>
-      <c r="J92" s="179"/>
-      <c r="K92" s="179"/>
-      <c r="L92" s="179"/>
-      <c r="M92" s="179"/>
-      <c r="N92" s="179"/>
-      <c r="O92" s="179"/>
-      <c r="P92" s="179"/>
-      <c r="Q92" s="179"/>
-      <c r="R92" s="180"/>
-      <c r="S92" s="178" t="s">
+      <c r="C92" s="198"/>
+      <c r="D92" s="198"/>
+      <c r="E92" s="198"/>
+      <c r="F92" s="198"/>
+      <c r="G92" s="198"/>
+      <c r="H92" s="198"/>
+      <c r="I92" s="198"/>
+      <c r="J92" s="198"/>
+      <c r="K92" s="198"/>
+      <c r="L92" s="198"/>
+      <c r="M92" s="198"/>
+      <c r="N92" s="198"/>
+      <c r="O92" s="198"/>
+      <c r="P92" s="198"/>
+      <c r="Q92" s="198"/>
+      <c r="R92" s="199"/>
+      <c r="S92" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="T92" s="179"/>
-      <c r="U92" s="179"/>
-      <c r="V92" s="179"/>
-      <c r="W92" s="179"/>
-      <c r="X92" s="179"/>
-      <c r="Y92" s="179"/>
-      <c r="Z92" s="179"/>
-      <c r="AA92" s="179"/>
-      <c r="AB92" s="179"/>
-      <c r="AC92" s="179"/>
-      <c r="AD92" s="179"/>
-      <c r="AE92" s="179"/>
-      <c r="AF92" s="179"/>
-      <c r="AG92" s="179"/>
-      <c r="AH92" s="180"/>
+      <c r="T92" s="198"/>
+      <c r="U92" s="198"/>
+      <c r="V92" s="198"/>
+      <c r="W92" s="198"/>
+      <c r="X92" s="198"/>
+      <c r="Y92" s="198"/>
+      <c r="Z92" s="198"/>
+      <c r="AA92" s="198"/>
+      <c r="AB92" s="198"/>
+      <c r="AC92" s="198"/>
+      <c r="AD92" s="198"/>
+      <c r="AE92" s="198"/>
+      <c r="AF92" s="198"/>
+      <c r="AG92" s="198"/>
+      <c r="AH92" s="199"/>
       <c r="BB92" s="2"/>
     </row>
     <row r="93" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B93" s="198"/>
-      <c r="C93" s="199"/>
-      <c r="D93" s="199"/>
-      <c r="E93" s="199"/>
-      <c r="F93" s="199"/>
-      <c r="G93" s="199"/>
-      <c r="H93" s="199"/>
-      <c r="I93" s="199"/>
-      <c r="J93" s="199"/>
-      <c r="K93" s="199"/>
-      <c r="L93" s="199"/>
-      <c r="M93" s="199"/>
-      <c r="N93" s="199"/>
-      <c r="O93" s="199"/>
-      <c r="P93" s="199"/>
-      <c r="Q93" s="199"/>
-      <c r="R93" s="200"/>
-      <c r="S93" s="198"/>
-      <c r="T93" s="199"/>
-      <c r="U93" s="199"/>
-      <c r="V93" s="199"/>
-      <c r="W93" s="199"/>
-      <c r="X93" s="199"/>
-      <c r="Y93" s="199"/>
-      <c r="Z93" s="199"/>
-      <c r="AA93" s="199"/>
-      <c r="AB93" s="199"/>
-      <c r="AC93" s="199"/>
-      <c r="AD93" s="199"/>
-      <c r="AE93" s="199"/>
-      <c r="AF93" s="199"/>
-      <c r="AG93" s="199"/>
-      <c r="AH93" s="200"/>
+      <c r="B93" s="204"/>
+      <c r="C93" s="205"/>
+      <c r="D93" s="205"/>
+      <c r="E93" s="205"/>
+      <c r="F93" s="205"/>
+      <c r="G93" s="205"/>
+      <c r="H93" s="205"/>
+      <c r="I93" s="205"/>
+      <c r="J93" s="205"/>
+      <c r="K93" s="205"/>
+      <c r="L93" s="205"/>
+      <c r="M93" s="205"/>
+      <c r="N93" s="205"/>
+      <c r="O93" s="205"/>
+      <c r="P93" s="205"/>
+      <c r="Q93" s="205"/>
+      <c r="R93" s="206"/>
+      <c r="S93" s="204"/>
+      <c r="T93" s="205"/>
+      <c r="U93" s="205"/>
+      <c r="V93" s="205"/>
+      <c r="W93" s="205"/>
+      <c r="X93" s="205"/>
+      <c r="Y93" s="205"/>
+      <c r="Z93" s="205"/>
+      <c r="AA93" s="205"/>
+      <c r="AB93" s="205"/>
+      <c r="AC93" s="205"/>
+      <c r="AD93" s="205"/>
+      <c r="AE93" s="205"/>
+      <c r="AF93" s="205"/>
+      <c r="AG93" s="205"/>
+      <c r="AH93" s="206"/>
       <c r="BB93" s="2"/>
     </row>
     <row r="94" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B94" s="201"/>
-      <c r="C94" s="202"/>
-      <c r="D94" s="202"/>
-      <c r="E94" s="202"/>
-      <c r="F94" s="202"/>
-      <c r="G94" s="202"/>
-      <c r="H94" s="202"/>
-      <c r="I94" s="202"/>
-      <c r="J94" s="202"/>
-      <c r="K94" s="202"/>
-      <c r="L94" s="202"/>
-      <c r="M94" s="202"/>
-      <c r="N94" s="202"/>
-      <c r="O94" s="202"/>
-      <c r="P94" s="202"/>
-      <c r="Q94" s="202"/>
-      <c r="R94" s="203"/>
-      <c r="S94" s="201"/>
-      <c r="T94" s="202"/>
-      <c r="U94" s="202"/>
-      <c r="V94" s="202"/>
-      <c r="W94" s="202"/>
-      <c r="X94" s="202"/>
-      <c r="Y94" s="202"/>
-      <c r="Z94" s="202"/>
-      <c r="AA94" s="202"/>
-      <c r="AB94" s="202"/>
-      <c r="AC94" s="202"/>
-      <c r="AD94" s="202"/>
-      <c r="AE94" s="202"/>
-      <c r="AF94" s="202"/>
-      <c r="AG94" s="202"/>
-      <c r="AH94" s="203"/>
+      <c r="B94" s="207"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="208"/>
+      <c r="E94" s="208"/>
+      <c r="F94" s="208"/>
+      <c r="G94" s="208"/>
+      <c r="H94" s="208"/>
+      <c r="I94" s="208"/>
+      <c r="J94" s="208"/>
+      <c r="K94" s="208"/>
+      <c r="L94" s="208"/>
+      <c r="M94" s="208"/>
+      <c r="N94" s="208"/>
+      <c r="O94" s="208"/>
+      <c r="P94" s="208"/>
+      <c r="Q94" s="208"/>
+      <c r="R94" s="209"/>
+      <c r="S94" s="207"/>
+      <c r="T94" s="208"/>
+      <c r="U94" s="208"/>
+      <c r="V94" s="208"/>
+      <c r="W94" s="208"/>
+      <c r="X94" s="208"/>
+      <c r="Y94" s="208"/>
+      <c r="Z94" s="208"/>
+      <c r="AA94" s="208"/>
+      <c r="AB94" s="208"/>
+      <c r="AC94" s="208"/>
+      <c r="AD94" s="208"/>
+      <c r="AE94" s="208"/>
+      <c r="AF94" s="208"/>
+      <c r="AG94" s="208"/>
+      <c r="AH94" s="209"/>
       <c r="BB94" s="2"/>
     </row>
     <row r="95" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B95" s="201"/>
-      <c r="C95" s="202"/>
-      <c r="D95" s="202"/>
-      <c r="E95" s="202"/>
-      <c r="F95" s="202"/>
-      <c r="G95" s="202"/>
-      <c r="H95" s="202"/>
-      <c r="I95" s="202"/>
-      <c r="J95" s="202"/>
-      <c r="K95" s="202"/>
-      <c r="L95" s="202"/>
-      <c r="M95" s="202"/>
-      <c r="N95" s="202"/>
-      <c r="O95" s="202"/>
-      <c r="P95" s="202"/>
-      <c r="Q95" s="202"/>
-      <c r="R95" s="203"/>
-      <c r="S95" s="201"/>
-      <c r="T95" s="202"/>
-      <c r="U95" s="202"/>
-      <c r="V95" s="202"/>
-      <c r="W95" s="202"/>
-      <c r="X95" s="202"/>
-      <c r="Y95" s="202"/>
-      <c r="Z95" s="202"/>
-      <c r="AA95" s="202"/>
-      <c r="AB95" s="202"/>
-      <c r="AC95" s="202"/>
-      <c r="AD95" s="202"/>
-      <c r="AE95" s="202"/>
-      <c r="AF95" s="202"/>
-      <c r="AG95" s="202"/>
-      <c r="AH95" s="203"/>
+      <c r="B95" s="207"/>
+      <c r="C95" s="208"/>
+      <c r="D95" s="208"/>
+      <c r="E95" s="208"/>
+      <c r="F95" s="208"/>
+      <c r="G95" s="208"/>
+      <c r="H95" s="208"/>
+      <c r="I95" s="208"/>
+      <c r="J95" s="208"/>
+      <c r="K95" s="208"/>
+      <c r="L95" s="208"/>
+      <c r="M95" s="208"/>
+      <c r="N95" s="208"/>
+      <c r="O95" s="208"/>
+      <c r="P95" s="208"/>
+      <c r="Q95" s="208"/>
+      <c r="R95" s="209"/>
+      <c r="S95" s="207"/>
+      <c r="T95" s="208"/>
+      <c r="U95" s="208"/>
+      <c r="V95" s="208"/>
+      <c r="W95" s="208"/>
+      <c r="X95" s="208"/>
+      <c r="Y95" s="208"/>
+      <c r="Z95" s="208"/>
+      <c r="AA95" s="208"/>
+      <c r="AB95" s="208"/>
+      <c r="AC95" s="208"/>
+      <c r="AD95" s="208"/>
+      <c r="AE95" s="208"/>
+      <c r="AF95" s="208"/>
+      <c r="AG95" s="208"/>
+      <c r="AH95" s="209"/>
       <c r="BB95" s="2"/>
     </row>
     <row r="96" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B96" s="201"/>
-      <c r="C96" s="202"/>
-      <c r="D96" s="202"/>
-      <c r="E96" s="202"/>
-      <c r="F96" s="202"/>
-      <c r="G96" s="202"/>
-      <c r="H96" s="202"/>
-      <c r="I96" s="202"/>
-      <c r="J96" s="202"/>
-      <c r="K96" s="202"/>
-      <c r="L96" s="202"/>
-      <c r="M96" s="202"/>
-      <c r="N96" s="202"/>
-      <c r="O96" s="202"/>
-      <c r="P96" s="202"/>
-      <c r="Q96" s="202"/>
-      <c r="R96" s="203"/>
-      <c r="S96" s="201"/>
-      <c r="T96" s="202"/>
-      <c r="U96" s="202"/>
-      <c r="V96" s="202"/>
-      <c r="W96" s="202"/>
-      <c r="X96" s="202"/>
-      <c r="Y96" s="202"/>
-      <c r="Z96" s="202"/>
-      <c r="AA96" s="202"/>
-      <c r="AB96" s="202"/>
-      <c r="AC96" s="202"/>
-      <c r="AD96" s="202"/>
-      <c r="AE96" s="202"/>
-      <c r="AF96" s="202"/>
-      <c r="AG96" s="202"/>
-      <c r="AH96" s="203"/>
+      <c r="B96" s="207"/>
+      <c r="C96" s="208"/>
+      <c r="D96" s="208"/>
+      <c r="E96" s="208"/>
+      <c r="F96" s="208"/>
+      <c r="G96" s="208"/>
+      <c r="H96" s="208"/>
+      <c r="I96" s="208"/>
+      <c r="J96" s="208"/>
+      <c r="K96" s="208"/>
+      <c r="L96" s="208"/>
+      <c r="M96" s="208"/>
+      <c r="N96" s="208"/>
+      <c r="O96" s="208"/>
+      <c r="P96" s="208"/>
+      <c r="Q96" s="208"/>
+      <c r="R96" s="209"/>
+      <c r="S96" s="207"/>
+      <c r="T96" s="208"/>
+      <c r="U96" s="208"/>
+      <c r="V96" s="208"/>
+      <c r="W96" s="208"/>
+      <c r="X96" s="208"/>
+      <c r="Y96" s="208"/>
+      <c r="Z96" s="208"/>
+      <c r="AA96" s="208"/>
+      <c r="AB96" s="208"/>
+      <c r="AC96" s="208"/>
+      <c r="AD96" s="208"/>
+      <c r="AE96" s="208"/>
+      <c r="AF96" s="208"/>
+      <c r="AG96" s="208"/>
+      <c r="AH96" s="209"/>
       <c r="BB96" s="2"/>
     </row>
     <row r="97" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B97" s="201"/>
-      <c r="C97" s="202"/>
-      <c r="D97" s="202"/>
-      <c r="E97" s="202"/>
-      <c r="F97" s="202"/>
-      <c r="G97" s="202"/>
-      <c r="H97" s="202"/>
-      <c r="I97" s="202"/>
-      <c r="J97" s="202"/>
-      <c r="K97" s="202"/>
-      <c r="L97" s="202"/>
-      <c r="M97" s="202"/>
-      <c r="N97" s="202"/>
-      <c r="O97" s="202"/>
-      <c r="P97" s="202"/>
-      <c r="Q97" s="202"/>
-      <c r="R97" s="203"/>
-      <c r="S97" s="201"/>
-      <c r="T97" s="202"/>
-      <c r="U97" s="202"/>
-      <c r="V97" s="202"/>
-      <c r="W97" s="202"/>
-      <c r="X97" s="202"/>
-      <c r="Y97" s="202"/>
-      <c r="Z97" s="202"/>
-      <c r="AA97" s="202"/>
-      <c r="AB97" s="202"/>
-      <c r="AC97" s="202"/>
-      <c r="AD97" s="202"/>
-      <c r="AE97" s="202"/>
-      <c r="AF97" s="202"/>
-      <c r="AG97" s="202"/>
-      <c r="AH97" s="203"/>
+      <c r="B97" s="207"/>
+      <c r="C97" s="208"/>
+      <c r="D97" s="208"/>
+      <c r="E97" s="208"/>
+      <c r="F97" s="208"/>
+      <c r="G97" s="208"/>
+      <c r="H97" s="208"/>
+      <c r="I97" s="208"/>
+      <c r="J97" s="208"/>
+      <c r="K97" s="208"/>
+      <c r="L97" s="208"/>
+      <c r="M97" s="208"/>
+      <c r="N97" s="208"/>
+      <c r="O97" s="208"/>
+      <c r="P97" s="208"/>
+      <c r="Q97" s="208"/>
+      <c r="R97" s="209"/>
+      <c r="S97" s="207"/>
+      <c r="T97" s="208"/>
+      <c r="U97" s="208"/>
+      <c r="V97" s="208"/>
+      <c r="W97" s="208"/>
+      <c r="X97" s="208"/>
+      <c r="Y97" s="208"/>
+      <c r="Z97" s="208"/>
+      <c r="AA97" s="208"/>
+      <c r="AB97" s="208"/>
+      <c r="AC97" s="208"/>
+      <c r="AD97" s="208"/>
+      <c r="AE97" s="208"/>
+      <c r="AF97" s="208"/>
+      <c r="AG97" s="208"/>
+      <c r="AH97" s="209"/>
       <c r="BB97" s="2"/>
     </row>
     <row r="98" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B98" s="201"/>
-      <c r="C98" s="202"/>
-      <c r="D98" s="202"/>
-      <c r="E98" s="202"/>
-      <c r="F98" s="202"/>
-      <c r="G98" s="202"/>
-      <c r="H98" s="202"/>
-      <c r="I98" s="202"/>
-      <c r="J98" s="202"/>
-      <c r="K98" s="202"/>
-      <c r="L98" s="202"/>
-      <c r="M98" s="202"/>
-      <c r="N98" s="202"/>
-      <c r="O98" s="202"/>
-      <c r="P98" s="202"/>
-      <c r="Q98" s="202"/>
-      <c r="R98" s="203"/>
-      <c r="S98" s="201"/>
-      <c r="T98" s="202"/>
-      <c r="U98" s="202"/>
-      <c r="V98" s="202"/>
-      <c r="W98" s="202"/>
-      <c r="X98" s="202"/>
-      <c r="Y98" s="202"/>
-      <c r="Z98" s="202"/>
-      <c r="AA98" s="202"/>
-      <c r="AB98" s="202"/>
-      <c r="AC98" s="202"/>
-      <c r="AD98" s="202"/>
-      <c r="AE98" s="202"/>
-      <c r="AF98" s="202"/>
-      <c r="AG98" s="202"/>
-      <c r="AH98" s="203"/>
+      <c r="B98" s="207"/>
+      <c r="C98" s="208"/>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="G98" s="208"/>
+      <c r="H98" s="208"/>
+      <c r="I98" s="208"/>
+      <c r="J98" s="208"/>
+      <c r="K98" s="208"/>
+      <c r="L98" s="208"/>
+      <c r="M98" s="208"/>
+      <c r="N98" s="208"/>
+      <c r="O98" s="208"/>
+      <c r="P98" s="208"/>
+      <c r="Q98" s="208"/>
+      <c r="R98" s="209"/>
+      <c r="S98" s="207"/>
+      <c r="T98" s="208"/>
+      <c r="U98" s="208"/>
+      <c r="V98" s="208"/>
+      <c r="W98" s="208"/>
+      <c r="X98" s="208"/>
+      <c r="Y98" s="208"/>
+      <c r="Z98" s="208"/>
+      <c r="AA98" s="208"/>
+      <c r="AB98" s="208"/>
+      <c r="AC98" s="208"/>
+      <c r="AD98" s="208"/>
+      <c r="AE98" s="208"/>
+      <c r="AF98" s="208"/>
+      <c r="AG98" s="208"/>
+      <c r="AH98" s="209"/>
       <c r="AM98" t="str">
         <f>CONCATENATE(AM72," ",AN72)</f>
         <v xml:space="preserve"> </v>
@@ -7187,227 +7209,227 @@
       <c r="BB98" s="2"/>
     </row>
     <row r="99" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B99" s="201"/>
-      <c r="C99" s="202"/>
-      <c r="D99" s="202"/>
-      <c r="E99" s="202"/>
-      <c r="F99" s="202"/>
-      <c r="G99" s="202"/>
-      <c r="H99" s="202"/>
-      <c r="I99" s="202"/>
-      <c r="J99" s="202"/>
-      <c r="K99" s="202"/>
-      <c r="L99" s="202"/>
-      <c r="M99" s="202"/>
-      <c r="N99" s="202"/>
-      <c r="O99" s="202"/>
-      <c r="P99" s="202"/>
-      <c r="Q99" s="202"/>
-      <c r="R99" s="203"/>
-      <c r="S99" s="201"/>
-      <c r="T99" s="202"/>
-      <c r="U99" s="202"/>
-      <c r="V99" s="202"/>
-      <c r="W99" s="202"/>
-      <c r="X99" s="202"/>
-      <c r="Y99" s="202"/>
-      <c r="Z99" s="202"/>
-      <c r="AA99" s="202"/>
-      <c r="AB99" s="202"/>
-      <c r="AC99" s="202"/>
-      <c r="AD99" s="202"/>
-      <c r="AE99" s="202"/>
-      <c r="AF99" s="202"/>
-      <c r="AG99" s="202"/>
-      <c r="AH99" s="203"/>
+      <c r="B99" s="207"/>
+      <c r="C99" s="208"/>
+      <c r="D99" s="208"/>
+      <c r="E99" s="208"/>
+      <c r="F99" s="208"/>
+      <c r="G99" s="208"/>
+      <c r="H99" s="208"/>
+      <c r="I99" s="208"/>
+      <c r="J99" s="208"/>
+      <c r="K99" s="208"/>
+      <c r="L99" s="208"/>
+      <c r="M99" s="208"/>
+      <c r="N99" s="208"/>
+      <c r="O99" s="208"/>
+      <c r="P99" s="208"/>
+      <c r="Q99" s="208"/>
+      <c r="R99" s="209"/>
+      <c r="S99" s="207"/>
+      <c r="T99" s="208"/>
+      <c r="U99" s="208"/>
+      <c r="V99" s="208"/>
+      <c r="W99" s="208"/>
+      <c r="X99" s="208"/>
+      <c r="Y99" s="208"/>
+      <c r="Z99" s="208"/>
+      <c r="AA99" s="208"/>
+      <c r="AB99" s="208"/>
+      <c r="AC99" s="208"/>
+      <c r="AD99" s="208"/>
+      <c r="AE99" s="208"/>
+      <c r="AF99" s="208"/>
+      <c r="AG99" s="208"/>
+      <c r="AH99" s="209"/>
       <c r="BB99" s="2"/>
     </row>
     <row r="100" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B100" s="201"/>
-      <c r="C100" s="202"/>
-      <c r="D100" s="202"/>
-      <c r="E100" s="202"/>
-      <c r="F100" s="202"/>
-      <c r="G100" s="202"/>
-      <c r="H100" s="202"/>
-      <c r="I100" s="202"/>
-      <c r="J100" s="202"/>
-      <c r="K100" s="202"/>
-      <c r="L100" s="202"/>
-      <c r="M100" s="202"/>
-      <c r="N100" s="202"/>
-      <c r="O100" s="202"/>
-      <c r="P100" s="202"/>
-      <c r="Q100" s="202"/>
-      <c r="R100" s="203"/>
-      <c r="S100" s="201"/>
-      <c r="T100" s="202"/>
-      <c r="U100" s="202"/>
-      <c r="V100" s="202"/>
-      <c r="W100" s="202"/>
-      <c r="X100" s="202"/>
-      <c r="Y100" s="202"/>
-      <c r="Z100" s="202"/>
-      <c r="AA100" s="202"/>
-      <c r="AB100" s="202"/>
-      <c r="AC100" s="202"/>
-      <c r="AD100" s="202"/>
-      <c r="AE100" s="202"/>
-      <c r="AF100" s="202"/>
-      <c r="AG100" s="202"/>
-      <c r="AH100" s="203"/>
+      <c r="B100" s="207"/>
+      <c r="C100" s="208"/>
+      <c r="D100" s="208"/>
+      <c r="E100" s="208"/>
+      <c r="F100" s="208"/>
+      <c r="G100" s="208"/>
+      <c r="H100" s="208"/>
+      <c r="I100" s="208"/>
+      <c r="J100" s="208"/>
+      <c r="K100" s="208"/>
+      <c r="L100" s="208"/>
+      <c r="M100" s="208"/>
+      <c r="N100" s="208"/>
+      <c r="O100" s="208"/>
+      <c r="P100" s="208"/>
+      <c r="Q100" s="208"/>
+      <c r="R100" s="209"/>
+      <c r="S100" s="207"/>
+      <c r="T100" s="208"/>
+      <c r="U100" s="208"/>
+      <c r="V100" s="208"/>
+      <c r="W100" s="208"/>
+      <c r="X100" s="208"/>
+      <c r="Y100" s="208"/>
+      <c r="Z100" s="208"/>
+      <c r="AA100" s="208"/>
+      <c r="AB100" s="208"/>
+      <c r="AC100" s="208"/>
+      <c r="AD100" s="208"/>
+      <c r="AE100" s="208"/>
+      <c r="AF100" s="208"/>
+      <c r="AG100" s="208"/>
+      <c r="AH100" s="209"/>
       <c r="BB100" s="2"/>
     </row>
     <row r="101" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B101" s="178" t="s">
+      <c r="B101" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="179"/>
-      <c r="D101" s="179"/>
-      <c r="E101" s="179"/>
-      <c r="F101" s="179"/>
-      <c r="G101" s="179"/>
-      <c r="H101" s="179"/>
-      <c r="I101" s="179"/>
-      <c r="J101" s="179"/>
-      <c r="K101" s="179"/>
-      <c r="L101" s="179"/>
-      <c r="M101" s="179"/>
-      <c r="N101" s="179"/>
-      <c r="O101" s="179"/>
-      <c r="P101" s="179"/>
-      <c r="Q101" s="179"/>
-      <c r="R101" s="180"/>
-      <c r="S101" s="178" t="s">
+      <c r="C101" s="198"/>
+      <c r="D101" s="198"/>
+      <c r="E101" s="198"/>
+      <c r="F101" s="198"/>
+      <c r="G101" s="198"/>
+      <c r="H101" s="198"/>
+      <c r="I101" s="198"/>
+      <c r="J101" s="198"/>
+      <c r="K101" s="198"/>
+      <c r="L101" s="198"/>
+      <c r="M101" s="198"/>
+      <c r="N101" s="198"/>
+      <c r="O101" s="198"/>
+      <c r="P101" s="198"/>
+      <c r="Q101" s="198"/>
+      <c r="R101" s="199"/>
+      <c r="S101" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="T101" s="179"/>
-      <c r="U101" s="179"/>
-      <c r="V101" s="179"/>
-      <c r="W101" s="179"/>
-      <c r="X101" s="179"/>
-      <c r="Y101" s="179"/>
-      <c r="Z101" s="179"/>
-      <c r="AA101" s="179"/>
-      <c r="AB101" s="179"/>
-      <c r="AC101" s="179"/>
-      <c r="AD101" s="179"/>
-      <c r="AE101" s="179"/>
-      <c r="AF101" s="179"/>
-      <c r="AG101" s="179"/>
-      <c r="AH101" s="180"/>
+      <c r="T101" s="198"/>
+      <c r="U101" s="198"/>
+      <c r="V101" s="198"/>
+      <c r="W101" s="198"/>
+      <c r="X101" s="198"/>
+      <c r="Y101" s="198"/>
+      <c r="Z101" s="198"/>
+      <c r="AA101" s="198"/>
+      <c r="AB101" s="198"/>
+      <c r="AC101" s="198"/>
+      <c r="AD101" s="198"/>
+      <c r="AE101" s="198"/>
+      <c r="AF101" s="198"/>
+      <c r="AG101" s="198"/>
+      <c r="AH101" s="199"/>
       <c r="BB101" s="11"/>
     </row>
     <row r="102" spans="2:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="216" t="s">
+      <c r="B102" s="224" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="217"/>
-      <c r="D102" s="217"/>
-      <c r="E102" s="217"/>
-      <c r="F102" s="217"/>
-      <c r="G102" s="217"/>
-      <c r="H102" s="217"/>
-      <c r="I102" s="217"/>
-      <c r="J102" s="217"/>
-      <c r="K102" s="217"/>
-      <c r="L102" s="217"/>
-      <c r="M102" s="217"/>
-      <c r="N102" s="217"/>
-      <c r="O102" s="217"/>
-      <c r="P102" s="217"/>
-      <c r="Q102" s="217"/>
-      <c r="R102" s="218"/>
-      <c r="S102" s="219" t="s">
+      <c r="C102" s="225"/>
+      <c r="D102" s="225"/>
+      <c r="E102" s="225"/>
+      <c r="F102" s="225"/>
+      <c r="G102" s="225"/>
+      <c r="H102" s="225"/>
+      <c r="I102" s="225"/>
+      <c r="J102" s="225"/>
+      <c r="K102" s="225"/>
+      <c r="L102" s="225"/>
+      <c r="M102" s="225"/>
+      <c r="N102" s="225"/>
+      <c r="O102" s="225"/>
+      <c r="P102" s="225"/>
+      <c r="Q102" s="225"/>
+      <c r="R102" s="226"/>
+      <c r="S102" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="T102" s="220"/>
-      <c r="U102" s="220"/>
-      <c r="V102" s="220"/>
-      <c r="W102" s="220"/>
-      <c r="X102" s="220"/>
-      <c r="Y102" s="220"/>
-      <c r="Z102" s="220"/>
-      <c r="AA102" s="220"/>
-      <c r="AB102" s="220"/>
-      <c r="AC102" s="220"/>
-      <c r="AD102" s="220"/>
-      <c r="AE102" s="220"/>
-      <c r="AF102" s="220"/>
-      <c r="AG102" s="220"/>
-      <c r="AH102" s="221"/>
+      <c r="T102" s="228"/>
+      <c r="U102" s="228"/>
+      <c r="V102" s="228"/>
+      <c r="W102" s="228"/>
+      <c r="X102" s="228"/>
+      <c r="Y102" s="228"/>
+      <c r="Z102" s="228"/>
+      <c r="AA102" s="228"/>
+      <c r="AB102" s="228"/>
+      <c r="AC102" s="228"/>
+      <c r="AD102" s="228"/>
+      <c r="AE102" s="228"/>
+      <c r="AF102" s="228"/>
+      <c r="AG102" s="228"/>
+      <c r="AH102" s="229"/>
       <c r="BB102" s="12"/>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B103" s="216"/>
-      <c r="C103" s="217"/>
-      <c r="D103" s="217"/>
-      <c r="E103" s="217"/>
-      <c r="F103" s="217"/>
-      <c r="G103" s="217"/>
-      <c r="H103" s="217"/>
-      <c r="I103" s="217"/>
-      <c r="J103" s="217"/>
-      <c r="K103" s="217"/>
-      <c r="L103" s="217"/>
-      <c r="M103" s="217"/>
-      <c r="N103" s="217"/>
-      <c r="O103" s="217"/>
-      <c r="P103" s="217"/>
-      <c r="Q103" s="217"/>
-      <c r="R103" s="218"/>
-      <c r="S103" s="216"/>
-      <c r="T103" s="217"/>
-      <c r="U103" s="217"/>
-      <c r="V103" s="217"/>
-      <c r="W103" s="217"/>
-      <c r="X103" s="217"/>
-      <c r="Y103" s="217"/>
-      <c r="Z103" s="217"/>
-      <c r="AA103" s="217"/>
-      <c r="AB103" s="217"/>
-      <c r="AC103" s="217"/>
-      <c r="AD103" s="217"/>
-      <c r="AE103" s="217"/>
-      <c r="AF103" s="217"/>
-      <c r="AG103" s="217"/>
-      <c r="AH103" s="218"/>
+      <c r="B103" s="224"/>
+      <c r="C103" s="225"/>
+      <c r="D103" s="225"/>
+      <c r="E103" s="225"/>
+      <c r="F103" s="225"/>
+      <c r="G103" s="225"/>
+      <c r="H103" s="225"/>
+      <c r="I103" s="225"/>
+      <c r="J103" s="225"/>
+      <c r="K103" s="225"/>
+      <c r="L103" s="225"/>
+      <c r="M103" s="225"/>
+      <c r="N103" s="225"/>
+      <c r="O103" s="225"/>
+      <c r="P103" s="225"/>
+      <c r="Q103" s="225"/>
+      <c r="R103" s="226"/>
+      <c r="S103" s="224"/>
+      <c r="T103" s="225"/>
+      <c r="U103" s="225"/>
+      <c r="V103" s="225"/>
+      <c r="W103" s="225"/>
+      <c r="X103" s="225"/>
+      <c r="Y103" s="225"/>
+      <c r="Z103" s="225"/>
+      <c r="AA103" s="225"/>
+      <c r="AB103" s="225"/>
+      <c r="AC103" s="225"/>
+      <c r="AD103" s="225"/>
+      <c r="AE103" s="225"/>
+      <c r="AF103" s="225"/>
+      <c r="AG103" s="225"/>
+      <c r="AH103" s="226"/>
       <c r="BB103" s="12"/>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B104" s="216"/>
-      <c r="C104" s="217"/>
-      <c r="D104" s="217"/>
-      <c r="E104" s="217"/>
-      <c r="F104" s="217"/>
-      <c r="G104" s="217"/>
-      <c r="H104" s="217"/>
-      <c r="I104" s="217"/>
-      <c r="J104" s="217"/>
-      <c r="K104" s="217"/>
-      <c r="L104" s="217"/>
-      <c r="M104" s="217"/>
-      <c r="N104" s="217"/>
-      <c r="O104" s="217"/>
-      <c r="P104" s="217"/>
-      <c r="Q104" s="217"/>
-      <c r="R104" s="218"/>
-      <c r="S104" s="216"/>
-      <c r="T104" s="217"/>
-      <c r="U104" s="217"/>
-      <c r="V104" s="217"/>
-      <c r="W104" s="217"/>
-      <c r="X104" s="217"/>
-      <c r="Y104" s="217"/>
-      <c r="Z104" s="217"/>
-      <c r="AA104" s="217"/>
-      <c r="AB104" s="217"/>
-      <c r="AC104" s="217"/>
-      <c r="AD104" s="217"/>
-      <c r="AE104" s="217"/>
-      <c r="AF104" s="217"/>
-      <c r="AG104" s="217"/>
-      <c r="AH104" s="218"/>
+      <c r="B104" s="224"/>
+      <c r="C104" s="225"/>
+      <c r="D104" s="225"/>
+      <c r="E104" s="225"/>
+      <c r="F104" s="225"/>
+      <c r="G104" s="225"/>
+      <c r="H104" s="225"/>
+      <c r="I104" s="225"/>
+      <c r="J104" s="225"/>
+      <c r="K104" s="225"/>
+      <c r="L104" s="225"/>
+      <c r="M104" s="225"/>
+      <c r="N104" s="225"/>
+      <c r="O104" s="225"/>
+      <c r="P104" s="225"/>
+      <c r="Q104" s="225"/>
+      <c r="R104" s="226"/>
+      <c r="S104" s="224"/>
+      <c r="T104" s="225"/>
+      <c r="U104" s="225"/>
+      <c r="V104" s="225"/>
+      <c r="W104" s="225"/>
+      <c r="X104" s="225"/>
+      <c r="Y104" s="225"/>
+      <c r="Z104" s="225"/>
+      <c r="AA104" s="225"/>
+      <c r="AB104" s="225"/>
+      <c r="AC104" s="225"/>
+      <c r="AD104" s="225"/>
+      <c r="AE104" s="225"/>
+      <c r="AF104" s="225"/>
+      <c r="AG104" s="225"/>
+      <c r="AH104" s="226"/>
       <c r="BB104" s="12"/>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.35">
@@ -7447,26 +7469,26 @@
       <c r="BB105" s="12"/>
     </row>
     <row r="106" spans="2:54" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B106" s="222"/>
-      <c r="C106" s="223"/>
-      <c r="D106" s="223"/>
-      <c r="E106" s="223"/>
-      <c r="F106" s="223"/>
-      <c r="G106" s="223"/>
-      <c r="H106" s="223"/>
-      <c r="I106" s="223"/>
-      <c r="J106" s="223"/>
-      <c r="K106" s="223"/>
-      <c r="L106" s="223"/>
-      <c r="M106" s="223"/>
-      <c r="N106" s="223"/>
-      <c r="O106" s="223"/>
-      <c r="P106" s="223"/>
-      <c r="Q106" s="223"/>
-      <c r="R106" s="224"/>
-      <c r="S106" s="222"/>
-      <c r="T106" s="223"/>
-      <c r="U106" s="223"/>
+      <c r="B106" s="230"/>
+      <c r="C106" s="231"/>
+      <c r="D106" s="231"/>
+      <c r="E106" s="231"/>
+      <c r="F106" s="231"/>
+      <c r="G106" s="231"/>
+      <c r="H106" s="231"/>
+      <c r="I106" s="231"/>
+      <c r="J106" s="231"/>
+      <c r="K106" s="231"/>
+      <c r="L106" s="231"/>
+      <c r="M106" s="231"/>
+      <c r="N106" s="231"/>
+      <c r="O106" s="231"/>
+      <c r="P106" s="231"/>
+      <c r="Q106" s="231"/>
+      <c r="R106" s="232"/>
+      <c r="S106" s="230"/>
+      <c r="T106" s="231"/>
+      <c r="U106" s="231"/>
       <c r="V106" s="11"/>
       <c r="W106" s="11"/>
       <c r="X106" s="11"/>
@@ -7483,116 +7505,116 @@
       <c r="BB106" s="1"/>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B107" s="225" t="s">
+      <c r="B107" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="226"/>
-      <c r="D107" s="226"/>
-      <c r="E107" s="226"/>
-      <c r="F107" s="227"/>
-      <c r="G107" s="227"/>
-      <c r="H107" s="227"/>
-      <c r="I107" s="227"/>
-      <c r="J107" s="227"/>
-      <c r="K107" s="227"/>
-      <c r="L107" s="227"/>
-      <c r="M107" s="227"/>
-      <c r="N107" s="227"/>
-      <c r="O107" s="227"/>
-      <c r="P107" s="227"/>
-      <c r="Q107" s="227"/>
-      <c r="R107" s="228"/>
-      <c r="S107" s="225" t="s">
+      <c r="C107" s="192"/>
+      <c r="D107" s="192"/>
+      <c r="E107" s="192"/>
+      <c r="F107" s="233"/>
+      <c r="G107" s="233"/>
+      <c r="H107" s="233"/>
+      <c r="I107" s="233"/>
+      <c r="J107" s="233"/>
+      <c r="K107" s="233"/>
+      <c r="L107" s="233"/>
+      <c r="M107" s="233"/>
+      <c r="N107" s="233"/>
+      <c r="O107" s="233"/>
+      <c r="P107" s="233"/>
+      <c r="Q107" s="233"/>
+      <c r="R107" s="234"/>
+      <c r="S107" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="T107" s="226"/>
-      <c r="U107" s="226"/>
-      <c r="V107" s="226"/>
-      <c r="W107" s="227"/>
-      <c r="X107" s="227"/>
-      <c r="Y107" s="227"/>
-      <c r="Z107" s="227"/>
-      <c r="AA107" s="227"/>
-      <c r="AB107" s="227"/>
-      <c r="AC107" s="227"/>
-      <c r="AD107" s="227"/>
-      <c r="AE107" s="227"/>
-      <c r="AF107" s="227"/>
-      <c r="AG107" s="227"/>
-      <c r="AH107" s="228"/>
+      <c r="T107" s="192"/>
+      <c r="U107" s="192"/>
+      <c r="V107" s="192"/>
+      <c r="W107" s="233"/>
+      <c r="X107" s="233"/>
+      <c r="Y107" s="233"/>
+      <c r="Z107" s="233"/>
+      <c r="AA107" s="233"/>
+      <c r="AB107" s="233"/>
+      <c r="AC107" s="233"/>
+      <c r="AD107" s="233"/>
+      <c r="AE107" s="233"/>
+      <c r="AF107" s="233"/>
+      <c r="AG107" s="233"/>
+      <c r="AH107" s="234"/>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B108" s="225" t="s">
+      <c r="B108" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="C108" s="226"/>
-      <c r="D108" s="226"/>
-      <c r="E108" s="226"/>
-      <c r="F108" s="236"/>
-      <c r="G108" s="236"/>
-      <c r="H108" s="236"/>
-      <c r="I108" s="236"/>
-      <c r="J108" s="236"/>
-      <c r="K108" s="236"/>
-      <c r="L108" s="236"/>
-      <c r="M108" s="236"/>
-      <c r="N108" s="236"/>
-      <c r="O108" s="236"/>
-      <c r="P108" s="236"/>
-      <c r="Q108" s="236"/>
-      <c r="R108" s="237"/>
-      <c r="S108" s="225" t="s">
+      <c r="C108" s="192"/>
+      <c r="D108" s="192"/>
+      <c r="E108" s="192"/>
+      <c r="F108" s="193"/>
+      <c r="G108" s="193"/>
+      <c r="H108" s="193"/>
+      <c r="I108" s="193"/>
+      <c r="J108" s="193"/>
+      <c r="K108" s="193"/>
+      <c r="L108" s="193"/>
+      <c r="M108" s="193"/>
+      <c r="N108" s="193"/>
+      <c r="O108" s="193"/>
+      <c r="P108" s="193"/>
+      <c r="Q108" s="193"/>
+      <c r="R108" s="194"/>
+      <c r="S108" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="T108" s="226"/>
-      <c r="U108" s="226"/>
-      <c r="V108" s="226"/>
-      <c r="W108" s="238"/>
-      <c r="X108" s="238"/>
-      <c r="Y108" s="238"/>
-      <c r="Z108" s="238"/>
-      <c r="AA108" s="238"/>
-      <c r="AB108" s="238"/>
-      <c r="AC108" s="238"/>
-      <c r="AD108" s="238"/>
-      <c r="AE108" s="238"/>
-      <c r="AF108" s="238"/>
-      <c r="AG108" s="238"/>
-      <c r="AH108" s="239"/>
+      <c r="T108" s="192"/>
+      <c r="U108" s="192"/>
+      <c r="V108" s="192"/>
+      <c r="W108" s="195"/>
+      <c r="X108" s="195"/>
+      <c r="Y108" s="195"/>
+      <c r="Z108" s="195"/>
+      <c r="AA108" s="195"/>
+      <c r="AB108" s="195"/>
+      <c r="AC108" s="195"/>
+      <c r="AD108" s="195"/>
+      <c r="AE108" s="195"/>
+      <c r="AF108" s="195"/>
+      <c r="AG108" s="195"/>
+      <c r="AH108" s="196"/>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.35">
-      <c r="B109" s="240" t="s">
+      <c r="B109" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="241"/>
-      <c r="D109" s="241"/>
-      <c r="E109" s="241"/>
-      <c r="F109" s="242"/>
-      <c r="G109" s="243"/>
-      <c r="H109" s="243"/>
-      <c r="I109" s="243"/>
-      <c r="J109" s="243"/>
+      <c r="C109" s="236"/>
+      <c r="D109" s="236"/>
+      <c r="E109" s="236"/>
+      <c r="F109" s="237"/>
+      <c r="G109" s="238"/>
+      <c r="H109" s="238"/>
+      <c r="I109" s="238"/>
+      <c r="J109" s="238"/>
       <c r="K109" s="9"/>
-      <c r="L109" s="244"/>
-      <c r="M109" s="244"/>
-      <c r="N109" s="244"/>
-      <c r="O109" s="244"/>
-      <c r="P109" s="244"/>
-      <c r="Q109" s="244"/>
-      <c r="R109" s="245"/>
-      <c r="S109" s="240" t="s">
+      <c r="L109" s="239"/>
+      <c r="M109" s="239"/>
+      <c r="N109" s="239"/>
+      <c r="O109" s="239"/>
+      <c r="P109" s="239"/>
+      <c r="Q109" s="239"/>
+      <c r="R109" s="240"/>
+      <c r="S109" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="T109" s="241"/>
-      <c r="U109" s="241"/>
-      <c r="V109" s="241"/>
-      <c r="W109" s="246" t="s">
+      <c r="T109" s="236"/>
+      <c r="U109" s="236"/>
+      <c r="V109" s="236"/>
+      <c r="W109" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="X109" s="246"/>
-      <c r="Y109" s="246"/>
-      <c r="Z109" s="246"/>
-      <c r="AA109" s="246"/>
+      <c r="X109" s="241"/>
+      <c r="Y109" s="241"/>
+      <c r="Z109" s="241"/>
+      <c r="AA109" s="241"/>
       <c r="AB109" s="8"/>
       <c r="AC109" s="8"/>
       <c r="AD109" s="8"/>
@@ -7602,78 +7624,78 @@
       <c r="AH109" s="7"/>
     </row>
     <row r="110" spans="2:54" ht="18" x14ac:dyDescent="0.35">
-      <c r="B110" s="247" t="s">
+      <c r="B110" s="249" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="248"/>
-      <c r="D110" s="248"/>
-      <c r="E110" s="248"/>
-      <c r="F110" s="248"/>
-      <c r="G110" s="248"/>
-      <c r="H110" s="248"/>
-      <c r="I110" s="248"/>
-      <c r="J110" s="248"/>
-      <c r="K110" s="248"/>
-      <c r="L110" s="248"/>
-      <c r="M110" s="248"/>
-      <c r="N110" s="248"/>
-      <c r="O110" s="248"/>
-      <c r="P110" s="248"/>
-      <c r="Q110" s="248"/>
-      <c r="R110" s="248"/>
-      <c r="S110" s="248"/>
-      <c r="T110" s="248"/>
-      <c r="U110" s="248"/>
-      <c r="V110" s="248"/>
-      <c r="W110" s="248"/>
-      <c r="X110" s="248"/>
-      <c r="Y110" s="248"/>
-      <c r="Z110" s="248"/>
-      <c r="AA110" s="248"/>
-      <c r="AB110" s="248"/>
-      <c r="AC110" s="248"/>
-      <c r="AD110" s="248"/>
-      <c r="AE110" s="248"/>
-      <c r="AF110" s="213"/>
-      <c r="AG110" s="214"/>
-      <c r="AH110" s="215"/>
+      <c r="C110" s="250"/>
+      <c r="D110" s="250"/>
+      <c r="E110" s="250"/>
+      <c r="F110" s="250"/>
+      <c r="G110" s="250"/>
+      <c r="H110" s="250"/>
+      <c r="I110" s="250"/>
+      <c r="J110" s="250"/>
+      <c r="K110" s="250"/>
+      <c r="L110" s="250"/>
+      <c r="M110" s="250"/>
+      <c r="N110" s="250"/>
+      <c r="O110" s="250"/>
+      <c r="P110" s="250"/>
+      <c r="Q110" s="250"/>
+      <c r="R110" s="250"/>
+      <c r="S110" s="250"/>
+      <c r="T110" s="250"/>
+      <c r="U110" s="250"/>
+      <c r="V110" s="250"/>
+      <c r="W110" s="250"/>
+      <c r="X110" s="250"/>
+      <c r="Y110" s="250"/>
+      <c r="Z110" s="250"/>
+      <c r="AA110" s="250"/>
+      <c r="AB110" s="250"/>
+      <c r="AC110" s="250"/>
+      <c r="AD110" s="250"/>
+      <c r="AE110" s="250"/>
+      <c r="AF110" s="251"/>
+      <c r="AG110" s="252"/>
+      <c r="AH110" s="253"/>
     </row>
     <row r="111" spans="2:54" ht="18" x14ac:dyDescent="0.35">
-      <c r="B111" s="249" t="s">
+      <c r="B111" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="250"/>
-      <c r="D111" s="250"/>
-      <c r="E111" s="250"/>
-      <c r="F111" s="250"/>
-      <c r="G111" s="250"/>
-      <c r="H111" s="250"/>
-      <c r="I111" s="250"/>
-      <c r="J111" s="250"/>
-      <c r="K111" s="250"/>
-      <c r="L111" s="250"/>
-      <c r="M111" s="250"/>
-      <c r="N111" s="250"/>
-      <c r="O111" s="250"/>
-      <c r="P111" s="250"/>
-      <c r="Q111" s="250"/>
-      <c r="R111" s="250"/>
-      <c r="S111" s="250"/>
-      <c r="T111" s="250"/>
-      <c r="U111" s="250"/>
-      <c r="V111" s="250"/>
-      <c r="W111" s="250"/>
-      <c r="X111" s="250"/>
-      <c r="Y111" s="250"/>
-      <c r="Z111" s="250"/>
-      <c r="AA111" s="250"/>
-      <c r="AB111" s="250"/>
-      <c r="AC111" s="250"/>
-      <c r="AD111" s="250"/>
-      <c r="AE111" s="250"/>
-      <c r="AF111" s="213"/>
-      <c r="AG111" s="214"/>
-      <c r="AH111" s="215"/>
+      <c r="C111" s="255"/>
+      <c r="D111" s="255"/>
+      <c r="E111" s="255"/>
+      <c r="F111" s="255"/>
+      <c r="G111" s="255"/>
+      <c r="H111" s="255"/>
+      <c r="I111" s="255"/>
+      <c r="J111" s="255"/>
+      <c r="K111" s="255"/>
+      <c r="L111" s="255"/>
+      <c r="M111" s="255"/>
+      <c r="N111" s="255"/>
+      <c r="O111" s="255"/>
+      <c r="P111" s="255"/>
+      <c r="Q111" s="255"/>
+      <c r="R111" s="255"/>
+      <c r="S111" s="255"/>
+      <c r="T111" s="255"/>
+      <c r="U111" s="255"/>
+      <c r="V111" s="255"/>
+      <c r="W111" s="255"/>
+      <c r="X111" s="255"/>
+      <c r="Y111" s="255"/>
+      <c r="Z111" s="255"/>
+      <c r="AA111" s="255"/>
+      <c r="AB111" s="255"/>
+      <c r="AC111" s="255"/>
+      <c r="AD111" s="255"/>
+      <c r="AE111" s="255"/>
+      <c r="AF111" s="251"/>
+      <c r="AG111" s="252"/>
+      <c r="AH111" s="253"/>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B112" s="57"/>
@@ -7822,85 +7844,85 @@
       <c r="AH115" s="5"/>
     </row>
     <row r="116" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B116" s="185" t="s">
+      <c r="B116" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="186"/>
-      <c r="D116" s="186"/>
-      <c r="E116" s="186"/>
-      <c r="F116" s="186"/>
-      <c r="G116" s="186"/>
-      <c r="H116" s="229"/>
-      <c r="I116" s="229"/>
-      <c r="J116" s="229"/>
-      <c r="K116" s="229"/>
-      <c r="L116" s="229"/>
-      <c r="M116" s="229"/>
-      <c r="N116" s="229"/>
-      <c r="O116" s="188" t="s">
+      <c r="C116" s="178"/>
+      <c r="D116" s="178"/>
+      <c r="E116" s="178"/>
+      <c r="F116" s="178"/>
+      <c r="G116" s="178"/>
+      <c r="H116" s="242"/>
+      <c r="I116" s="242"/>
+      <c r="J116" s="242"/>
+      <c r="K116" s="242"/>
+      <c r="L116" s="242"/>
+      <c r="M116" s="242"/>
+      <c r="N116" s="242"/>
+      <c r="O116" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="P116" s="186"/>
-      <c r="Q116" s="186"/>
-      <c r="R116" s="186"/>
-      <c r="S116" s="186"/>
-      <c r="T116" s="186"/>
-      <c r="U116" s="230"/>
-      <c r="V116" s="230"/>
-      <c r="W116" s="230"/>
-      <c r="X116" s="230"/>
-      <c r="Y116" s="230"/>
-      <c r="Z116" s="230"/>
-      <c r="AA116" s="230"/>
-      <c r="AB116" s="230"/>
-      <c r="AC116" s="230"/>
-      <c r="AD116" s="230"/>
-      <c r="AE116" s="230"/>
-      <c r="AF116" s="230"/>
-      <c r="AG116" s="230"/>
-      <c r="AH116" s="231"/>
+      <c r="P116" s="178"/>
+      <c r="Q116" s="178"/>
+      <c r="R116" s="178"/>
+      <c r="S116" s="178"/>
+      <c r="T116" s="178"/>
+      <c r="U116" s="243"/>
+      <c r="V116" s="243"/>
+      <c r="W116" s="243"/>
+      <c r="X116" s="243"/>
+      <c r="Y116" s="243"/>
+      <c r="Z116" s="243"/>
+      <c r="AA116" s="243"/>
+      <c r="AB116" s="243"/>
+      <c r="AC116" s="243"/>
+      <c r="AD116" s="243"/>
+      <c r="AE116" s="243"/>
+      <c r="AF116" s="243"/>
+      <c r="AG116" s="243"/>
+      <c r="AH116" s="244"/>
     </row>
     <row r="117" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B117" s="232" t="s">
+      <c r="B117" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="195"/>
-      <c r="D117" s="195"/>
-      <c r="E117" s="195"/>
-      <c r="F117" s="195"/>
-      <c r="G117" s="233"/>
-      <c r="H117" s="233"/>
-      <c r="I117" s="233"/>
-      <c r="J117" s="233"/>
-      <c r="K117" s="233"/>
-      <c r="L117" s="233"/>
-      <c r="M117" s="233"/>
-      <c r="N117" s="233"/>
-      <c r="O117" s="194" t="s">
+      <c r="C117" s="187"/>
+      <c r="D117" s="187"/>
+      <c r="E117" s="187"/>
+      <c r="F117" s="187"/>
+      <c r="G117" s="246"/>
+      <c r="H117" s="246"/>
+      <c r="I117" s="246"/>
+      <c r="J117" s="246"/>
+      <c r="K117" s="246"/>
+      <c r="L117" s="246"/>
+      <c r="M117" s="246"/>
+      <c r="N117" s="246"/>
+      <c r="O117" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="P117" s="195"/>
-      <c r="Q117" s="195"/>
-      <c r="R117" s="195"/>
-      <c r="S117" s="195"/>
-      <c r="T117" s="195"/>
-      <c r="U117" s="234"/>
-      <c r="V117" s="234"/>
-      <c r="W117" s="234"/>
-      <c r="X117" s="234"/>
-      <c r="Y117" s="234"/>
-      <c r="Z117" s="234"/>
-      <c r="AA117" s="234"/>
-      <c r="AB117" s="234"/>
-      <c r="AC117" s="234"/>
-      <c r="AD117" s="234"/>
-      <c r="AE117" s="234"/>
-      <c r="AF117" s="234"/>
-      <c r="AG117" s="234"/>
-      <c r="AH117" s="235"/>
+      <c r="P117" s="187"/>
+      <c r="Q117" s="187"/>
+      <c r="R117" s="187"/>
+      <c r="S117" s="187"/>
+      <c r="T117" s="187"/>
+      <c r="U117" s="247"/>
+      <c r="V117" s="247"/>
+      <c r="W117" s="247"/>
+      <c r="X117" s="247"/>
+      <c r="Y117" s="247"/>
+      <c r="Z117" s="247"/>
+      <c r="AA117" s="247"/>
+      <c r="AB117" s="247"/>
+      <c r="AC117" s="247"/>
+      <c r="AD117" s="247"/>
+      <c r="AE117" s="247"/>
+      <c r="AF117" s="247"/>
+      <c r="AG117" s="247"/>
+      <c r="AH117" s="248"/>
     </row>
     <row r="118" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B118" s="260" t="s">
+      <c r="B118" s="265" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="166"/>
@@ -7908,13 +7930,13 @@
       <c r="E118" s="166"/>
       <c r="F118" s="166"/>
       <c r="G118" s="166"/>
-      <c r="H118" s="261"/>
-      <c r="I118" s="261"/>
-      <c r="J118" s="261"/>
-      <c r="K118" s="261"/>
-      <c r="L118" s="261"/>
-      <c r="M118" s="261"/>
-      <c r="N118" s="261"/>
+      <c r="H118" s="266"/>
+      <c r="I118" s="266"/>
+      <c r="J118" s="266"/>
+      <c r="K118" s="266"/>
+      <c r="L118" s="266"/>
+      <c r="M118" s="266"/>
+      <c r="N118" s="266"/>
       <c r="O118" s="165" t="s">
         <v>5</v>
       </c>
@@ -7925,18 +7947,18 @@
       <c r="T118" s="166"/>
       <c r="U118" s="166"/>
       <c r="V118" s="166"/>
-      <c r="W118" s="262"/>
-      <c r="X118" s="262"/>
-      <c r="Y118" s="262"/>
-      <c r="Z118" s="262"/>
-      <c r="AA118" s="262"/>
-      <c r="AB118" s="262"/>
-      <c r="AC118" s="262"/>
-      <c r="AD118" s="262"/>
-      <c r="AE118" s="262"/>
-      <c r="AF118" s="262"/>
-      <c r="AG118" s="262"/>
-      <c r="AH118" s="263"/>
+      <c r="W118" s="267"/>
+      <c r="X118" s="267"/>
+      <c r="Y118" s="267"/>
+      <c r="Z118" s="267"/>
+      <c r="AA118" s="267"/>
+      <c r="AB118" s="267"/>
+      <c r="AC118" s="267"/>
+      <c r="AD118" s="267"/>
+      <c r="AE118" s="267"/>
+      <c r="AF118" s="267"/>
+      <c r="AG118" s="267"/>
+      <c r="AH118" s="268"/>
     </row>
     <row r="119" spans="2:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B119" s="1"/>
@@ -7961,54 +7983,54 @@
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
-      <c r="X119" s="181"/>
-      <c r="Y119" s="181"/>
-      <c r="Z119" s="181"/>
-      <c r="AA119" s="181"/>
-      <c r="AB119" s="181"/>
-      <c r="AC119" s="181"/>
-      <c r="AD119" s="181"/>
-      <c r="AE119" s="181"/>
-      <c r="AF119" s="181"/>
-      <c r="AG119" s="181"/>
-      <c r="AH119" s="181"/>
+      <c r="X119" s="200"/>
+      <c r="Y119" s="200"/>
+      <c r="Z119" s="200"/>
+      <c r="AA119" s="200"/>
+      <c r="AB119" s="200"/>
+      <c r="AC119" s="200"/>
+      <c r="AD119" s="200"/>
+      <c r="AE119" s="200"/>
+      <c r="AF119" s="200"/>
+      <c r="AG119" s="200"/>
+      <c r="AH119" s="200"/>
     </row>
     <row r="120" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B120" s="182" t="s">
+      <c r="B120" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="183"/>
-      <c r="D120" s="183"/>
-      <c r="E120" s="183"/>
-      <c r="F120" s="183"/>
-      <c r="G120" s="183"/>
-      <c r="H120" s="183"/>
-      <c r="I120" s="183"/>
-      <c r="J120" s="183"/>
-      <c r="K120" s="183"/>
-      <c r="L120" s="183"/>
-      <c r="M120" s="183"/>
-      <c r="N120" s="183"/>
-      <c r="O120" s="183"/>
-      <c r="P120" s="183"/>
-      <c r="Q120" s="183"/>
-      <c r="R120" s="183"/>
-      <c r="S120" s="183"/>
-      <c r="T120" s="183"/>
-      <c r="U120" s="183"/>
-      <c r="V120" s="183"/>
-      <c r="W120" s="183"/>
-      <c r="X120" s="183"/>
-      <c r="Y120" s="183"/>
-      <c r="Z120" s="183"/>
-      <c r="AA120" s="183"/>
-      <c r="AB120" s="183"/>
-      <c r="AC120" s="183"/>
-      <c r="AD120" s="183"/>
-      <c r="AE120" s="183"/>
-      <c r="AF120" s="183"/>
-      <c r="AG120" s="183"/>
-      <c r="AH120" s="184"/>
+      <c r="C120" s="202"/>
+      <c r="D120" s="202"/>
+      <c r="E120" s="202"/>
+      <c r="F120" s="202"/>
+      <c r="G120" s="202"/>
+      <c r="H120" s="202"/>
+      <c r="I120" s="202"/>
+      <c r="J120" s="202"/>
+      <c r="K120" s="202"/>
+      <c r="L120" s="202"/>
+      <c r="M120" s="202"/>
+      <c r="N120" s="202"/>
+      <c r="O120" s="202"/>
+      <c r="P120" s="202"/>
+      <c r="Q120" s="202"/>
+      <c r="R120" s="202"/>
+      <c r="S120" s="202"/>
+      <c r="T120" s="202"/>
+      <c r="U120" s="202"/>
+      <c r="V120" s="202"/>
+      <c r="W120" s="202"/>
+      <c r="X120" s="202"/>
+      <c r="Y120" s="202"/>
+      <c r="Z120" s="202"/>
+      <c r="AA120" s="202"/>
+      <c r="AB120" s="202"/>
+      <c r="AC120" s="202"/>
+      <c r="AD120" s="202"/>
+      <c r="AE120" s="202"/>
+      <c r="AF120" s="202"/>
+      <c r="AG120" s="202"/>
+      <c r="AH120" s="203"/>
     </row>
     <row r="121" spans="2:34" x14ac:dyDescent="0.35">
       <c r="B121" s="1"/>
@@ -8046,1496 +8068,1493 @@
       <c r="AH121" s="1"/>
     </row>
     <row r="122" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B122" s="177"/>
-      <c r="C122" s="177"/>
-      <c r="D122" s="177"/>
-      <c r="E122" s="177"/>
-      <c r="F122" s="177"/>
-      <c r="G122" s="177"/>
-      <c r="H122" s="177"/>
-      <c r="I122" s="177"/>
-      <c r="J122" s="177"/>
-      <c r="K122" s="177"/>
-      <c r="L122" s="177"/>
-      <c r="M122" s="177"/>
-      <c r="N122" s="177"/>
-      <c r="O122" s="177"/>
-      <c r="P122" s="177"/>
-      <c r="Q122" s="177"/>
-      <c r="R122" s="177"/>
-      <c r="S122" s="177"/>
-      <c r="T122" s="177"/>
-      <c r="U122" s="177"/>
-      <c r="V122" s="177"/>
-      <c r="W122" s="177"/>
-      <c r="X122" s="177"/>
-      <c r="Y122" s="177"/>
-      <c r="Z122" s="177"/>
-      <c r="AA122" s="177"/>
-      <c r="AB122" s="177"/>
-      <c r="AC122" s="177"/>
-      <c r="AD122" s="177"/>
-      <c r="AE122" s="177"/>
-      <c r="AF122" s="177"/>
-      <c r="AG122" s="177"/>
-      <c r="AH122" s="177"/>
+      <c r="B122" s="190"/>
+      <c r="C122" s="190"/>
+      <c r="D122" s="190"/>
+      <c r="E122" s="190"/>
+      <c r="F122" s="190"/>
+      <c r="G122" s="190"/>
+      <c r="H122" s="190"/>
+      <c r="I122" s="190"/>
+      <c r="J122" s="190"/>
+      <c r="K122" s="190"/>
+      <c r="L122" s="190"/>
+      <c r="M122" s="190"/>
+      <c r="N122" s="190"/>
+      <c r="O122" s="190"/>
+      <c r="P122" s="190"/>
+      <c r="Q122" s="190"/>
+      <c r="R122" s="190"/>
+      <c r="S122" s="190"/>
+      <c r="T122" s="190"/>
+      <c r="U122" s="190"/>
+      <c r="V122" s="190"/>
+      <c r="W122" s="190"/>
+      <c r="X122" s="190"/>
+      <c r="Y122" s="190"/>
+      <c r="Z122" s="190"/>
+      <c r="AA122" s="190"/>
+      <c r="AB122" s="190"/>
+      <c r="AC122" s="190"/>
+      <c r="AD122" s="190"/>
+      <c r="AE122" s="190"/>
+      <c r="AF122" s="190"/>
+      <c r="AG122" s="190"/>
+      <c r="AH122" s="190"/>
     </row>
     <row r="123" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B123" s="178" t="s">
+      <c r="B123" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="179"/>
-      <c r="D123" s="179"/>
-      <c r="E123" s="179"/>
-      <c r="F123" s="179"/>
-      <c r="G123" s="179"/>
-      <c r="H123" s="179"/>
-      <c r="I123" s="179"/>
-      <c r="J123" s="179"/>
-      <c r="K123" s="179"/>
-      <c r="L123" s="179"/>
-      <c r="M123" s="179"/>
-      <c r="N123" s="179"/>
-      <c r="O123" s="179"/>
-      <c r="P123" s="179"/>
-      <c r="Q123" s="179"/>
-      <c r="R123" s="180"/>
-      <c r="S123" s="178" t="s">
+      <c r="C123" s="198"/>
+      <c r="D123" s="198"/>
+      <c r="E123" s="198"/>
+      <c r="F123" s="198"/>
+      <c r="G123" s="198"/>
+      <c r="H123" s="198"/>
+      <c r="I123" s="198"/>
+      <c r="J123" s="198"/>
+      <c r="K123" s="198"/>
+      <c r="L123" s="198"/>
+      <c r="M123" s="198"/>
+      <c r="N123" s="198"/>
+      <c r="O123" s="198"/>
+      <c r="P123" s="198"/>
+      <c r="Q123" s="198"/>
+      <c r="R123" s="199"/>
+      <c r="S123" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="T123" s="179"/>
-      <c r="U123" s="179"/>
-      <c r="V123" s="179"/>
-      <c r="W123" s="179"/>
-      <c r="X123" s="179"/>
-      <c r="Y123" s="179"/>
-      <c r="Z123" s="179"/>
-      <c r="AA123" s="179"/>
-      <c r="AB123" s="179"/>
-      <c r="AC123" s="179"/>
-      <c r="AD123" s="179"/>
-      <c r="AE123" s="179"/>
-      <c r="AF123" s="179"/>
-      <c r="AG123" s="179"/>
-      <c r="AH123" s="180"/>
+      <c r="T123" s="198"/>
+      <c r="U123" s="198"/>
+      <c r="V123" s="198"/>
+      <c r="W123" s="198"/>
+      <c r="X123" s="198"/>
+      <c r="Y123" s="198"/>
+      <c r="Z123" s="198"/>
+      <c r="AA123" s="198"/>
+      <c r="AB123" s="198"/>
+      <c r="AC123" s="198"/>
+      <c r="AD123" s="198"/>
+      <c r="AE123" s="198"/>
+      <c r="AF123" s="198"/>
+      <c r="AG123" s="198"/>
+      <c r="AH123" s="199"/>
     </row>
     <row r="124" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B124" s="198"/>
-      <c r="C124" s="199"/>
-      <c r="D124" s="199"/>
-      <c r="E124" s="199"/>
-      <c r="F124" s="199"/>
-      <c r="G124" s="199"/>
-      <c r="H124" s="199"/>
-      <c r="I124" s="199"/>
-      <c r="J124" s="199"/>
-      <c r="K124" s="199"/>
-      <c r="L124" s="199"/>
-      <c r="M124" s="199"/>
-      <c r="N124" s="199"/>
-      <c r="O124" s="199"/>
-      <c r="P124" s="199"/>
-      <c r="Q124" s="199"/>
-      <c r="R124" s="200"/>
-      <c r="S124" s="198"/>
-      <c r="T124" s="199"/>
-      <c r="U124" s="199"/>
-      <c r="V124" s="199"/>
-      <c r="W124" s="199"/>
-      <c r="X124" s="199"/>
-      <c r="Y124" s="199"/>
-      <c r="Z124" s="199"/>
-      <c r="AA124" s="199"/>
-      <c r="AB124" s="199"/>
-      <c r="AC124" s="199"/>
-      <c r="AD124" s="199"/>
-      <c r="AE124" s="199"/>
-      <c r="AF124" s="199"/>
-      <c r="AG124" s="199"/>
-      <c r="AH124" s="200"/>
+      <c r="B124" s="204"/>
+      <c r="C124" s="205"/>
+      <c r="D124" s="205"/>
+      <c r="E124" s="205"/>
+      <c r="F124" s="205"/>
+      <c r="G124" s="205"/>
+      <c r="H124" s="205"/>
+      <c r="I124" s="205"/>
+      <c r="J124" s="205"/>
+      <c r="K124" s="205"/>
+      <c r="L124" s="205"/>
+      <c r="M124" s="205"/>
+      <c r="N124" s="205"/>
+      <c r="O124" s="205"/>
+      <c r="P124" s="205"/>
+      <c r="Q124" s="205"/>
+      <c r="R124" s="206"/>
+      <c r="S124" s="204"/>
+      <c r="T124" s="205"/>
+      <c r="U124" s="205"/>
+      <c r="V124" s="205"/>
+      <c r="W124" s="205"/>
+      <c r="X124" s="205"/>
+      <c r="Y124" s="205"/>
+      <c r="Z124" s="205"/>
+      <c r="AA124" s="205"/>
+      <c r="AB124" s="205"/>
+      <c r="AC124" s="205"/>
+      <c r="AD124" s="205"/>
+      <c r="AE124" s="205"/>
+      <c r="AF124" s="205"/>
+      <c r="AG124" s="205"/>
+      <c r="AH124" s="206"/>
     </row>
     <row r="125" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B125" s="201"/>
-      <c r="C125" s="202"/>
-      <c r="D125" s="202"/>
-      <c r="E125" s="202"/>
-      <c r="F125" s="202"/>
-      <c r="G125" s="202"/>
-      <c r="H125" s="202"/>
-      <c r="I125" s="202"/>
-      <c r="J125" s="202"/>
-      <c r="K125" s="202"/>
-      <c r="L125" s="202"/>
-      <c r="M125" s="202"/>
-      <c r="N125" s="202"/>
-      <c r="O125" s="202"/>
-      <c r="P125" s="202"/>
-      <c r="Q125" s="202"/>
-      <c r="R125" s="203"/>
-      <c r="S125" s="201"/>
-      <c r="T125" s="202"/>
-      <c r="U125" s="202"/>
-      <c r="V125" s="202"/>
-      <c r="W125" s="202"/>
-      <c r="X125" s="202"/>
-      <c r="Y125" s="202"/>
-      <c r="Z125" s="202"/>
-      <c r="AA125" s="202"/>
-      <c r="AB125" s="202"/>
-      <c r="AC125" s="202"/>
-      <c r="AD125" s="202"/>
-      <c r="AE125" s="202"/>
-      <c r="AF125" s="202"/>
-      <c r="AG125" s="202"/>
-      <c r="AH125" s="203"/>
+      <c r="B125" s="207"/>
+      <c r="C125" s="208"/>
+      <c r="D125" s="208"/>
+      <c r="E125" s="208"/>
+      <c r="F125" s="208"/>
+      <c r="G125" s="208"/>
+      <c r="H125" s="208"/>
+      <c r="I125" s="208"/>
+      <c r="J125" s="208"/>
+      <c r="K125" s="208"/>
+      <c r="L125" s="208"/>
+      <c r="M125" s="208"/>
+      <c r="N125" s="208"/>
+      <c r="O125" s="208"/>
+      <c r="P125" s="208"/>
+      <c r="Q125" s="208"/>
+      <c r="R125" s="209"/>
+      <c r="S125" s="207"/>
+      <c r="T125" s="208"/>
+      <c r="U125" s="208"/>
+      <c r="V125" s="208"/>
+      <c r="W125" s="208"/>
+      <c r="X125" s="208"/>
+      <c r="Y125" s="208"/>
+      <c r="Z125" s="208"/>
+      <c r="AA125" s="208"/>
+      <c r="AB125" s="208"/>
+      <c r="AC125" s="208"/>
+      <c r="AD125" s="208"/>
+      <c r="AE125" s="208"/>
+      <c r="AF125" s="208"/>
+      <c r="AG125" s="208"/>
+      <c r="AH125" s="209"/>
     </row>
     <row r="126" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B126" s="201"/>
-      <c r="C126" s="202"/>
-      <c r="D126" s="202"/>
-      <c r="E126" s="202"/>
-      <c r="F126" s="202"/>
-      <c r="G126" s="202"/>
-      <c r="H126" s="202"/>
-      <c r="I126" s="202"/>
-      <c r="J126" s="202"/>
-      <c r="K126" s="202"/>
-      <c r="L126" s="202"/>
-      <c r="M126" s="202"/>
-      <c r="N126" s="202"/>
-      <c r="O126" s="202"/>
-      <c r="P126" s="202"/>
-      <c r="Q126" s="202"/>
-      <c r="R126" s="203"/>
-      <c r="S126" s="201"/>
-      <c r="T126" s="202"/>
-      <c r="U126" s="202"/>
-      <c r="V126" s="202"/>
-      <c r="W126" s="202"/>
-      <c r="X126" s="202"/>
-      <c r="Y126" s="202"/>
-      <c r="Z126" s="202"/>
-      <c r="AA126" s="202"/>
-      <c r="AB126" s="202"/>
-      <c r="AC126" s="202"/>
-      <c r="AD126" s="202"/>
-      <c r="AE126" s="202"/>
-      <c r="AF126" s="202"/>
-      <c r="AG126" s="202"/>
-      <c r="AH126" s="203"/>
+      <c r="B126" s="207"/>
+      <c r="C126" s="208"/>
+      <c r="D126" s="208"/>
+      <c r="E126" s="208"/>
+      <c r="F126" s="208"/>
+      <c r="G126" s="208"/>
+      <c r="H126" s="208"/>
+      <c r="I126" s="208"/>
+      <c r="J126" s="208"/>
+      <c r="K126" s="208"/>
+      <c r="L126" s="208"/>
+      <c r="M126" s="208"/>
+      <c r="N126" s="208"/>
+      <c r="O126" s="208"/>
+      <c r="P126" s="208"/>
+      <c r="Q126" s="208"/>
+      <c r="R126" s="209"/>
+      <c r="S126" s="207"/>
+      <c r="T126" s="208"/>
+      <c r="U126" s="208"/>
+      <c r="V126" s="208"/>
+      <c r="W126" s="208"/>
+      <c r="X126" s="208"/>
+      <c r="Y126" s="208"/>
+      <c r="Z126" s="208"/>
+      <c r="AA126" s="208"/>
+      <c r="AB126" s="208"/>
+      <c r="AC126" s="208"/>
+      <c r="AD126" s="208"/>
+      <c r="AE126" s="208"/>
+      <c r="AF126" s="208"/>
+      <c r="AG126" s="208"/>
+      <c r="AH126" s="209"/>
     </row>
     <row r="127" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B127" s="201"/>
-      <c r="C127" s="202"/>
-      <c r="D127" s="202"/>
-      <c r="E127" s="202"/>
-      <c r="F127" s="202"/>
-      <c r="G127" s="202"/>
-      <c r="H127" s="202"/>
-      <c r="I127" s="202"/>
-      <c r="J127" s="202"/>
-      <c r="K127" s="202"/>
-      <c r="L127" s="202"/>
-      <c r="M127" s="202"/>
-      <c r="N127" s="202"/>
-      <c r="O127" s="202"/>
-      <c r="P127" s="202"/>
-      <c r="Q127" s="202"/>
-      <c r="R127" s="203"/>
-      <c r="S127" s="201"/>
-      <c r="T127" s="202"/>
-      <c r="U127" s="202"/>
-      <c r="V127" s="202"/>
-      <c r="W127" s="202"/>
-      <c r="X127" s="202"/>
-      <c r="Y127" s="202"/>
-      <c r="Z127" s="202"/>
-      <c r="AA127" s="202"/>
-      <c r="AB127" s="202"/>
-      <c r="AC127" s="202"/>
-      <c r="AD127" s="202"/>
-      <c r="AE127" s="202"/>
-      <c r="AF127" s="202"/>
-      <c r="AG127" s="202"/>
-      <c r="AH127" s="203"/>
+      <c r="B127" s="207"/>
+      <c r="C127" s="208"/>
+      <c r="D127" s="208"/>
+      <c r="E127" s="208"/>
+      <c r="F127" s="208"/>
+      <c r="G127" s="208"/>
+      <c r="H127" s="208"/>
+      <c r="I127" s="208"/>
+      <c r="J127" s="208"/>
+      <c r="K127" s="208"/>
+      <c r="L127" s="208"/>
+      <c r="M127" s="208"/>
+      <c r="N127" s="208"/>
+      <c r="O127" s="208"/>
+      <c r="P127" s="208"/>
+      <c r="Q127" s="208"/>
+      <c r="R127" s="209"/>
+      <c r="S127" s="207"/>
+      <c r="T127" s="208"/>
+      <c r="U127" s="208"/>
+      <c r="V127" s="208"/>
+      <c r="W127" s="208"/>
+      <c r="X127" s="208"/>
+      <c r="Y127" s="208"/>
+      <c r="Z127" s="208"/>
+      <c r="AA127" s="208"/>
+      <c r="AB127" s="208"/>
+      <c r="AC127" s="208"/>
+      <c r="AD127" s="208"/>
+      <c r="AE127" s="208"/>
+      <c r="AF127" s="208"/>
+      <c r="AG127" s="208"/>
+      <c r="AH127" s="209"/>
     </row>
     <row r="128" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B128" s="201"/>
-      <c r="C128" s="202"/>
-      <c r="D128" s="202"/>
-      <c r="E128" s="202"/>
-      <c r="F128" s="202"/>
-      <c r="G128" s="202"/>
-      <c r="H128" s="202"/>
-      <c r="I128" s="202"/>
-      <c r="J128" s="202"/>
-      <c r="K128" s="202"/>
-      <c r="L128" s="202"/>
-      <c r="M128" s="202"/>
-      <c r="N128" s="202"/>
-      <c r="O128" s="202"/>
-      <c r="P128" s="202"/>
-      <c r="Q128" s="202"/>
-      <c r="R128" s="203"/>
-      <c r="S128" s="201"/>
-      <c r="T128" s="202"/>
-      <c r="U128" s="202"/>
-      <c r="V128" s="202"/>
-      <c r="W128" s="202"/>
-      <c r="X128" s="202"/>
-      <c r="Y128" s="202"/>
-      <c r="Z128" s="202"/>
-      <c r="AA128" s="202"/>
-      <c r="AB128" s="202"/>
-      <c r="AC128" s="202"/>
-      <c r="AD128" s="202"/>
-      <c r="AE128" s="202"/>
-      <c r="AF128" s="202"/>
-      <c r="AG128" s="202"/>
-      <c r="AH128" s="203"/>
+      <c r="B128" s="207"/>
+      <c r="C128" s="208"/>
+      <c r="D128" s="208"/>
+      <c r="E128" s="208"/>
+      <c r="F128" s="208"/>
+      <c r="G128" s="208"/>
+      <c r="H128" s="208"/>
+      <c r="I128" s="208"/>
+      <c r="J128" s="208"/>
+      <c r="K128" s="208"/>
+      <c r="L128" s="208"/>
+      <c r="M128" s="208"/>
+      <c r="N128" s="208"/>
+      <c r="O128" s="208"/>
+      <c r="P128" s="208"/>
+      <c r="Q128" s="208"/>
+      <c r="R128" s="209"/>
+      <c r="S128" s="207"/>
+      <c r="T128" s="208"/>
+      <c r="U128" s="208"/>
+      <c r="V128" s="208"/>
+      <c r="W128" s="208"/>
+      <c r="X128" s="208"/>
+      <c r="Y128" s="208"/>
+      <c r="Z128" s="208"/>
+      <c r="AA128" s="208"/>
+      <c r="AB128" s="208"/>
+      <c r="AC128" s="208"/>
+      <c r="AD128" s="208"/>
+      <c r="AE128" s="208"/>
+      <c r="AF128" s="208"/>
+      <c r="AG128" s="208"/>
+      <c r="AH128" s="209"/>
     </row>
     <row r="129" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B129" s="201"/>
-      <c r="C129" s="202"/>
-      <c r="D129" s="202"/>
-      <c r="E129" s="202"/>
-      <c r="F129" s="202"/>
-      <c r="G129" s="202"/>
-      <c r="H129" s="202"/>
-      <c r="I129" s="202"/>
-      <c r="J129" s="202"/>
-      <c r="K129" s="202"/>
-      <c r="L129" s="202"/>
-      <c r="M129" s="202"/>
-      <c r="N129" s="202"/>
-      <c r="O129" s="202"/>
-      <c r="P129" s="202"/>
-      <c r="Q129" s="202"/>
-      <c r="R129" s="203"/>
-      <c r="S129" s="201"/>
-      <c r="T129" s="202"/>
-      <c r="U129" s="202"/>
-      <c r="V129" s="202"/>
-      <c r="W129" s="202"/>
-      <c r="X129" s="202"/>
-      <c r="Y129" s="202"/>
-      <c r="Z129" s="202"/>
-      <c r="AA129" s="202"/>
-      <c r="AB129" s="202"/>
-      <c r="AC129" s="202"/>
-      <c r="AD129" s="202"/>
-      <c r="AE129" s="202"/>
-      <c r="AF129" s="202"/>
-      <c r="AG129" s="202"/>
-      <c r="AH129" s="203"/>
+      <c r="B129" s="207"/>
+      <c r="C129" s="208"/>
+      <c r="D129" s="208"/>
+      <c r="E129" s="208"/>
+      <c r="F129" s="208"/>
+      <c r="G129" s="208"/>
+      <c r="H129" s="208"/>
+      <c r="I129" s="208"/>
+      <c r="J129" s="208"/>
+      <c r="K129" s="208"/>
+      <c r="L129" s="208"/>
+      <c r="M129" s="208"/>
+      <c r="N129" s="208"/>
+      <c r="O129" s="208"/>
+      <c r="P129" s="208"/>
+      <c r="Q129" s="208"/>
+      <c r="R129" s="209"/>
+      <c r="S129" s="207"/>
+      <c r="T129" s="208"/>
+      <c r="U129" s="208"/>
+      <c r="V129" s="208"/>
+      <c r="W129" s="208"/>
+      <c r="X129" s="208"/>
+      <c r="Y129" s="208"/>
+      <c r="Z129" s="208"/>
+      <c r="AA129" s="208"/>
+      <c r="AB129" s="208"/>
+      <c r="AC129" s="208"/>
+      <c r="AD129" s="208"/>
+      <c r="AE129" s="208"/>
+      <c r="AF129" s="208"/>
+      <c r="AG129" s="208"/>
+      <c r="AH129" s="209"/>
     </row>
     <row r="130" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B130" s="201"/>
-      <c r="C130" s="202"/>
-      <c r="D130" s="202"/>
-      <c r="E130" s="202"/>
-      <c r="F130" s="202"/>
-      <c r="G130" s="202"/>
-      <c r="H130" s="202"/>
-      <c r="I130" s="202"/>
-      <c r="J130" s="202"/>
-      <c r="K130" s="202"/>
-      <c r="L130" s="202"/>
-      <c r="M130" s="202"/>
-      <c r="N130" s="202"/>
-      <c r="O130" s="202"/>
-      <c r="P130" s="202"/>
-      <c r="Q130" s="202"/>
-      <c r="R130" s="203"/>
-      <c r="S130" s="201"/>
-      <c r="T130" s="202"/>
-      <c r="U130" s="202"/>
-      <c r="V130" s="202"/>
-      <c r="W130" s="202"/>
-      <c r="X130" s="202"/>
-      <c r="Y130" s="202"/>
-      <c r="Z130" s="202"/>
-      <c r="AA130" s="202"/>
-      <c r="AB130" s="202"/>
-      <c r="AC130" s="202"/>
-      <c r="AD130" s="202"/>
-      <c r="AE130" s="202"/>
-      <c r="AF130" s="202"/>
-      <c r="AG130" s="202"/>
-      <c r="AH130" s="203"/>
+      <c r="B130" s="207"/>
+      <c r="C130" s="208"/>
+      <c r="D130" s="208"/>
+      <c r="E130" s="208"/>
+      <c r="F130" s="208"/>
+      <c r="G130" s="208"/>
+      <c r="H130" s="208"/>
+      <c r="I130" s="208"/>
+      <c r="J130" s="208"/>
+      <c r="K130" s="208"/>
+      <c r="L130" s="208"/>
+      <c r="M130" s="208"/>
+      <c r="N130" s="208"/>
+      <c r="O130" s="208"/>
+      <c r="P130" s="208"/>
+      <c r="Q130" s="208"/>
+      <c r="R130" s="209"/>
+      <c r="S130" s="207"/>
+      <c r="T130" s="208"/>
+      <c r="U130" s="208"/>
+      <c r="V130" s="208"/>
+      <c r="W130" s="208"/>
+      <c r="X130" s="208"/>
+      <c r="Y130" s="208"/>
+      <c r="Z130" s="208"/>
+      <c r="AA130" s="208"/>
+      <c r="AB130" s="208"/>
+      <c r="AC130" s="208"/>
+      <c r="AD130" s="208"/>
+      <c r="AE130" s="208"/>
+      <c r="AF130" s="208"/>
+      <c r="AG130" s="208"/>
+      <c r="AH130" s="209"/>
     </row>
     <row r="131" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B131" s="201"/>
-      <c r="C131" s="202"/>
-      <c r="D131" s="202"/>
-      <c r="E131" s="202"/>
-      <c r="F131" s="202"/>
-      <c r="G131" s="202"/>
-      <c r="H131" s="202"/>
-      <c r="I131" s="202"/>
-      <c r="J131" s="202"/>
-      <c r="K131" s="202"/>
-      <c r="L131" s="202"/>
-      <c r="M131" s="202"/>
-      <c r="N131" s="202"/>
-      <c r="O131" s="202"/>
-      <c r="P131" s="202"/>
-      <c r="Q131" s="202"/>
-      <c r="R131" s="203"/>
-      <c r="S131" s="201"/>
-      <c r="T131" s="202"/>
-      <c r="U131" s="202"/>
-      <c r="V131" s="202"/>
-      <c r="W131" s="202"/>
-      <c r="X131" s="202"/>
-      <c r="Y131" s="202"/>
-      <c r="Z131" s="202"/>
-      <c r="AA131" s="202"/>
-      <c r="AB131" s="202"/>
-      <c r="AC131" s="202"/>
-      <c r="AD131" s="202"/>
-      <c r="AE131" s="202"/>
-      <c r="AF131" s="202"/>
-      <c r="AG131" s="202"/>
-      <c r="AH131" s="203"/>
+      <c r="B131" s="207"/>
+      <c r="C131" s="208"/>
+      <c r="D131" s="208"/>
+      <c r="E131" s="208"/>
+      <c r="F131" s="208"/>
+      <c r="G131" s="208"/>
+      <c r="H131" s="208"/>
+      <c r="I131" s="208"/>
+      <c r="J131" s="208"/>
+      <c r="K131" s="208"/>
+      <c r="L131" s="208"/>
+      <c r="M131" s="208"/>
+      <c r="N131" s="208"/>
+      <c r="O131" s="208"/>
+      <c r="P131" s="208"/>
+      <c r="Q131" s="208"/>
+      <c r="R131" s="209"/>
+      <c r="S131" s="207"/>
+      <c r="T131" s="208"/>
+      <c r="U131" s="208"/>
+      <c r="V131" s="208"/>
+      <c r="W131" s="208"/>
+      <c r="X131" s="208"/>
+      <c r="Y131" s="208"/>
+      <c r="Z131" s="208"/>
+      <c r="AA131" s="208"/>
+      <c r="AB131" s="208"/>
+      <c r="AC131" s="208"/>
+      <c r="AD131" s="208"/>
+      <c r="AE131" s="208"/>
+      <c r="AF131" s="208"/>
+      <c r="AG131" s="208"/>
+      <c r="AH131" s="209"/>
     </row>
     <row r="132" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B132" s="204"/>
-      <c r="C132" s="205"/>
-      <c r="D132" s="205"/>
-      <c r="E132" s="205"/>
-      <c r="F132" s="205"/>
-      <c r="G132" s="205"/>
-      <c r="H132" s="205"/>
-      <c r="I132" s="205"/>
-      <c r="J132" s="205"/>
-      <c r="K132" s="205"/>
-      <c r="L132" s="205"/>
-      <c r="M132" s="205"/>
-      <c r="N132" s="205"/>
-      <c r="O132" s="205"/>
-      <c r="P132" s="205"/>
-      <c r="Q132" s="205"/>
-      <c r="R132" s="206"/>
-      <c r="S132" s="204"/>
-      <c r="T132" s="205"/>
-      <c r="U132" s="205"/>
-      <c r="V132" s="205"/>
-      <c r="W132" s="205"/>
-      <c r="X132" s="205"/>
-      <c r="Y132" s="205"/>
-      <c r="Z132" s="205"/>
-      <c r="AA132" s="205"/>
-      <c r="AB132" s="205"/>
-      <c r="AC132" s="205"/>
-      <c r="AD132" s="205"/>
-      <c r="AE132" s="205"/>
-      <c r="AF132" s="205"/>
-      <c r="AG132" s="205"/>
-      <c r="AH132" s="206"/>
+      <c r="B132" s="210"/>
+      <c r="C132" s="211"/>
+      <c r="D132" s="211"/>
+      <c r="E132" s="211"/>
+      <c r="F132" s="211"/>
+      <c r="G132" s="211"/>
+      <c r="H132" s="211"/>
+      <c r="I132" s="211"/>
+      <c r="J132" s="211"/>
+      <c r="K132" s="211"/>
+      <c r="L132" s="211"/>
+      <c r="M132" s="211"/>
+      <c r="N132" s="211"/>
+      <c r="O132" s="211"/>
+      <c r="P132" s="211"/>
+      <c r="Q132" s="211"/>
+      <c r="R132" s="212"/>
+      <c r="S132" s="210"/>
+      <c r="T132" s="211"/>
+      <c r="U132" s="211"/>
+      <c r="V132" s="211"/>
+      <c r="W132" s="211"/>
+      <c r="X132" s="211"/>
+      <c r="Y132" s="211"/>
+      <c r="Z132" s="211"/>
+      <c r="AA132" s="211"/>
+      <c r="AB132" s="211"/>
+      <c r="AC132" s="211"/>
+      <c r="AD132" s="211"/>
+      <c r="AE132" s="211"/>
+      <c r="AF132" s="211"/>
+      <c r="AG132" s="211"/>
+      <c r="AH132" s="212"/>
     </row>
     <row r="133" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B133" s="177"/>
-      <c r="C133" s="177"/>
-      <c r="D133" s="177"/>
-      <c r="E133" s="177"/>
-      <c r="F133" s="177"/>
-      <c r="G133" s="177"/>
-      <c r="H133" s="177"/>
-      <c r="I133" s="177"/>
-      <c r="J133" s="177"/>
-      <c r="K133" s="177"/>
-      <c r="L133" s="177"/>
-      <c r="M133" s="177"/>
-      <c r="N133" s="177"/>
-      <c r="O133" s="177"/>
-      <c r="P133" s="177"/>
-      <c r="Q133" s="177"/>
-      <c r="R133" s="177"/>
-      <c r="S133" s="177"/>
-      <c r="T133" s="177"/>
-      <c r="U133" s="177"/>
-      <c r="V133" s="177"/>
-      <c r="W133" s="177"/>
-      <c r="X133" s="177"/>
-      <c r="Y133" s="177"/>
-      <c r="Z133" s="177"/>
-      <c r="AA133" s="177"/>
-      <c r="AB133" s="177"/>
-      <c r="AC133" s="177"/>
-      <c r="AD133" s="177"/>
-      <c r="AE133" s="177"/>
-      <c r="AF133" s="177"/>
-      <c r="AG133" s="177"/>
-      <c r="AH133" s="177"/>
+      <c r="B133" s="190"/>
+      <c r="C133" s="190"/>
+      <c r="D133" s="190"/>
+      <c r="E133" s="190"/>
+      <c r="F133" s="190"/>
+      <c r="G133" s="190"/>
+      <c r="H133" s="190"/>
+      <c r="I133" s="190"/>
+      <c r="J133" s="190"/>
+      <c r="K133" s="190"/>
+      <c r="L133" s="190"/>
+      <c r="M133" s="190"/>
+      <c r="N133" s="190"/>
+      <c r="O133" s="190"/>
+      <c r="P133" s="190"/>
+      <c r="Q133" s="190"/>
+      <c r="R133" s="190"/>
+      <c r="S133" s="190"/>
+      <c r="T133" s="190"/>
+      <c r="U133" s="190"/>
+      <c r="V133" s="190"/>
+      <c r="W133" s="190"/>
+      <c r="X133" s="190"/>
+      <c r="Y133" s="190"/>
+      <c r="Z133" s="190"/>
+      <c r="AA133" s="190"/>
+      <c r="AB133" s="190"/>
+      <c r="AC133" s="190"/>
+      <c r="AD133" s="190"/>
+      <c r="AE133" s="190"/>
+      <c r="AF133" s="190"/>
+      <c r="AG133" s="190"/>
+      <c r="AH133" s="190"/>
     </row>
     <row r="134" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B134" s="178" t="s">
+      <c r="B134" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="179"/>
-      <c r="D134" s="179"/>
-      <c r="E134" s="179"/>
-      <c r="F134" s="179"/>
-      <c r="G134" s="179"/>
-      <c r="H134" s="179"/>
-      <c r="I134" s="179"/>
-      <c r="J134" s="179"/>
-      <c r="K134" s="179"/>
-      <c r="L134" s="179"/>
-      <c r="M134" s="179"/>
-      <c r="N134" s="179"/>
-      <c r="O134" s="179"/>
-      <c r="P134" s="179"/>
-      <c r="Q134" s="179"/>
-      <c r="R134" s="180"/>
-      <c r="S134" s="178" t="s">
+      <c r="C134" s="198"/>
+      <c r="D134" s="198"/>
+      <c r="E134" s="198"/>
+      <c r="F134" s="198"/>
+      <c r="G134" s="198"/>
+      <c r="H134" s="198"/>
+      <c r="I134" s="198"/>
+      <c r="J134" s="198"/>
+      <c r="K134" s="198"/>
+      <c r="L134" s="198"/>
+      <c r="M134" s="198"/>
+      <c r="N134" s="198"/>
+      <c r="O134" s="198"/>
+      <c r="P134" s="198"/>
+      <c r="Q134" s="198"/>
+      <c r="R134" s="199"/>
+      <c r="S134" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="T134" s="179"/>
-      <c r="U134" s="179"/>
-      <c r="V134" s="179"/>
-      <c r="W134" s="179"/>
-      <c r="X134" s="179"/>
-      <c r="Y134" s="179"/>
-      <c r="Z134" s="179"/>
-      <c r="AA134" s="179"/>
-      <c r="AB134" s="179"/>
-      <c r="AC134" s="179"/>
-      <c r="AD134" s="179"/>
-      <c r="AE134" s="179"/>
-      <c r="AF134" s="179"/>
-      <c r="AG134" s="179"/>
-      <c r="AH134" s="180"/>
+      <c r="T134" s="198"/>
+      <c r="U134" s="198"/>
+      <c r="V134" s="198"/>
+      <c r="W134" s="198"/>
+      <c r="X134" s="198"/>
+      <c r="Y134" s="198"/>
+      <c r="Z134" s="198"/>
+      <c r="AA134" s="198"/>
+      <c r="AB134" s="198"/>
+      <c r="AC134" s="198"/>
+      <c r="AD134" s="198"/>
+      <c r="AE134" s="198"/>
+      <c r="AF134" s="198"/>
+      <c r="AG134" s="198"/>
+      <c r="AH134" s="199"/>
     </row>
     <row r="135" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B135" s="198"/>
-      <c r="C135" s="199"/>
-      <c r="D135" s="199"/>
-      <c r="E135" s="199"/>
-      <c r="F135" s="199"/>
-      <c r="G135" s="199"/>
-      <c r="H135" s="199"/>
-      <c r="I135" s="199"/>
-      <c r="J135" s="199"/>
-      <c r="K135" s="199"/>
-      <c r="L135" s="199"/>
-      <c r="M135" s="199"/>
-      <c r="N135" s="199"/>
-      <c r="O135" s="199"/>
-      <c r="P135" s="199"/>
-      <c r="Q135" s="199"/>
-      <c r="R135" s="200"/>
-      <c r="S135" s="198"/>
-      <c r="T135" s="199"/>
-      <c r="U135" s="199"/>
-      <c r="V135" s="199"/>
-      <c r="W135" s="199"/>
-      <c r="X135" s="199"/>
-      <c r="Y135" s="199"/>
-      <c r="Z135" s="199"/>
-      <c r="AA135" s="199"/>
-      <c r="AB135" s="199"/>
-      <c r="AC135" s="199"/>
-      <c r="AD135" s="199"/>
-      <c r="AE135" s="199"/>
-      <c r="AF135" s="199"/>
-      <c r="AG135" s="199"/>
-      <c r="AH135" s="200"/>
+      <c r="B135" s="204"/>
+      <c r="C135" s="205"/>
+      <c r="D135" s="205"/>
+      <c r="E135" s="205"/>
+      <c r="F135" s="205"/>
+      <c r="G135" s="205"/>
+      <c r="H135" s="205"/>
+      <c r="I135" s="205"/>
+      <c r="J135" s="205"/>
+      <c r="K135" s="205"/>
+      <c r="L135" s="205"/>
+      <c r="M135" s="205"/>
+      <c r="N135" s="205"/>
+      <c r="O135" s="205"/>
+      <c r="P135" s="205"/>
+      <c r="Q135" s="205"/>
+      <c r="R135" s="206"/>
+      <c r="S135" s="204"/>
+      <c r="T135" s="205"/>
+      <c r="U135" s="205"/>
+      <c r="V135" s="205"/>
+      <c r="W135" s="205"/>
+      <c r="X135" s="205"/>
+      <c r="Y135" s="205"/>
+      <c r="Z135" s="205"/>
+      <c r="AA135" s="205"/>
+      <c r="AB135" s="205"/>
+      <c r="AC135" s="205"/>
+      <c r="AD135" s="205"/>
+      <c r="AE135" s="205"/>
+      <c r="AF135" s="205"/>
+      <c r="AG135" s="205"/>
+      <c r="AH135" s="206"/>
     </row>
     <row r="136" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B136" s="201"/>
-      <c r="C136" s="202"/>
-      <c r="D136" s="202"/>
-      <c r="E136" s="202"/>
-      <c r="F136" s="202"/>
-      <c r="G136" s="202"/>
-      <c r="H136" s="202"/>
-      <c r="I136" s="202"/>
-      <c r="J136" s="202"/>
-      <c r="K136" s="202"/>
-      <c r="L136" s="202"/>
-      <c r="M136" s="202"/>
-      <c r="N136" s="202"/>
-      <c r="O136" s="202"/>
-      <c r="P136" s="202"/>
-      <c r="Q136" s="202"/>
-      <c r="R136" s="203"/>
-      <c r="S136" s="201"/>
-      <c r="T136" s="202"/>
-      <c r="U136" s="202"/>
-      <c r="V136" s="202"/>
-      <c r="W136" s="202"/>
-      <c r="X136" s="202"/>
-      <c r="Y136" s="202"/>
-      <c r="Z136" s="202"/>
-      <c r="AA136" s="202"/>
-      <c r="AB136" s="202"/>
-      <c r="AC136" s="202"/>
-      <c r="AD136" s="202"/>
-      <c r="AE136" s="202"/>
-      <c r="AF136" s="202"/>
-      <c r="AG136" s="202"/>
-      <c r="AH136" s="203"/>
+      <c r="B136" s="207"/>
+      <c r="C136" s="208"/>
+      <c r="D136" s="208"/>
+      <c r="E136" s="208"/>
+      <c r="F136" s="208"/>
+      <c r="G136" s="208"/>
+      <c r="H136" s="208"/>
+      <c r="I136" s="208"/>
+      <c r="J136" s="208"/>
+      <c r="K136" s="208"/>
+      <c r="L136" s="208"/>
+      <c r="M136" s="208"/>
+      <c r="N136" s="208"/>
+      <c r="O136" s="208"/>
+      <c r="P136" s="208"/>
+      <c r="Q136" s="208"/>
+      <c r="R136" s="209"/>
+      <c r="S136" s="207"/>
+      <c r="T136" s="208"/>
+      <c r="U136" s="208"/>
+      <c r="V136" s="208"/>
+      <c r="W136" s="208"/>
+      <c r="X136" s="208"/>
+      <c r="Y136" s="208"/>
+      <c r="Z136" s="208"/>
+      <c r="AA136" s="208"/>
+      <c r="AB136" s="208"/>
+      <c r="AC136" s="208"/>
+      <c r="AD136" s="208"/>
+      <c r="AE136" s="208"/>
+      <c r="AF136" s="208"/>
+      <c r="AG136" s="208"/>
+      <c r="AH136" s="209"/>
     </row>
     <row r="137" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B137" s="201"/>
-      <c r="C137" s="202"/>
-      <c r="D137" s="202"/>
-      <c r="E137" s="202"/>
-      <c r="F137" s="202"/>
-      <c r="G137" s="202"/>
-      <c r="H137" s="202"/>
-      <c r="I137" s="202"/>
-      <c r="J137" s="202"/>
-      <c r="K137" s="202"/>
-      <c r="L137" s="202"/>
-      <c r="M137" s="202"/>
-      <c r="N137" s="202"/>
-      <c r="O137" s="202"/>
-      <c r="P137" s="202"/>
-      <c r="Q137" s="202"/>
-      <c r="R137" s="203"/>
-      <c r="S137" s="201"/>
-      <c r="T137" s="202"/>
-      <c r="U137" s="202"/>
-      <c r="V137" s="202"/>
-      <c r="W137" s="202"/>
-      <c r="X137" s="202"/>
-      <c r="Y137" s="202"/>
-      <c r="Z137" s="202"/>
-      <c r="AA137" s="202"/>
-      <c r="AB137" s="202"/>
-      <c r="AC137" s="202"/>
-      <c r="AD137" s="202"/>
-      <c r="AE137" s="202"/>
-      <c r="AF137" s="202"/>
-      <c r="AG137" s="202"/>
-      <c r="AH137" s="203"/>
+      <c r="B137" s="207"/>
+      <c r="C137" s="208"/>
+      <c r="D137" s="208"/>
+      <c r="E137" s="208"/>
+      <c r="F137" s="208"/>
+      <c r="G137" s="208"/>
+      <c r="H137" s="208"/>
+      <c r="I137" s="208"/>
+      <c r="J137" s="208"/>
+      <c r="K137" s="208"/>
+      <c r="L137" s="208"/>
+      <c r="M137" s="208"/>
+      <c r="N137" s="208"/>
+      <c r="O137" s="208"/>
+      <c r="P137" s="208"/>
+      <c r="Q137" s="208"/>
+      <c r="R137" s="209"/>
+      <c r="S137" s="207"/>
+      <c r="T137" s="208"/>
+      <c r="U137" s="208"/>
+      <c r="V137" s="208"/>
+      <c r="W137" s="208"/>
+      <c r="X137" s="208"/>
+      <c r="Y137" s="208"/>
+      <c r="Z137" s="208"/>
+      <c r="AA137" s="208"/>
+      <c r="AB137" s="208"/>
+      <c r="AC137" s="208"/>
+      <c r="AD137" s="208"/>
+      <c r="AE137" s="208"/>
+      <c r="AF137" s="208"/>
+      <c r="AG137" s="208"/>
+      <c r="AH137" s="209"/>
     </row>
     <row r="138" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B138" s="201"/>
-      <c r="C138" s="202"/>
-      <c r="D138" s="202"/>
-      <c r="E138" s="202"/>
-      <c r="F138" s="202"/>
-      <c r="G138" s="202"/>
-      <c r="H138" s="202"/>
-      <c r="I138" s="202"/>
-      <c r="J138" s="202"/>
-      <c r="K138" s="202"/>
-      <c r="L138" s="202"/>
-      <c r="M138" s="202"/>
-      <c r="N138" s="202"/>
-      <c r="O138" s="202"/>
-      <c r="P138" s="202"/>
-      <c r="Q138" s="202"/>
-      <c r="R138" s="203"/>
-      <c r="S138" s="201"/>
-      <c r="T138" s="202"/>
-      <c r="U138" s="202"/>
-      <c r="V138" s="202"/>
-      <c r="W138" s="202"/>
-      <c r="X138" s="202"/>
-      <c r="Y138" s="202"/>
-      <c r="Z138" s="202"/>
-      <c r="AA138" s="202"/>
-      <c r="AB138" s="202"/>
-      <c r="AC138" s="202"/>
-      <c r="AD138" s="202"/>
-      <c r="AE138" s="202"/>
-      <c r="AF138" s="202"/>
-      <c r="AG138" s="202"/>
-      <c r="AH138" s="203"/>
+      <c r="B138" s="207"/>
+      <c r="C138" s="208"/>
+      <c r="D138" s="208"/>
+      <c r="E138" s="208"/>
+      <c r="F138" s="208"/>
+      <c r="G138" s="208"/>
+      <c r="H138" s="208"/>
+      <c r="I138" s="208"/>
+      <c r="J138" s="208"/>
+      <c r="K138" s="208"/>
+      <c r="L138" s="208"/>
+      <c r="M138" s="208"/>
+      <c r="N138" s="208"/>
+      <c r="O138" s="208"/>
+      <c r="P138" s="208"/>
+      <c r="Q138" s="208"/>
+      <c r="R138" s="209"/>
+      <c r="S138" s="207"/>
+      <c r="T138" s="208"/>
+      <c r="U138" s="208"/>
+      <c r="V138" s="208"/>
+      <c r="W138" s="208"/>
+      <c r="X138" s="208"/>
+      <c r="Y138" s="208"/>
+      <c r="Z138" s="208"/>
+      <c r="AA138" s="208"/>
+      <c r="AB138" s="208"/>
+      <c r="AC138" s="208"/>
+      <c r="AD138" s="208"/>
+      <c r="AE138" s="208"/>
+      <c r="AF138" s="208"/>
+      <c r="AG138" s="208"/>
+      <c r="AH138" s="209"/>
     </row>
     <row r="139" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B139" s="201"/>
-      <c r="C139" s="202"/>
-      <c r="D139" s="202"/>
-      <c r="E139" s="202"/>
-      <c r="F139" s="202"/>
-      <c r="G139" s="202"/>
-      <c r="H139" s="202"/>
-      <c r="I139" s="202"/>
-      <c r="J139" s="202"/>
-      <c r="K139" s="202"/>
-      <c r="L139" s="202"/>
-      <c r="M139" s="202"/>
-      <c r="N139" s="202"/>
-      <c r="O139" s="202"/>
-      <c r="P139" s="202"/>
-      <c r="Q139" s="202"/>
-      <c r="R139" s="203"/>
-      <c r="S139" s="201"/>
-      <c r="T139" s="202"/>
-      <c r="U139" s="202"/>
-      <c r="V139" s="202"/>
-      <c r="W139" s="202"/>
-      <c r="X139" s="202"/>
-      <c r="Y139" s="202"/>
-      <c r="Z139" s="202"/>
-      <c r="AA139" s="202"/>
-      <c r="AB139" s="202"/>
-      <c r="AC139" s="202"/>
-      <c r="AD139" s="202"/>
-      <c r="AE139" s="202"/>
-      <c r="AF139" s="202"/>
-      <c r="AG139" s="202"/>
-      <c r="AH139" s="203"/>
+      <c r="B139" s="207"/>
+      <c r="C139" s="208"/>
+      <c r="D139" s="208"/>
+      <c r="E139" s="208"/>
+      <c r="F139" s="208"/>
+      <c r="G139" s="208"/>
+      <c r="H139" s="208"/>
+      <c r="I139" s="208"/>
+      <c r="J139" s="208"/>
+      <c r="K139" s="208"/>
+      <c r="L139" s="208"/>
+      <c r="M139" s="208"/>
+      <c r="N139" s="208"/>
+      <c r="O139" s="208"/>
+      <c r="P139" s="208"/>
+      <c r="Q139" s="208"/>
+      <c r="R139" s="209"/>
+      <c r="S139" s="207"/>
+      <c r="T139" s="208"/>
+      <c r="U139" s="208"/>
+      <c r="V139" s="208"/>
+      <c r="W139" s="208"/>
+      <c r="X139" s="208"/>
+      <c r="Y139" s="208"/>
+      <c r="Z139" s="208"/>
+      <c r="AA139" s="208"/>
+      <c r="AB139" s="208"/>
+      <c r="AC139" s="208"/>
+      <c r="AD139" s="208"/>
+      <c r="AE139" s="208"/>
+      <c r="AF139" s="208"/>
+      <c r="AG139" s="208"/>
+      <c r="AH139" s="209"/>
     </row>
     <row r="140" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B140" s="201"/>
-      <c r="C140" s="202"/>
-      <c r="D140" s="202"/>
-      <c r="E140" s="202"/>
-      <c r="F140" s="202"/>
-      <c r="G140" s="202"/>
-      <c r="H140" s="202"/>
-      <c r="I140" s="202"/>
-      <c r="J140" s="202"/>
-      <c r="K140" s="202"/>
-      <c r="L140" s="202"/>
-      <c r="M140" s="202"/>
-      <c r="N140" s="202"/>
-      <c r="O140" s="202"/>
-      <c r="P140" s="202"/>
-      <c r="Q140" s="202"/>
-      <c r="R140" s="203"/>
-      <c r="S140" s="201"/>
-      <c r="T140" s="202"/>
-      <c r="U140" s="202"/>
-      <c r="V140" s="202"/>
-      <c r="W140" s="202"/>
-      <c r="X140" s="202"/>
-      <c r="Y140" s="202"/>
-      <c r="Z140" s="202"/>
-      <c r="AA140" s="202"/>
-      <c r="AB140" s="202"/>
-      <c r="AC140" s="202"/>
-      <c r="AD140" s="202"/>
-      <c r="AE140" s="202"/>
-      <c r="AF140" s="202"/>
-      <c r="AG140" s="202"/>
-      <c r="AH140" s="203"/>
+      <c r="B140" s="207"/>
+      <c r="C140" s="208"/>
+      <c r="D140" s="208"/>
+      <c r="E140" s="208"/>
+      <c r="F140" s="208"/>
+      <c r="G140" s="208"/>
+      <c r="H140" s="208"/>
+      <c r="I140" s="208"/>
+      <c r="J140" s="208"/>
+      <c r="K140" s="208"/>
+      <c r="L140" s="208"/>
+      <c r="M140" s="208"/>
+      <c r="N140" s="208"/>
+      <c r="O140" s="208"/>
+      <c r="P140" s="208"/>
+      <c r="Q140" s="208"/>
+      <c r="R140" s="209"/>
+      <c r="S140" s="207"/>
+      <c r="T140" s="208"/>
+      <c r="U140" s="208"/>
+      <c r="V140" s="208"/>
+      <c r="W140" s="208"/>
+      <c r="X140" s="208"/>
+      <c r="Y140" s="208"/>
+      <c r="Z140" s="208"/>
+      <c r="AA140" s="208"/>
+      <c r="AB140" s="208"/>
+      <c r="AC140" s="208"/>
+      <c r="AD140" s="208"/>
+      <c r="AE140" s="208"/>
+      <c r="AF140" s="208"/>
+      <c r="AG140" s="208"/>
+      <c r="AH140" s="209"/>
     </row>
     <row r="141" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B141" s="201"/>
-      <c r="C141" s="202"/>
-      <c r="D141" s="202"/>
-      <c r="E141" s="202"/>
-      <c r="F141" s="202"/>
-      <c r="G141" s="202"/>
-      <c r="H141" s="202"/>
-      <c r="I141" s="202"/>
-      <c r="J141" s="202"/>
-      <c r="K141" s="202"/>
-      <c r="L141" s="202"/>
-      <c r="M141" s="202"/>
-      <c r="N141" s="202"/>
-      <c r="O141" s="202"/>
-      <c r="P141" s="202"/>
-      <c r="Q141" s="202"/>
-      <c r="R141" s="203"/>
-      <c r="S141" s="201"/>
-      <c r="T141" s="202"/>
-      <c r="U141" s="202"/>
-      <c r="V141" s="202"/>
-      <c r="W141" s="202"/>
-      <c r="X141" s="202"/>
-      <c r="Y141" s="202"/>
-      <c r="Z141" s="202"/>
-      <c r="AA141" s="202"/>
-      <c r="AB141" s="202"/>
-      <c r="AC141" s="202"/>
-      <c r="AD141" s="202"/>
-      <c r="AE141" s="202"/>
-      <c r="AF141" s="202"/>
-      <c r="AG141" s="202"/>
-      <c r="AH141" s="203"/>
+      <c r="B141" s="207"/>
+      <c r="C141" s="208"/>
+      <c r="D141" s="208"/>
+      <c r="E141" s="208"/>
+      <c r="F141" s="208"/>
+      <c r="G141" s="208"/>
+      <c r="H141" s="208"/>
+      <c r="I141" s="208"/>
+      <c r="J141" s="208"/>
+      <c r="K141" s="208"/>
+      <c r="L141" s="208"/>
+      <c r="M141" s="208"/>
+      <c r="N141" s="208"/>
+      <c r="O141" s="208"/>
+      <c r="P141" s="208"/>
+      <c r="Q141" s="208"/>
+      <c r="R141" s="209"/>
+      <c r="S141" s="207"/>
+      <c r="T141" s="208"/>
+      <c r="U141" s="208"/>
+      <c r="V141" s="208"/>
+      <c r="W141" s="208"/>
+      <c r="X141" s="208"/>
+      <c r="Y141" s="208"/>
+      <c r="Z141" s="208"/>
+      <c r="AA141" s="208"/>
+      <c r="AB141" s="208"/>
+      <c r="AC141" s="208"/>
+      <c r="AD141" s="208"/>
+      <c r="AE141" s="208"/>
+      <c r="AF141" s="208"/>
+      <c r="AG141" s="208"/>
+      <c r="AH141" s="209"/>
     </row>
     <row r="142" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B142" s="201"/>
-      <c r="C142" s="202"/>
-      <c r="D142" s="202"/>
-      <c r="E142" s="202"/>
-      <c r="F142" s="202"/>
-      <c r="G142" s="202"/>
-      <c r="H142" s="202"/>
-      <c r="I142" s="202"/>
-      <c r="J142" s="202"/>
-      <c r="K142" s="202"/>
-      <c r="L142" s="202"/>
-      <c r="M142" s="202"/>
-      <c r="N142" s="202"/>
-      <c r="O142" s="202"/>
-      <c r="P142" s="202"/>
-      <c r="Q142" s="202"/>
-      <c r="R142" s="203"/>
-      <c r="S142" s="201"/>
-      <c r="T142" s="202"/>
-      <c r="U142" s="202"/>
-      <c r="V142" s="202"/>
-      <c r="W142" s="202"/>
-      <c r="X142" s="202"/>
-      <c r="Y142" s="202"/>
-      <c r="Z142" s="202"/>
-      <c r="AA142" s="202"/>
-      <c r="AB142" s="202"/>
-      <c r="AC142" s="202"/>
-      <c r="AD142" s="202"/>
-      <c r="AE142" s="202"/>
-      <c r="AF142" s="202"/>
-      <c r="AG142" s="202"/>
-      <c r="AH142" s="203"/>
+      <c r="B142" s="207"/>
+      <c r="C142" s="208"/>
+      <c r="D142" s="208"/>
+      <c r="E142" s="208"/>
+      <c r="F142" s="208"/>
+      <c r="G142" s="208"/>
+      <c r="H142" s="208"/>
+      <c r="I142" s="208"/>
+      <c r="J142" s="208"/>
+      <c r="K142" s="208"/>
+      <c r="L142" s="208"/>
+      <c r="M142" s="208"/>
+      <c r="N142" s="208"/>
+      <c r="O142" s="208"/>
+      <c r="P142" s="208"/>
+      <c r="Q142" s="208"/>
+      <c r="R142" s="209"/>
+      <c r="S142" s="207"/>
+      <c r="T142" s="208"/>
+      <c r="U142" s="208"/>
+      <c r="V142" s="208"/>
+      <c r="W142" s="208"/>
+      <c r="X142" s="208"/>
+      <c r="Y142" s="208"/>
+      <c r="Z142" s="208"/>
+      <c r="AA142" s="208"/>
+      <c r="AB142" s="208"/>
+      <c r="AC142" s="208"/>
+      <c r="AD142" s="208"/>
+      <c r="AE142" s="208"/>
+      <c r="AF142" s="208"/>
+      <c r="AG142" s="208"/>
+      <c r="AH142" s="209"/>
     </row>
     <row r="143" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B143" s="201"/>
-      <c r="C143" s="202"/>
-      <c r="D143" s="202"/>
-      <c r="E143" s="202"/>
-      <c r="F143" s="202"/>
-      <c r="G143" s="202"/>
-      <c r="H143" s="202"/>
-      <c r="I143" s="202"/>
-      <c r="J143" s="202"/>
-      <c r="K143" s="202"/>
-      <c r="L143" s="202"/>
-      <c r="M143" s="202"/>
-      <c r="N143" s="202"/>
-      <c r="O143" s="202"/>
-      <c r="P143" s="202"/>
-      <c r="Q143" s="202"/>
-      <c r="R143" s="203"/>
-      <c r="S143" s="201"/>
-      <c r="T143" s="202"/>
-      <c r="U143" s="202"/>
-      <c r="V143" s="202"/>
-      <c r="W143" s="202"/>
-      <c r="X143" s="202"/>
-      <c r="Y143" s="202"/>
-      <c r="Z143" s="202"/>
-      <c r="AA143" s="202"/>
-      <c r="AB143" s="202"/>
-      <c r="AC143" s="202"/>
-      <c r="AD143" s="202"/>
-      <c r="AE143" s="202"/>
-      <c r="AF143" s="202"/>
-      <c r="AG143" s="202"/>
-      <c r="AH143" s="203"/>
+      <c r="B143" s="207"/>
+      <c r="C143" s="208"/>
+      <c r="D143" s="208"/>
+      <c r="E143" s="208"/>
+      <c r="F143" s="208"/>
+      <c r="G143" s="208"/>
+      <c r="H143" s="208"/>
+      <c r="I143" s="208"/>
+      <c r="J143" s="208"/>
+      <c r="K143" s="208"/>
+      <c r="L143" s="208"/>
+      <c r="M143" s="208"/>
+      <c r="N143" s="208"/>
+      <c r="O143" s="208"/>
+      <c r="P143" s="208"/>
+      <c r="Q143" s="208"/>
+      <c r="R143" s="209"/>
+      <c r="S143" s="207"/>
+      <c r="T143" s="208"/>
+      <c r="U143" s="208"/>
+      <c r="V143" s="208"/>
+      <c r="W143" s="208"/>
+      <c r="X143" s="208"/>
+      <c r="Y143" s="208"/>
+      <c r="Z143" s="208"/>
+      <c r="AA143" s="208"/>
+      <c r="AB143" s="208"/>
+      <c r="AC143" s="208"/>
+      <c r="AD143" s="208"/>
+      <c r="AE143" s="208"/>
+      <c r="AF143" s="208"/>
+      <c r="AG143" s="208"/>
+      <c r="AH143" s="209"/>
     </row>
     <row r="144" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B144" s="177"/>
-      <c r="C144" s="177"/>
-      <c r="D144" s="177"/>
-      <c r="E144" s="177"/>
-      <c r="F144" s="177"/>
-      <c r="G144" s="177"/>
-      <c r="H144" s="177"/>
-      <c r="I144" s="177"/>
-      <c r="J144" s="177"/>
-      <c r="K144" s="177"/>
-      <c r="L144" s="177"/>
-      <c r="M144" s="177"/>
-      <c r="N144" s="177"/>
-      <c r="O144" s="177"/>
-      <c r="P144" s="177"/>
-      <c r="Q144" s="177"/>
-      <c r="R144" s="177"/>
-      <c r="S144" s="177"/>
-      <c r="T144" s="177"/>
-      <c r="U144" s="177"/>
-      <c r="V144" s="177"/>
-      <c r="W144" s="177"/>
-      <c r="X144" s="177"/>
-      <c r="Y144" s="177"/>
-      <c r="Z144" s="177"/>
-      <c r="AA144" s="177"/>
-      <c r="AB144" s="177"/>
-      <c r="AC144" s="177"/>
-      <c r="AD144" s="177"/>
-      <c r="AE144" s="177"/>
-      <c r="AF144" s="177"/>
-      <c r="AG144" s="177"/>
-      <c r="AH144" s="177"/>
+      <c r="B144" s="190"/>
+      <c r="C144" s="190"/>
+      <c r="D144" s="190"/>
+      <c r="E144" s="190"/>
+      <c r="F144" s="190"/>
+      <c r="G144" s="190"/>
+      <c r="H144" s="190"/>
+      <c r="I144" s="190"/>
+      <c r="J144" s="190"/>
+      <c r="K144" s="190"/>
+      <c r="L144" s="190"/>
+      <c r="M144" s="190"/>
+      <c r="N144" s="190"/>
+      <c r="O144" s="190"/>
+      <c r="P144" s="190"/>
+      <c r="Q144" s="190"/>
+      <c r="R144" s="190"/>
+      <c r="S144" s="190"/>
+      <c r="T144" s="190"/>
+      <c r="U144" s="190"/>
+      <c r="V144" s="190"/>
+      <c r="W144" s="190"/>
+      <c r="X144" s="190"/>
+      <c r="Y144" s="190"/>
+      <c r="Z144" s="190"/>
+      <c r="AA144" s="190"/>
+      <c r="AB144" s="190"/>
+      <c r="AC144" s="190"/>
+      <c r="AD144" s="190"/>
+      <c r="AE144" s="190"/>
+      <c r="AF144" s="190"/>
+      <c r="AG144" s="190"/>
+      <c r="AH144" s="190"/>
     </row>
     <row r="145" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B145" s="178" t="s">
+      <c r="B145" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="179"/>
-      <c r="D145" s="179"/>
-      <c r="E145" s="179"/>
-      <c r="F145" s="179"/>
-      <c r="G145" s="179"/>
-      <c r="H145" s="179"/>
-      <c r="I145" s="179"/>
-      <c r="J145" s="179"/>
-      <c r="K145" s="179"/>
-      <c r="L145" s="179"/>
-      <c r="M145" s="179"/>
-      <c r="N145" s="179"/>
-      <c r="O145" s="179"/>
-      <c r="P145" s="179"/>
-      <c r="Q145" s="179"/>
-      <c r="R145" s="180"/>
-      <c r="S145" s="178" t="s">
+      <c r="C145" s="198"/>
+      <c r="D145" s="198"/>
+      <c r="E145" s="198"/>
+      <c r="F145" s="198"/>
+      <c r="G145" s="198"/>
+      <c r="H145" s="198"/>
+      <c r="I145" s="198"/>
+      <c r="J145" s="198"/>
+      <c r="K145" s="198"/>
+      <c r="L145" s="198"/>
+      <c r="M145" s="198"/>
+      <c r="N145" s="198"/>
+      <c r="O145" s="198"/>
+      <c r="P145" s="198"/>
+      <c r="Q145" s="198"/>
+      <c r="R145" s="199"/>
+      <c r="S145" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="T145" s="179"/>
-      <c r="U145" s="179"/>
-      <c r="V145" s="179"/>
-      <c r="W145" s="179"/>
-      <c r="X145" s="179"/>
-      <c r="Y145" s="179"/>
-      <c r="Z145" s="179"/>
-      <c r="AA145" s="179"/>
-      <c r="AB145" s="179"/>
-      <c r="AC145" s="179"/>
-      <c r="AD145" s="179"/>
-      <c r="AE145" s="179"/>
-      <c r="AF145" s="179"/>
-      <c r="AG145" s="179"/>
-      <c r="AH145" s="180"/>
+      <c r="T145" s="198"/>
+      <c r="U145" s="198"/>
+      <c r="V145" s="198"/>
+      <c r="W145" s="198"/>
+      <c r="X145" s="198"/>
+      <c r="Y145" s="198"/>
+      <c r="Z145" s="198"/>
+      <c r="AA145" s="198"/>
+      <c r="AB145" s="198"/>
+      <c r="AC145" s="198"/>
+      <c r="AD145" s="198"/>
+      <c r="AE145" s="198"/>
+      <c r="AF145" s="198"/>
+      <c r="AG145" s="198"/>
+      <c r="AH145" s="199"/>
     </row>
     <row r="146" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B146" s="198"/>
-      <c r="C146" s="199"/>
-      <c r="D146" s="199"/>
-      <c r="E146" s="199"/>
-      <c r="F146" s="199"/>
-      <c r="G146" s="199"/>
-      <c r="H146" s="199"/>
-      <c r="I146" s="199"/>
-      <c r="J146" s="199"/>
-      <c r="K146" s="199"/>
-      <c r="L146" s="199"/>
-      <c r="M146" s="199"/>
-      <c r="N146" s="199"/>
-      <c r="O146" s="199"/>
-      <c r="P146" s="199"/>
-      <c r="Q146" s="199"/>
-      <c r="R146" s="200"/>
-      <c r="S146" s="198"/>
-      <c r="T146" s="199"/>
-      <c r="U146" s="199"/>
-      <c r="V146" s="199"/>
-      <c r="W146" s="199"/>
-      <c r="X146" s="199"/>
-      <c r="Y146" s="199"/>
-      <c r="Z146" s="199"/>
-      <c r="AA146" s="199"/>
-      <c r="AB146" s="199"/>
-      <c r="AC146" s="199"/>
-      <c r="AD146" s="199"/>
-      <c r="AE146" s="199"/>
-      <c r="AF146" s="199"/>
-      <c r="AG146" s="199"/>
-      <c r="AH146" s="200"/>
+      <c r="B146" s="204"/>
+      <c r="C146" s="205"/>
+      <c r="D146" s="205"/>
+      <c r="E146" s="205"/>
+      <c r="F146" s="205"/>
+      <c r="G146" s="205"/>
+      <c r="H146" s="205"/>
+      <c r="I146" s="205"/>
+      <c r="J146" s="205"/>
+      <c r="K146" s="205"/>
+      <c r="L146" s="205"/>
+      <c r="M146" s="205"/>
+      <c r="N146" s="205"/>
+      <c r="O146" s="205"/>
+      <c r="P146" s="205"/>
+      <c r="Q146" s="205"/>
+      <c r="R146" s="206"/>
+      <c r="S146" s="204"/>
+      <c r="T146" s="205"/>
+      <c r="U146" s="205"/>
+      <c r="V146" s="205"/>
+      <c r="W146" s="205"/>
+      <c r="X146" s="205"/>
+      <c r="Y146" s="205"/>
+      <c r="Z146" s="205"/>
+      <c r="AA146" s="205"/>
+      <c r="AB146" s="205"/>
+      <c r="AC146" s="205"/>
+      <c r="AD146" s="205"/>
+      <c r="AE146" s="205"/>
+      <c r="AF146" s="205"/>
+      <c r="AG146" s="205"/>
+      <c r="AH146" s="206"/>
     </row>
     <row r="147" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B147" s="201"/>
-      <c r="C147" s="202"/>
-      <c r="D147" s="202"/>
-      <c r="E147" s="202"/>
-      <c r="F147" s="202"/>
-      <c r="G147" s="202"/>
-      <c r="H147" s="202"/>
-      <c r="I147" s="202"/>
-      <c r="J147" s="202"/>
-      <c r="K147" s="202"/>
-      <c r="L147" s="202"/>
-      <c r="M147" s="202"/>
-      <c r="N147" s="202"/>
-      <c r="O147" s="202"/>
-      <c r="P147" s="202"/>
-      <c r="Q147" s="202"/>
-      <c r="R147" s="203"/>
-      <c r="S147" s="201"/>
-      <c r="T147" s="202"/>
-      <c r="U147" s="202"/>
-      <c r="V147" s="202"/>
-      <c r="W147" s="202"/>
-      <c r="X147" s="202"/>
-      <c r="Y147" s="202"/>
-      <c r="Z147" s="202"/>
-      <c r="AA147" s="202"/>
-      <c r="AB147" s="202"/>
-      <c r="AC147" s="202"/>
-      <c r="AD147" s="202"/>
-      <c r="AE147" s="202"/>
-      <c r="AF147" s="202"/>
-      <c r="AG147" s="202"/>
-      <c r="AH147" s="203"/>
+      <c r="B147" s="207"/>
+      <c r="C147" s="208"/>
+      <c r="D147" s="208"/>
+      <c r="E147" s="208"/>
+      <c r="F147" s="208"/>
+      <c r="G147" s="208"/>
+      <c r="H147" s="208"/>
+      <c r="I147" s="208"/>
+      <c r="J147" s="208"/>
+      <c r="K147" s="208"/>
+      <c r="L147" s="208"/>
+      <c r="M147" s="208"/>
+      <c r="N147" s="208"/>
+      <c r="O147" s="208"/>
+      <c r="P147" s="208"/>
+      <c r="Q147" s="208"/>
+      <c r="R147" s="209"/>
+      <c r="S147" s="207"/>
+      <c r="T147" s="208"/>
+      <c r="U147" s="208"/>
+      <c r="V147" s="208"/>
+      <c r="W147" s="208"/>
+      <c r="X147" s="208"/>
+      <c r="Y147" s="208"/>
+      <c r="Z147" s="208"/>
+      <c r="AA147" s="208"/>
+      <c r="AB147" s="208"/>
+      <c r="AC147" s="208"/>
+      <c r="AD147" s="208"/>
+      <c r="AE147" s="208"/>
+      <c r="AF147" s="208"/>
+      <c r="AG147" s="208"/>
+      <c r="AH147" s="209"/>
     </row>
     <row r="148" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B148" s="201"/>
-      <c r="C148" s="202"/>
-      <c r="D148" s="202"/>
-      <c r="E148" s="202"/>
-      <c r="F148" s="202"/>
-      <c r="G148" s="202"/>
-      <c r="H148" s="202"/>
-      <c r="I148" s="202"/>
-      <c r="J148" s="202"/>
-      <c r="K148" s="202"/>
-      <c r="L148" s="202"/>
-      <c r="M148" s="202"/>
-      <c r="N148" s="202"/>
-      <c r="O148" s="202"/>
-      <c r="P148" s="202"/>
-      <c r="Q148" s="202"/>
-      <c r="R148" s="203"/>
-      <c r="S148" s="201"/>
-      <c r="T148" s="202"/>
-      <c r="U148" s="202"/>
-      <c r="V148" s="202"/>
-      <c r="W148" s="202"/>
-      <c r="X148" s="202"/>
-      <c r="Y148" s="202"/>
-      <c r="Z148" s="202"/>
-      <c r="AA148" s="202"/>
-      <c r="AB148" s="202"/>
-      <c r="AC148" s="202"/>
-      <c r="AD148" s="202"/>
-      <c r="AE148" s="202"/>
-      <c r="AF148" s="202"/>
-      <c r="AG148" s="202"/>
-      <c r="AH148" s="203"/>
+      <c r="B148" s="207"/>
+      <c r="C148" s="208"/>
+      <c r="D148" s="208"/>
+      <c r="E148" s="208"/>
+      <c r="F148" s="208"/>
+      <c r="G148" s="208"/>
+      <c r="H148" s="208"/>
+      <c r="I148" s="208"/>
+      <c r="J148" s="208"/>
+      <c r="K148" s="208"/>
+      <c r="L148" s="208"/>
+      <c r="M148" s="208"/>
+      <c r="N148" s="208"/>
+      <c r="O148" s="208"/>
+      <c r="P148" s="208"/>
+      <c r="Q148" s="208"/>
+      <c r="R148" s="209"/>
+      <c r="S148" s="207"/>
+      <c r="T148" s="208"/>
+      <c r="U148" s="208"/>
+      <c r="V148" s="208"/>
+      <c r="W148" s="208"/>
+      <c r="X148" s="208"/>
+      <c r="Y148" s="208"/>
+      <c r="Z148" s="208"/>
+      <c r="AA148" s="208"/>
+      <c r="AB148" s="208"/>
+      <c r="AC148" s="208"/>
+      <c r="AD148" s="208"/>
+      <c r="AE148" s="208"/>
+      <c r="AF148" s="208"/>
+      <c r="AG148" s="208"/>
+      <c r="AH148" s="209"/>
     </row>
     <row r="149" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B149" s="201"/>
-      <c r="C149" s="202"/>
-      <c r="D149" s="202"/>
-      <c r="E149" s="202"/>
-      <c r="F149" s="202"/>
-      <c r="G149" s="202"/>
-      <c r="H149" s="202"/>
-      <c r="I149" s="202"/>
-      <c r="J149" s="202"/>
-      <c r="K149" s="202"/>
-      <c r="L149" s="202"/>
-      <c r="M149" s="202"/>
-      <c r="N149" s="202"/>
-      <c r="O149" s="202"/>
-      <c r="P149" s="202"/>
-      <c r="Q149" s="202"/>
-      <c r="R149" s="203"/>
-      <c r="S149" s="201"/>
-      <c r="T149" s="202"/>
-      <c r="U149" s="202"/>
-      <c r="V149" s="202"/>
-      <c r="W149" s="202"/>
-      <c r="X149" s="202"/>
-      <c r="Y149" s="202"/>
-      <c r="Z149" s="202"/>
-      <c r="AA149" s="202"/>
-      <c r="AB149" s="202"/>
-      <c r="AC149" s="202"/>
-      <c r="AD149" s="202"/>
-      <c r="AE149" s="202"/>
-      <c r="AF149" s="202"/>
-      <c r="AG149" s="202"/>
-      <c r="AH149" s="203"/>
+      <c r="B149" s="207"/>
+      <c r="C149" s="208"/>
+      <c r="D149" s="208"/>
+      <c r="E149" s="208"/>
+      <c r="F149" s="208"/>
+      <c r="G149" s="208"/>
+      <c r="H149" s="208"/>
+      <c r="I149" s="208"/>
+      <c r="J149" s="208"/>
+      <c r="K149" s="208"/>
+      <c r="L149" s="208"/>
+      <c r="M149" s="208"/>
+      <c r="N149" s="208"/>
+      <c r="O149" s="208"/>
+      <c r="P149" s="208"/>
+      <c r="Q149" s="208"/>
+      <c r="R149" s="209"/>
+      <c r="S149" s="207"/>
+      <c r="T149" s="208"/>
+      <c r="U149" s="208"/>
+      <c r="V149" s="208"/>
+      <c r="W149" s="208"/>
+      <c r="X149" s="208"/>
+      <c r="Y149" s="208"/>
+      <c r="Z149" s="208"/>
+      <c r="AA149" s="208"/>
+      <c r="AB149" s="208"/>
+      <c r="AC149" s="208"/>
+      <c r="AD149" s="208"/>
+      <c r="AE149" s="208"/>
+      <c r="AF149" s="208"/>
+      <c r="AG149" s="208"/>
+      <c r="AH149" s="209"/>
     </row>
     <row r="150" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B150" s="201"/>
-      <c r="C150" s="202"/>
-      <c r="D150" s="202"/>
-      <c r="E150" s="202"/>
-      <c r="F150" s="202"/>
-      <c r="G150" s="202"/>
-      <c r="H150" s="202"/>
-      <c r="I150" s="202"/>
-      <c r="J150" s="202"/>
-      <c r="K150" s="202"/>
-      <c r="L150" s="202"/>
-      <c r="M150" s="202"/>
-      <c r="N150" s="202"/>
-      <c r="O150" s="202"/>
-      <c r="P150" s="202"/>
-      <c r="Q150" s="202"/>
-      <c r="R150" s="203"/>
-      <c r="S150" s="201"/>
-      <c r="T150" s="202"/>
-      <c r="U150" s="202"/>
-      <c r="V150" s="202"/>
-      <c r="W150" s="202"/>
-      <c r="X150" s="202"/>
-      <c r="Y150" s="202"/>
-      <c r="Z150" s="202"/>
-      <c r="AA150" s="202"/>
-      <c r="AB150" s="202"/>
-      <c r="AC150" s="202"/>
-      <c r="AD150" s="202"/>
-      <c r="AE150" s="202"/>
-      <c r="AF150" s="202"/>
-      <c r="AG150" s="202"/>
-      <c r="AH150" s="203"/>
+      <c r="B150" s="207"/>
+      <c r="C150" s="208"/>
+      <c r="D150" s="208"/>
+      <c r="E150" s="208"/>
+      <c r="F150" s="208"/>
+      <c r="G150" s="208"/>
+      <c r="H150" s="208"/>
+      <c r="I150" s="208"/>
+      <c r="J150" s="208"/>
+      <c r="K150" s="208"/>
+      <c r="L150" s="208"/>
+      <c r="M150" s="208"/>
+      <c r="N150" s="208"/>
+      <c r="O150" s="208"/>
+      <c r="P150" s="208"/>
+      <c r="Q150" s="208"/>
+      <c r="R150" s="209"/>
+      <c r="S150" s="207"/>
+      <c r="T150" s="208"/>
+      <c r="U150" s="208"/>
+      <c r="V150" s="208"/>
+      <c r="W150" s="208"/>
+      <c r="X150" s="208"/>
+      <c r="Y150" s="208"/>
+      <c r="Z150" s="208"/>
+      <c r="AA150" s="208"/>
+      <c r="AB150" s="208"/>
+      <c r="AC150" s="208"/>
+      <c r="AD150" s="208"/>
+      <c r="AE150" s="208"/>
+      <c r="AF150" s="208"/>
+      <c r="AG150" s="208"/>
+      <c r="AH150" s="209"/>
     </row>
     <row r="151" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B151" s="201"/>
-      <c r="C151" s="202"/>
-      <c r="D151" s="202"/>
-      <c r="E151" s="202"/>
-      <c r="F151" s="202"/>
-      <c r="G151" s="202"/>
-      <c r="H151" s="202"/>
-      <c r="I151" s="202"/>
-      <c r="J151" s="202"/>
-      <c r="K151" s="202"/>
-      <c r="L151" s="202"/>
-      <c r="M151" s="202"/>
-      <c r="N151" s="202"/>
-      <c r="O151" s="202"/>
-      <c r="P151" s="202"/>
-      <c r="Q151" s="202"/>
-      <c r="R151" s="203"/>
-      <c r="S151" s="201"/>
-      <c r="T151" s="202"/>
-      <c r="U151" s="202"/>
-      <c r="V151" s="202"/>
-      <c r="W151" s="202"/>
-      <c r="X151" s="202"/>
-      <c r="Y151" s="202"/>
-      <c r="Z151" s="202"/>
-      <c r="AA151" s="202"/>
-      <c r="AB151" s="202"/>
-      <c r="AC151" s="202"/>
-      <c r="AD151" s="202"/>
-      <c r="AE151" s="202"/>
-      <c r="AF151" s="202"/>
-      <c r="AG151" s="202"/>
-      <c r="AH151" s="203"/>
+      <c r="B151" s="207"/>
+      <c r="C151" s="208"/>
+      <c r="D151" s="208"/>
+      <c r="E151" s="208"/>
+      <c r="F151" s="208"/>
+      <c r="G151" s="208"/>
+      <c r="H151" s="208"/>
+      <c r="I151" s="208"/>
+      <c r="J151" s="208"/>
+      <c r="K151" s="208"/>
+      <c r="L151" s="208"/>
+      <c r="M151" s="208"/>
+      <c r="N151" s="208"/>
+      <c r="O151" s="208"/>
+      <c r="P151" s="208"/>
+      <c r="Q151" s="208"/>
+      <c r="R151" s="209"/>
+      <c r="S151" s="207"/>
+      <c r="T151" s="208"/>
+      <c r="U151" s="208"/>
+      <c r="V151" s="208"/>
+      <c r="W151" s="208"/>
+      <c r="X151" s="208"/>
+      <c r="Y151" s="208"/>
+      <c r="Z151" s="208"/>
+      <c r="AA151" s="208"/>
+      <c r="AB151" s="208"/>
+      <c r="AC151" s="208"/>
+      <c r="AD151" s="208"/>
+      <c r="AE151" s="208"/>
+      <c r="AF151" s="208"/>
+      <c r="AG151" s="208"/>
+      <c r="AH151" s="209"/>
     </row>
     <row r="152" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B152" s="201"/>
-      <c r="C152" s="202"/>
-      <c r="D152" s="202"/>
-      <c r="E152" s="202"/>
-      <c r="F152" s="202"/>
-      <c r="G152" s="202"/>
-      <c r="H152" s="202"/>
-      <c r="I152" s="202"/>
-      <c r="J152" s="202"/>
-      <c r="K152" s="202"/>
-      <c r="L152" s="202"/>
-      <c r="M152" s="202"/>
-      <c r="N152" s="202"/>
-      <c r="O152" s="202"/>
-      <c r="P152" s="202"/>
-      <c r="Q152" s="202"/>
-      <c r="R152" s="203"/>
-      <c r="S152" s="201"/>
-      <c r="T152" s="202"/>
-      <c r="U152" s="202"/>
-      <c r="V152" s="202"/>
-      <c r="W152" s="202"/>
-      <c r="X152" s="202"/>
-      <c r="Y152" s="202"/>
-      <c r="Z152" s="202"/>
-      <c r="AA152" s="202"/>
-      <c r="AB152" s="202"/>
-      <c r="AC152" s="202"/>
-      <c r="AD152" s="202"/>
-      <c r="AE152" s="202"/>
-      <c r="AF152" s="202"/>
-      <c r="AG152" s="202"/>
-      <c r="AH152" s="203"/>
+      <c r="B152" s="207"/>
+      <c r="C152" s="208"/>
+      <c r="D152" s="208"/>
+      <c r="E152" s="208"/>
+      <c r="F152" s="208"/>
+      <c r="G152" s="208"/>
+      <c r="H152" s="208"/>
+      <c r="I152" s="208"/>
+      <c r="J152" s="208"/>
+      <c r="K152" s="208"/>
+      <c r="L152" s="208"/>
+      <c r="M152" s="208"/>
+      <c r="N152" s="208"/>
+      <c r="O152" s="208"/>
+      <c r="P152" s="208"/>
+      <c r="Q152" s="208"/>
+      <c r="R152" s="209"/>
+      <c r="S152" s="207"/>
+      <c r="T152" s="208"/>
+      <c r="U152" s="208"/>
+      <c r="V152" s="208"/>
+      <c r="W152" s="208"/>
+      <c r="X152" s="208"/>
+      <c r="Y152" s="208"/>
+      <c r="Z152" s="208"/>
+      <c r="AA152" s="208"/>
+      <c r="AB152" s="208"/>
+      <c r="AC152" s="208"/>
+      <c r="AD152" s="208"/>
+      <c r="AE152" s="208"/>
+      <c r="AF152" s="208"/>
+      <c r="AG152" s="208"/>
+      <c r="AH152" s="209"/>
     </row>
     <row r="153" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B153" s="201"/>
-      <c r="C153" s="202"/>
-      <c r="D153" s="202"/>
-      <c r="E153" s="202"/>
-      <c r="F153" s="202"/>
-      <c r="G153" s="202"/>
-      <c r="H153" s="202"/>
-      <c r="I153" s="202"/>
-      <c r="J153" s="202"/>
-      <c r="K153" s="202"/>
-      <c r="L153" s="202"/>
-      <c r="M153" s="202"/>
-      <c r="N153" s="202"/>
-      <c r="O153" s="202"/>
-      <c r="P153" s="202"/>
-      <c r="Q153" s="202"/>
-      <c r="R153" s="203"/>
-      <c r="S153" s="201"/>
-      <c r="T153" s="202"/>
-      <c r="U153" s="202"/>
-      <c r="V153" s="202"/>
-      <c r="W153" s="202"/>
-      <c r="X153" s="202"/>
-      <c r="Y153" s="202"/>
-      <c r="Z153" s="202"/>
-      <c r="AA153" s="202"/>
-      <c r="AB153" s="202"/>
-      <c r="AC153" s="202"/>
-      <c r="AD153" s="202"/>
-      <c r="AE153" s="202"/>
-      <c r="AF153" s="202"/>
-      <c r="AG153" s="202"/>
-      <c r="AH153" s="203"/>
+      <c r="B153" s="207"/>
+      <c r="C153" s="208"/>
+      <c r="D153" s="208"/>
+      <c r="E153" s="208"/>
+      <c r="F153" s="208"/>
+      <c r="G153" s="208"/>
+      <c r="H153" s="208"/>
+      <c r="I153" s="208"/>
+      <c r="J153" s="208"/>
+      <c r="K153" s="208"/>
+      <c r="L153" s="208"/>
+      <c r="M153" s="208"/>
+      <c r="N153" s="208"/>
+      <c r="O153" s="208"/>
+      <c r="P153" s="208"/>
+      <c r="Q153" s="208"/>
+      <c r="R153" s="209"/>
+      <c r="S153" s="207"/>
+      <c r="T153" s="208"/>
+      <c r="U153" s="208"/>
+      <c r="V153" s="208"/>
+      <c r="W153" s="208"/>
+      <c r="X153" s="208"/>
+      <c r="Y153" s="208"/>
+      <c r="Z153" s="208"/>
+      <c r="AA153" s="208"/>
+      <c r="AB153" s="208"/>
+      <c r="AC153" s="208"/>
+      <c r="AD153" s="208"/>
+      <c r="AE153" s="208"/>
+      <c r="AF153" s="208"/>
+      <c r="AG153" s="208"/>
+      <c r="AH153" s="209"/>
     </row>
     <row r="154" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B154" s="178" t="s">
+      <c r="B154" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="C154" s="179"/>
-      <c r="D154" s="179"/>
-      <c r="E154" s="179"/>
-      <c r="F154" s="179"/>
-      <c r="G154" s="179"/>
-      <c r="H154" s="179"/>
-      <c r="I154" s="179"/>
-      <c r="J154" s="179"/>
-      <c r="K154" s="179"/>
-      <c r="L154" s="179"/>
-      <c r="M154" s="179"/>
-      <c r="N154" s="179"/>
-      <c r="O154" s="179"/>
-      <c r="P154" s="179"/>
-      <c r="Q154" s="179"/>
-      <c r="R154" s="180"/>
-      <c r="S154" s="178" t="s">
+      <c r="C154" s="198"/>
+      <c r="D154" s="198"/>
+      <c r="E154" s="198"/>
+      <c r="F154" s="198"/>
+      <c r="G154" s="198"/>
+      <c r="H154" s="198"/>
+      <c r="I154" s="198"/>
+      <c r="J154" s="198"/>
+      <c r="K154" s="198"/>
+      <c r="L154" s="198"/>
+      <c r="M154" s="198"/>
+      <c r="N154" s="198"/>
+      <c r="O154" s="198"/>
+      <c r="P154" s="198"/>
+      <c r="Q154" s="198"/>
+      <c r="R154" s="199"/>
+      <c r="S154" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="T154" s="179"/>
-      <c r="U154" s="179"/>
-      <c r="V154" s="179"/>
-      <c r="W154" s="179"/>
-      <c r="X154" s="179"/>
-      <c r="Y154" s="179"/>
-      <c r="Z154" s="179"/>
-      <c r="AA154" s="179"/>
-      <c r="AB154" s="179"/>
-      <c r="AC154" s="179"/>
-      <c r="AD154" s="179"/>
-      <c r="AE154" s="179"/>
-      <c r="AF154" s="179"/>
-      <c r="AG154" s="179"/>
-      <c r="AH154" s="180"/>
+      <c r="T154" s="198"/>
+      <c r="U154" s="198"/>
+      <c r="V154" s="198"/>
+      <c r="W154" s="198"/>
+      <c r="X154" s="198"/>
+      <c r="Y154" s="198"/>
+      <c r="Z154" s="198"/>
+      <c r="AA154" s="198"/>
+      <c r="AB154" s="198"/>
+      <c r="AC154" s="198"/>
+      <c r="AD154" s="198"/>
+      <c r="AE154" s="198"/>
+      <c r="AF154" s="198"/>
+      <c r="AG154" s="198"/>
+      <c r="AH154" s="199"/>
     </row>
     <row r="155" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B155" s="251"/>
-      <c r="C155" s="252"/>
-      <c r="D155" s="252"/>
-      <c r="E155" s="252"/>
-      <c r="F155" s="252"/>
-      <c r="G155" s="252"/>
-      <c r="H155" s="252"/>
-      <c r="I155" s="252"/>
-      <c r="J155" s="252"/>
-      <c r="K155" s="252"/>
-      <c r="L155" s="252"/>
-      <c r="M155" s="252"/>
-      <c r="N155" s="252"/>
-      <c r="O155" s="252"/>
-      <c r="P155" s="252"/>
-      <c r="Q155" s="252"/>
-      <c r="R155" s="253"/>
-      <c r="S155" s="252"/>
-      <c r="T155" s="252"/>
-      <c r="U155" s="252"/>
-      <c r="V155" s="252"/>
-      <c r="W155" s="252"/>
-      <c r="X155" s="252"/>
-      <c r="Y155" s="252"/>
-      <c r="Z155" s="252"/>
-      <c r="AA155" s="252"/>
-      <c r="AB155" s="252"/>
-      <c r="AC155" s="252"/>
-      <c r="AD155" s="252"/>
-      <c r="AE155" s="252"/>
-      <c r="AF155" s="252"/>
-      <c r="AG155" s="252"/>
-      <c r="AH155" s="253"/>
+      <c r="B155" s="256"/>
+      <c r="C155" s="257"/>
+      <c r="D155" s="257"/>
+      <c r="E155" s="257"/>
+      <c r="F155" s="257"/>
+      <c r="G155" s="257"/>
+      <c r="H155" s="257"/>
+      <c r="I155" s="257"/>
+      <c r="J155" s="257"/>
+      <c r="K155" s="257"/>
+      <c r="L155" s="257"/>
+      <c r="M155" s="257"/>
+      <c r="N155" s="257"/>
+      <c r="O155" s="257"/>
+      <c r="P155" s="257"/>
+      <c r="Q155" s="257"/>
+      <c r="R155" s="258"/>
+      <c r="S155" s="257"/>
+      <c r="T155" s="257"/>
+      <c r="U155" s="257"/>
+      <c r="V155" s="257"/>
+      <c r="W155" s="257"/>
+      <c r="X155" s="257"/>
+      <c r="Y155" s="257"/>
+      <c r="Z155" s="257"/>
+      <c r="AA155" s="257"/>
+      <c r="AB155" s="257"/>
+      <c r="AC155" s="257"/>
+      <c r="AD155" s="257"/>
+      <c r="AE155" s="257"/>
+      <c r="AF155" s="257"/>
+      <c r="AG155" s="257"/>
+      <c r="AH155" s="258"/>
     </row>
     <row r="156" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B156" s="254"/>
-      <c r="C156" s="255"/>
-      <c r="D156" s="255"/>
-      <c r="E156" s="255"/>
-      <c r="F156" s="255"/>
-      <c r="G156" s="255"/>
-      <c r="H156" s="255"/>
-      <c r="I156" s="255"/>
-      <c r="J156" s="255"/>
-      <c r="K156" s="255"/>
-      <c r="L156" s="255"/>
-      <c r="M156" s="255"/>
-      <c r="N156" s="255"/>
-      <c r="O156" s="255"/>
-      <c r="P156" s="255"/>
-      <c r="Q156" s="255"/>
-      <c r="R156" s="256"/>
-      <c r="S156" s="255"/>
-      <c r="T156" s="255"/>
-      <c r="U156" s="255"/>
-      <c r="V156" s="255"/>
-      <c r="W156" s="255"/>
-      <c r="X156" s="255"/>
-      <c r="Y156" s="255"/>
-      <c r="Z156" s="255"/>
-      <c r="AA156" s="255"/>
-      <c r="AB156" s="255"/>
-      <c r="AC156" s="255"/>
-      <c r="AD156" s="255"/>
-      <c r="AE156" s="255"/>
-      <c r="AF156" s="255"/>
-      <c r="AG156" s="255"/>
-      <c r="AH156" s="256"/>
+      <c r="B156" s="259"/>
+      <c r="C156" s="260"/>
+      <c r="D156" s="260"/>
+      <c r="E156" s="260"/>
+      <c r="F156" s="260"/>
+      <c r="G156" s="260"/>
+      <c r="H156" s="260"/>
+      <c r="I156" s="260"/>
+      <c r="J156" s="260"/>
+      <c r="K156" s="260"/>
+      <c r="L156" s="260"/>
+      <c r="M156" s="260"/>
+      <c r="N156" s="260"/>
+      <c r="O156" s="260"/>
+      <c r="P156" s="260"/>
+      <c r="Q156" s="260"/>
+      <c r="R156" s="261"/>
+      <c r="S156" s="260"/>
+      <c r="T156" s="260"/>
+      <c r="U156" s="260"/>
+      <c r="V156" s="260"/>
+      <c r="W156" s="260"/>
+      <c r="X156" s="260"/>
+      <c r="Y156" s="260"/>
+      <c r="Z156" s="260"/>
+      <c r="AA156" s="260"/>
+      <c r="AB156" s="260"/>
+      <c r="AC156" s="260"/>
+      <c r="AD156" s="260"/>
+      <c r="AE156" s="260"/>
+      <c r="AF156" s="260"/>
+      <c r="AG156" s="260"/>
+      <c r="AH156" s="261"/>
     </row>
     <row r="157" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B157" s="254"/>
-      <c r="C157" s="255"/>
-      <c r="D157" s="255"/>
-      <c r="E157" s="255"/>
-      <c r="F157" s="255"/>
-      <c r="G157" s="255"/>
-      <c r="H157" s="255"/>
-      <c r="I157" s="255"/>
-      <c r="J157" s="255"/>
-      <c r="K157" s="255"/>
-      <c r="L157" s="255"/>
-      <c r="M157" s="255"/>
-      <c r="N157" s="255"/>
-      <c r="O157" s="255"/>
-      <c r="P157" s="255"/>
-      <c r="Q157" s="255"/>
-      <c r="R157" s="256"/>
-      <c r="S157" s="255"/>
-      <c r="T157" s="255"/>
-      <c r="U157" s="255"/>
-      <c r="V157" s="255"/>
-      <c r="W157" s="255"/>
-      <c r="X157" s="255"/>
-      <c r="Y157" s="255"/>
-      <c r="Z157" s="255"/>
-      <c r="AA157" s="255"/>
-      <c r="AB157" s="255"/>
-      <c r="AC157" s="255"/>
-      <c r="AD157" s="255"/>
-      <c r="AE157" s="255"/>
-      <c r="AF157" s="255"/>
-      <c r="AG157" s="255"/>
-      <c r="AH157" s="256"/>
+      <c r="B157" s="259"/>
+      <c r="C157" s="260"/>
+      <c r="D157" s="260"/>
+      <c r="E157" s="260"/>
+      <c r="F157" s="260"/>
+      <c r="G157" s="260"/>
+      <c r="H157" s="260"/>
+      <c r="I157" s="260"/>
+      <c r="J157" s="260"/>
+      <c r="K157" s="260"/>
+      <c r="L157" s="260"/>
+      <c r="M157" s="260"/>
+      <c r="N157" s="260"/>
+      <c r="O157" s="260"/>
+      <c r="P157" s="260"/>
+      <c r="Q157" s="260"/>
+      <c r="R157" s="261"/>
+      <c r="S157" s="260"/>
+      <c r="T157" s="260"/>
+      <c r="U157" s="260"/>
+      <c r="V157" s="260"/>
+      <c r="W157" s="260"/>
+      <c r="X157" s="260"/>
+      <c r="Y157" s="260"/>
+      <c r="Z157" s="260"/>
+      <c r="AA157" s="260"/>
+      <c r="AB157" s="260"/>
+      <c r="AC157" s="260"/>
+      <c r="AD157" s="260"/>
+      <c r="AE157" s="260"/>
+      <c r="AF157" s="260"/>
+      <c r="AG157" s="260"/>
+      <c r="AH157" s="261"/>
     </row>
     <row r="158" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B158" s="254"/>
-      <c r="C158" s="255"/>
-      <c r="D158" s="255"/>
-      <c r="E158" s="255"/>
-      <c r="F158" s="255"/>
-      <c r="G158" s="255"/>
-      <c r="H158" s="255"/>
-      <c r="I158" s="255"/>
-      <c r="J158" s="255"/>
-      <c r="K158" s="255"/>
-      <c r="L158" s="255"/>
-      <c r="M158" s="255"/>
-      <c r="N158" s="255"/>
-      <c r="O158" s="255"/>
-      <c r="P158" s="255"/>
-      <c r="Q158" s="255"/>
-      <c r="R158" s="256"/>
-      <c r="S158" s="255"/>
-      <c r="T158" s="255"/>
-      <c r="U158" s="255"/>
-      <c r="V158" s="255"/>
-      <c r="W158" s="255"/>
-      <c r="X158" s="255"/>
-      <c r="Y158" s="255"/>
-      <c r="Z158" s="255"/>
-      <c r="AA158" s="255"/>
-      <c r="AB158" s="255"/>
-      <c r="AC158" s="255"/>
-      <c r="AD158" s="255"/>
-      <c r="AE158" s="255"/>
-      <c r="AF158" s="255"/>
-      <c r="AG158" s="255"/>
-      <c r="AH158" s="256"/>
+      <c r="B158" s="259"/>
+      <c r="C158" s="260"/>
+      <c r="D158" s="260"/>
+      <c r="E158" s="260"/>
+      <c r="F158" s="260"/>
+      <c r="G158" s="260"/>
+      <c r="H158" s="260"/>
+      <c r="I158" s="260"/>
+      <c r="J158" s="260"/>
+      <c r="K158" s="260"/>
+      <c r="L158" s="260"/>
+      <c r="M158" s="260"/>
+      <c r="N158" s="260"/>
+      <c r="O158" s="260"/>
+      <c r="P158" s="260"/>
+      <c r="Q158" s="260"/>
+      <c r="R158" s="261"/>
+      <c r="S158" s="260"/>
+      <c r="T158" s="260"/>
+      <c r="U158" s="260"/>
+      <c r="V158" s="260"/>
+      <c r="W158" s="260"/>
+      <c r="X158" s="260"/>
+      <c r="Y158" s="260"/>
+      <c r="Z158" s="260"/>
+      <c r="AA158" s="260"/>
+      <c r="AB158" s="260"/>
+      <c r="AC158" s="260"/>
+      <c r="AD158" s="260"/>
+      <c r="AE158" s="260"/>
+      <c r="AF158" s="260"/>
+      <c r="AG158" s="260"/>
+      <c r="AH158" s="261"/>
     </row>
     <row r="159" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B159" s="254"/>
-      <c r="C159" s="255"/>
-      <c r="D159" s="255"/>
-      <c r="E159" s="255"/>
-      <c r="F159" s="255"/>
-      <c r="G159" s="255"/>
-      <c r="H159" s="255"/>
-      <c r="I159" s="255"/>
-      <c r="J159" s="255"/>
-      <c r="K159" s="255"/>
-      <c r="L159" s="255"/>
-      <c r="M159" s="255"/>
-      <c r="N159" s="255"/>
-      <c r="O159" s="255"/>
-      <c r="P159" s="255"/>
-      <c r="Q159" s="255"/>
-      <c r="R159" s="256"/>
-      <c r="S159" s="255"/>
-      <c r="T159" s="255"/>
-      <c r="U159" s="255"/>
-      <c r="V159" s="255"/>
-      <c r="W159" s="255"/>
-      <c r="X159" s="255"/>
-      <c r="Y159" s="255"/>
-      <c r="Z159" s="255"/>
-      <c r="AA159" s="255"/>
-      <c r="AB159" s="255"/>
-      <c r="AC159" s="255"/>
-      <c r="AD159" s="255"/>
-      <c r="AE159" s="255"/>
-      <c r="AF159" s="255"/>
-      <c r="AG159" s="255"/>
-      <c r="AH159" s="256"/>
+      <c r="B159" s="259"/>
+      <c r="C159" s="260"/>
+      <c r="D159" s="260"/>
+      <c r="E159" s="260"/>
+      <c r="F159" s="260"/>
+      <c r="G159" s="260"/>
+      <c r="H159" s="260"/>
+      <c r="I159" s="260"/>
+      <c r="J159" s="260"/>
+      <c r="K159" s="260"/>
+      <c r="L159" s="260"/>
+      <c r="M159" s="260"/>
+      <c r="N159" s="260"/>
+      <c r="O159" s="260"/>
+      <c r="P159" s="260"/>
+      <c r="Q159" s="260"/>
+      <c r="R159" s="261"/>
+      <c r="S159" s="260"/>
+      <c r="T159" s="260"/>
+      <c r="U159" s="260"/>
+      <c r="V159" s="260"/>
+      <c r="W159" s="260"/>
+      <c r="X159" s="260"/>
+      <c r="Y159" s="260"/>
+      <c r="Z159" s="260"/>
+      <c r="AA159" s="260"/>
+      <c r="AB159" s="260"/>
+      <c r="AC159" s="260"/>
+      <c r="AD159" s="260"/>
+      <c r="AE159" s="260"/>
+      <c r="AF159" s="260"/>
+      <c r="AG159" s="260"/>
+      <c r="AH159" s="261"/>
     </row>
     <row r="160" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B160" s="254"/>
-      <c r="C160" s="255"/>
-      <c r="D160" s="255"/>
-      <c r="E160" s="255"/>
-      <c r="F160" s="255"/>
-      <c r="G160" s="255"/>
-      <c r="H160" s="255"/>
-      <c r="I160" s="255"/>
-      <c r="J160" s="255"/>
-      <c r="K160" s="255"/>
-      <c r="L160" s="255"/>
-      <c r="M160" s="255"/>
-      <c r="N160" s="255"/>
-      <c r="O160" s="255"/>
-      <c r="P160" s="255"/>
-      <c r="Q160" s="255"/>
-      <c r="R160" s="256"/>
-      <c r="S160" s="255"/>
-      <c r="T160" s="255"/>
-      <c r="U160" s="255"/>
-      <c r="V160" s="255"/>
-      <c r="W160" s="255"/>
-      <c r="X160" s="255"/>
-      <c r="Y160" s="255"/>
-      <c r="Z160" s="255"/>
-      <c r="AA160" s="255"/>
-      <c r="AB160" s="255"/>
-      <c r="AC160" s="255"/>
-      <c r="AD160" s="255"/>
-      <c r="AE160" s="255"/>
-      <c r="AF160" s="255"/>
-      <c r="AG160" s="255"/>
-      <c r="AH160" s="256"/>
+      <c r="B160" s="259"/>
+      <c r="C160" s="260"/>
+      <c r="D160" s="260"/>
+      <c r="E160" s="260"/>
+      <c r="F160" s="260"/>
+      <c r="G160" s="260"/>
+      <c r="H160" s="260"/>
+      <c r="I160" s="260"/>
+      <c r="J160" s="260"/>
+      <c r="K160" s="260"/>
+      <c r="L160" s="260"/>
+      <c r="M160" s="260"/>
+      <c r="N160" s="260"/>
+      <c r="O160" s="260"/>
+      <c r="P160" s="260"/>
+      <c r="Q160" s="260"/>
+      <c r="R160" s="261"/>
+      <c r="S160" s="260"/>
+      <c r="T160" s="260"/>
+      <c r="U160" s="260"/>
+      <c r="V160" s="260"/>
+      <c r="W160" s="260"/>
+      <c r="X160" s="260"/>
+      <c r="Y160" s="260"/>
+      <c r="Z160" s="260"/>
+      <c r="AA160" s="260"/>
+      <c r="AB160" s="260"/>
+      <c r="AC160" s="260"/>
+      <c r="AD160" s="260"/>
+      <c r="AE160" s="260"/>
+      <c r="AF160" s="260"/>
+      <c r="AG160" s="260"/>
+      <c r="AH160" s="261"/>
     </row>
     <row r="161" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B161" s="254"/>
-      <c r="C161" s="255"/>
-      <c r="D161" s="255"/>
-      <c r="E161" s="255"/>
-      <c r="F161" s="255"/>
-      <c r="G161" s="255"/>
-      <c r="H161" s="255"/>
-      <c r="I161" s="255"/>
-      <c r="J161" s="255"/>
-      <c r="K161" s="255"/>
-      <c r="L161" s="255"/>
-      <c r="M161" s="255"/>
-      <c r="N161" s="255"/>
-      <c r="O161" s="255"/>
-      <c r="P161" s="255"/>
-      <c r="Q161" s="255"/>
-      <c r="R161" s="256"/>
-      <c r="S161" s="255"/>
-      <c r="T161" s="255"/>
-      <c r="U161" s="255"/>
-      <c r="V161" s="255"/>
-      <c r="W161" s="255"/>
-      <c r="X161" s="255"/>
-      <c r="Y161" s="255"/>
-      <c r="Z161" s="255"/>
-      <c r="AA161" s="255"/>
-      <c r="AB161" s="255"/>
-      <c r="AC161" s="255"/>
-      <c r="AD161" s="255"/>
-      <c r="AE161" s="255"/>
-      <c r="AF161" s="255"/>
-      <c r="AG161" s="255"/>
-      <c r="AH161" s="256"/>
+      <c r="B161" s="259"/>
+      <c r="C161" s="260"/>
+      <c r="D161" s="260"/>
+      <c r="E161" s="260"/>
+      <c r="F161" s="260"/>
+      <c r="G161" s="260"/>
+      <c r="H161" s="260"/>
+      <c r="I161" s="260"/>
+      <c r="J161" s="260"/>
+      <c r="K161" s="260"/>
+      <c r="L161" s="260"/>
+      <c r="M161" s="260"/>
+      <c r="N161" s="260"/>
+      <c r="O161" s="260"/>
+      <c r="P161" s="260"/>
+      <c r="Q161" s="260"/>
+      <c r="R161" s="261"/>
+      <c r="S161" s="260"/>
+      <c r="T161" s="260"/>
+      <c r="U161" s="260"/>
+      <c r="V161" s="260"/>
+      <c r="W161" s="260"/>
+      <c r="X161" s="260"/>
+      <c r="Y161" s="260"/>
+      <c r="Z161" s="260"/>
+      <c r="AA161" s="260"/>
+      <c r="AB161" s="260"/>
+      <c r="AC161" s="260"/>
+      <c r="AD161" s="260"/>
+      <c r="AE161" s="260"/>
+      <c r="AF161" s="260"/>
+      <c r="AG161" s="260"/>
+      <c r="AH161" s="261"/>
     </row>
     <row r="162" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B162" s="254"/>
-      <c r="C162" s="255"/>
-      <c r="D162" s="255"/>
-      <c r="E162" s="255"/>
-      <c r="F162" s="255"/>
-      <c r="G162" s="255"/>
-      <c r="H162" s="255"/>
-      <c r="I162" s="255"/>
-      <c r="J162" s="255"/>
-      <c r="K162" s="255"/>
-      <c r="L162" s="255"/>
-      <c r="M162" s="255"/>
-      <c r="N162" s="255"/>
-      <c r="O162" s="255"/>
-      <c r="P162" s="255"/>
-      <c r="Q162" s="255"/>
-      <c r="R162" s="256"/>
-      <c r="S162" s="255"/>
-      <c r="T162" s="255"/>
-      <c r="U162" s="255"/>
-      <c r="V162" s="255"/>
-      <c r="W162" s="255"/>
-      <c r="X162" s="255"/>
-      <c r="Y162" s="255"/>
-      <c r="Z162" s="255"/>
-      <c r="AA162" s="255"/>
-      <c r="AB162" s="255"/>
-      <c r="AC162" s="255"/>
-      <c r="AD162" s="255"/>
-      <c r="AE162" s="255"/>
-      <c r="AF162" s="255"/>
-      <c r="AG162" s="255"/>
-      <c r="AH162" s="256"/>
+      <c r="B162" s="259"/>
+      <c r="C162" s="260"/>
+      <c r="D162" s="260"/>
+      <c r="E162" s="260"/>
+      <c r="F162" s="260"/>
+      <c r="G162" s="260"/>
+      <c r="H162" s="260"/>
+      <c r="I162" s="260"/>
+      <c r="J162" s="260"/>
+      <c r="K162" s="260"/>
+      <c r="L162" s="260"/>
+      <c r="M162" s="260"/>
+      <c r="N162" s="260"/>
+      <c r="O162" s="260"/>
+      <c r="P162" s="260"/>
+      <c r="Q162" s="260"/>
+      <c r="R162" s="261"/>
+      <c r="S162" s="260"/>
+      <c r="T162" s="260"/>
+      <c r="U162" s="260"/>
+      <c r="V162" s="260"/>
+      <c r="W162" s="260"/>
+      <c r="X162" s="260"/>
+      <c r="Y162" s="260"/>
+      <c r="Z162" s="260"/>
+      <c r="AA162" s="260"/>
+      <c r="AB162" s="260"/>
+      <c r="AC162" s="260"/>
+      <c r="AD162" s="260"/>
+      <c r="AE162" s="260"/>
+      <c r="AF162" s="260"/>
+      <c r="AG162" s="260"/>
+      <c r="AH162" s="261"/>
     </row>
     <row r="163" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B163" s="257"/>
-      <c r="C163" s="258"/>
-      <c r="D163" s="258"/>
-      <c r="E163" s="258"/>
-      <c r="F163" s="258"/>
-      <c r="G163" s="258"/>
-      <c r="H163" s="258"/>
-      <c r="I163" s="258"/>
-      <c r="J163" s="258"/>
-      <c r="K163" s="258"/>
-      <c r="L163" s="258"/>
-      <c r="M163" s="258"/>
-      <c r="N163" s="258"/>
-      <c r="O163" s="258"/>
-      <c r="P163" s="258"/>
-      <c r="Q163" s="258"/>
-      <c r="R163" s="259"/>
-      <c r="S163" s="258"/>
-      <c r="T163" s="258"/>
-      <c r="U163" s="258"/>
-      <c r="V163" s="258"/>
-      <c r="W163" s="258"/>
-      <c r="X163" s="258"/>
-      <c r="Y163" s="258"/>
-      <c r="Z163" s="258"/>
-      <c r="AA163" s="258"/>
-      <c r="AB163" s="258"/>
-      <c r="AC163" s="258"/>
-      <c r="AD163" s="258"/>
-      <c r="AE163" s="258"/>
-      <c r="AF163" s="258"/>
-      <c r="AG163" s="258"/>
-      <c r="AH163" s="259"/>
+      <c r="B163" s="262"/>
+      <c r="C163" s="263"/>
+      <c r="D163" s="263"/>
+      <c r="E163" s="263"/>
+      <c r="F163" s="263"/>
+      <c r="G163" s="263"/>
+      <c r="H163" s="263"/>
+      <c r="I163" s="263"/>
+      <c r="J163" s="263"/>
+      <c r="K163" s="263"/>
+      <c r="L163" s="263"/>
+      <c r="M163" s="263"/>
+      <c r="N163" s="263"/>
+      <c r="O163" s="263"/>
+      <c r="P163" s="263"/>
+      <c r="Q163" s="263"/>
+      <c r="R163" s="264"/>
+      <c r="S163" s="263"/>
+      <c r="T163" s="263"/>
+      <c r="U163" s="263"/>
+      <c r="V163" s="263"/>
+      <c r="W163" s="263"/>
+      <c r="X163" s="263"/>
+      <c r="Y163" s="263"/>
+      <c r="Z163" s="263"/>
+      <c r="AA163" s="263"/>
+      <c r="AB163" s="263"/>
+      <c r="AC163" s="263"/>
+      <c r="AD163" s="263"/>
+      <c r="AE163" s="263"/>
+      <c r="AF163" s="263"/>
+      <c r="AG163" s="263"/>
+      <c r="AH163" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="S146:AH153"/>
-    <mergeCell ref="B154:R154"/>
-    <mergeCell ref="S154:AH154"/>
     <mergeCell ref="B155:R163"/>
     <mergeCell ref="S155:AH163"/>
     <mergeCell ref="B118:G118"/>
@@ -9557,6 +9576,16 @@
     <mergeCell ref="B144:AH144"/>
     <mergeCell ref="B145:R145"/>
     <mergeCell ref="S145:AH145"/>
+    <mergeCell ref="B110:AE110"/>
+    <mergeCell ref="AF110:AH110"/>
+    <mergeCell ref="B112:G114"/>
+    <mergeCell ref="H112:AH112"/>
+    <mergeCell ref="H113:AH113"/>
+    <mergeCell ref="H114:AH114"/>
+    <mergeCell ref="B111:AE111"/>
+    <mergeCell ref="AF111:AH111"/>
+    <mergeCell ref="B154:R154"/>
+    <mergeCell ref="S154:AH154"/>
     <mergeCell ref="B146:R153"/>
     <mergeCell ref="B116:G116"/>
     <mergeCell ref="H116:N116"/>
@@ -9566,40 +9595,42 @@
     <mergeCell ref="G117:N117"/>
     <mergeCell ref="O117:T117"/>
     <mergeCell ref="U117:AH117"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:R108"/>
-    <mergeCell ref="S108:V108"/>
-    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="S146:AH153"/>
+    <mergeCell ref="B106:R106"/>
+    <mergeCell ref="S106:U106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="F107:R107"/>
+    <mergeCell ref="S107:V107"/>
+    <mergeCell ref="W107:AH107"/>
     <mergeCell ref="B109:E109"/>
     <mergeCell ref="F109:J109"/>
     <mergeCell ref="L109:R109"/>
     <mergeCell ref="S109:V109"/>
     <mergeCell ref="W109:AA109"/>
-    <mergeCell ref="B110:AE110"/>
-    <mergeCell ref="AF110:AH110"/>
-    <mergeCell ref="B112:G114"/>
-    <mergeCell ref="H112:AH112"/>
-    <mergeCell ref="H113:AH113"/>
-    <mergeCell ref="H114:AH114"/>
-    <mergeCell ref="B111:AE111"/>
-    <mergeCell ref="AF111:AH111"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:R108"/>
+    <mergeCell ref="S108:V108"/>
+    <mergeCell ref="W108:AH108"/>
+    <mergeCell ref="B91:AH91"/>
+    <mergeCell ref="B92:R92"/>
+    <mergeCell ref="S92:AH92"/>
+    <mergeCell ref="X68:AH68"/>
+    <mergeCell ref="B69:AH69"/>
+    <mergeCell ref="B72:R72"/>
+    <mergeCell ref="S72:AH72"/>
+    <mergeCell ref="B73:R80"/>
+    <mergeCell ref="S73:AH80"/>
+    <mergeCell ref="B81:AH81"/>
+    <mergeCell ref="B82:R82"/>
+    <mergeCell ref="S82:AH82"/>
+    <mergeCell ref="B83:R90"/>
+    <mergeCell ref="S83:AH90"/>
     <mergeCell ref="B93:R100"/>
     <mergeCell ref="S93:AH100"/>
     <mergeCell ref="B101:R101"/>
     <mergeCell ref="S101:AH101"/>
     <mergeCell ref="B102:R104"/>
     <mergeCell ref="S102:AH104"/>
-    <mergeCell ref="B106:R106"/>
-    <mergeCell ref="S106:U106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="F107:R107"/>
-    <mergeCell ref="S107:V107"/>
-    <mergeCell ref="W107:AH107"/>
-    <mergeCell ref="B91:AH91"/>
-    <mergeCell ref="B92:R92"/>
-    <mergeCell ref="S92:AH92"/>
-    <mergeCell ref="X68:AH68"/>
-    <mergeCell ref="B69:AH69"/>
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="H65:N65"/>
     <mergeCell ref="O65:T65"/>
@@ -9609,15 +9640,6 @@
     <mergeCell ref="O66:T66"/>
     <mergeCell ref="U66:AH66"/>
     <mergeCell ref="B71:AH71"/>
-    <mergeCell ref="B72:R72"/>
-    <mergeCell ref="S72:AH72"/>
-    <mergeCell ref="B73:R80"/>
-    <mergeCell ref="S73:AH80"/>
-    <mergeCell ref="B81:AH81"/>
-    <mergeCell ref="B82:R82"/>
-    <mergeCell ref="S82:AH82"/>
-    <mergeCell ref="B83:R90"/>
-    <mergeCell ref="S83:AH90"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="E46:AH46"/>
     <mergeCell ref="B47:D47"/>
@@ -9699,10 +9721,6 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="AA35:AB35"/>
     <mergeCell ref="AC35:AD35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="AG37:AH37"/>
@@ -9716,6 +9734,14 @@
     <mergeCell ref="AA36:AB36"/>
     <mergeCell ref="AC36:AD36"/>
     <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
@@ -9730,20 +9756,7 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="S36:T36"/>
     <mergeCell ref="AA34:AB34"/>
     <mergeCell ref="AC34:AD34"/>
     <mergeCell ref="AE34:AF34"/>
@@ -9758,6 +9771,15 @@
     <mergeCell ref="Q33:R33"/>
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="AA35:AB35"/>
     <mergeCell ref="B32:D33"/>
     <mergeCell ref="E32:AH32"/>
     <mergeCell ref="E33:F33"/>
